--- a/BackTest/2020-01-13 BackTest AOA.xlsx
+++ b/BackTest/2020-01-13 BackTest AOA.xlsx
@@ -1081,17 +1081,13 @@
         <v>1.912799999999999</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1.91</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
@@ -1120,22 +1116,14 @@
         <v>1.912999999999999</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>1.925</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1163,22 +1151,14 @@
         <v>1.913149999999999</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>1.923</v>
-      </c>
-      <c r="K22" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1212,14 +1192,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1253,14 +1227,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1288,22 +1256,14 @@
         <v>1.913316666666666</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>1.919</v>
-      </c>
-      <c r="K25" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1331,22 +1291,14 @@
         <v>1.913283333333333</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>1.908</v>
-      </c>
-      <c r="K26" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1380,14 +1332,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1415,22 +1361,14 @@
         <v>1.913583333333333</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>1.919</v>
-      </c>
-      <c r="K28" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1464,14 +1402,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1505,14 +1437,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1546,14 +1472,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1587,14 +1507,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1628,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1669,14 +1577,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1710,14 +1612,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1751,14 +1647,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1792,14 +1682,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1833,14 +1717,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1874,14 +1752,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1915,14 +1787,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1956,14 +1822,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1997,14 +1857,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2038,14 +1892,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2079,14 +1927,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2114,22 +1956,14 @@
         <v>1.913116666666666</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>1.919</v>
-      </c>
-      <c r="K45" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2157,22 +1991,14 @@
         <v>1.913283333333332</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>1.919</v>
-      </c>
-      <c r="K46" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2206,14 +2032,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2247,14 +2067,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2288,14 +2102,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2329,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2370,14 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2411,14 +2207,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2452,14 +2242,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2493,14 +2277,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2534,14 +2312,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2575,14 +2347,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2616,14 +2382,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2654,19 +2414,13 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>1.00651832460733</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -4515,7 +4269,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -5142,13 +4896,17 @@
         <v>1.922250000000001</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>1.924</v>
+      </c>
+      <c r="K129" t="n">
+        <v>1.924</v>
+      </c>
       <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
@@ -5177,14 +4935,22 @@
         <v>1.921933333333334</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>1.924</v>
+      </c>
+      <c r="K130" t="n">
+        <v>1.924</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5218,8 +4984,14 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1.924</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5253,8 +5025,14 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1.924</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5288,8 +5066,14 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1.924</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5323,8 +5107,14 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1.924</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5358,8 +5148,14 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1.924</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5393,8 +5189,14 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1.924</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5428,8 +5230,14 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1.924</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5463,8 +5271,14 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1.924</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5498,8 +5312,14 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1.924</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5533,8 +5353,14 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1.924</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5568,8 +5394,14 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1.924</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5603,8 +5435,14 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1.924</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5638,8 +5476,14 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1.924</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5673,8 +5517,14 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1.924</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-13 BackTest AOA.xlsx
+++ b/BackTest/2020-01-13 BackTest AOA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M144"/>
+  <dimension ref="A1:M145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,19 +436,19 @@
         <v>1.923</v>
       </c>
       <c r="C2" t="n">
-        <v>1.906</v>
+        <v>1.923</v>
       </c>
       <c r="D2" t="n">
-        <v>1.927</v>
+        <v>1.923</v>
       </c>
       <c r="E2" t="n">
         <v>1.906</v>
       </c>
       <c r="F2" t="n">
-        <v>2981653.88</v>
+        <v>3739463.88</v>
       </c>
       <c r="G2" t="n">
-        <v>1.916033333333333</v>
+        <v>1.916499999999999</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.927</v>
+        <v>1.923</v>
       </c>
       <c r="C3" t="n">
         <v>1.906</v>
@@ -480,10 +480,10 @@
         <v>1.906</v>
       </c>
       <c r="F3" t="n">
-        <v>643823.88</v>
+        <v>2981653.88</v>
       </c>
       <c r="G3" t="n">
-        <v>1.915566666666666</v>
+        <v>1.916033333333333</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>1.927</v>
       </c>
       <c r="C4" t="n">
-        <v>1.927</v>
+        <v>1.906</v>
       </c>
       <c r="D4" t="n">
         <v>1.927</v>
       </c>
       <c r="E4" t="n">
-        <v>1.913</v>
+        <v>1.906</v>
       </c>
       <c r="F4" t="n">
-        <v>770370.88</v>
+        <v>643823.88</v>
       </c>
       <c r="G4" t="n">
-        <v>1.915666666666666</v>
+        <v>1.915566666666666</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.926</v>
+        <v>1.927</v>
       </c>
       <c r="C5" t="n">
-        <v>1.926</v>
+        <v>1.927</v>
       </c>
       <c r="D5" t="n">
-        <v>1.926</v>
+        <v>1.927</v>
       </c>
       <c r="E5" t="n">
-        <v>1.926</v>
+        <v>1.913</v>
       </c>
       <c r="F5" t="n">
-        <v>40254.425</v>
+        <v>770370.88</v>
       </c>
       <c r="G5" t="n">
-        <v>1.915849999999999</v>
+        <v>1.915666666666666</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.912</v>
+        <v>1.926</v>
       </c>
       <c r="C6" t="n">
-        <v>1.912</v>
+        <v>1.926</v>
       </c>
       <c r="D6" t="n">
-        <v>1.912</v>
+        <v>1.926</v>
       </c>
       <c r="E6" t="n">
-        <v>1.912</v>
+        <v>1.926</v>
       </c>
       <c r="F6" t="n">
-        <v>422636.5779</v>
+        <v>40254.425</v>
       </c>
       <c r="G6" t="n">
-        <v>1.915783333333333</v>
+        <v>1.915849999999999</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>1.912</v>
       </c>
       <c r="F7" t="n">
-        <v>129800.4421</v>
+        <v>422636.5779</v>
       </c>
       <c r="G7" t="n">
-        <v>1.915416666666666</v>
+        <v>1.915783333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.926</v>
+        <v>1.912</v>
       </c>
       <c r="C8" t="n">
-        <v>1.925</v>
+        <v>1.912</v>
       </c>
       <c r="D8" t="n">
-        <v>1.926</v>
+        <v>1.912</v>
       </c>
       <c r="E8" t="n">
-        <v>1.906</v>
+        <v>1.912</v>
       </c>
       <c r="F8" t="n">
-        <v>2983815.88</v>
+        <v>129800.4421</v>
       </c>
       <c r="G8" t="n">
-        <v>1.915566666666666</v>
+        <v>1.915416666666666</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.925</v>
+        <v>1.926</v>
       </c>
       <c r="C9" t="n">
         <v>1.925</v>
       </c>
       <c r="D9" t="n">
-        <v>1.925</v>
+        <v>1.926</v>
       </c>
       <c r="E9" t="n">
-        <v>1.907</v>
+        <v>1.906</v>
       </c>
       <c r="F9" t="n">
-        <v>3242678.88</v>
+        <v>2983815.88</v>
       </c>
       <c r="G9" t="n">
-        <v>1.915716666666666</v>
+        <v>1.915566666666666</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.907</v>
+        <v>1.925</v>
       </c>
       <c r="C10" t="n">
-        <v>1.907</v>
+        <v>1.925</v>
       </c>
       <c r="D10" t="n">
-        <v>1.907</v>
+        <v>1.925</v>
       </c>
       <c r="E10" t="n">
         <v>1.907</v>
       </c>
       <c r="F10" t="n">
-        <v>438890</v>
+        <v>3242678.88</v>
       </c>
       <c r="G10" t="n">
-        <v>1.91555</v>
+        <v>1.915716666666666</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.906</v>
+        <v>1.907</v>
       </c>
       <c r="C11" t="n">
-        <v>1.906</v>
+        <v>1.907</v>
       </c>
       <c r="D11" t="n">
-        <v>1.906</v>
+        <v>1.907</v>
       </c>
       <c r="E11" t="n">
-        <v>1.906</v>
+        <v>1.907</v>
       </c>
       <c r="F11" t="n">
-        <v>40254.425</v>
+        <v>438890</v>
       </c>
       <c r="G11" t="n">
-        <v>1.915083333333333</v>
+        <v>1.91555</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.925</v>
+        <v>1.906</v>
       </c>
       <c r="C12" t="n">
-        <v>1.925</v>
+        <v>1.906</v>
       </c>
       <c r="D12" t="n">
-        <v>1.925</v>
+        <v>1.906</v>
       </c>
       <c r="E12" t="n">
-        <v>1.907</v>
+        <v>1.906</v>
       </c>
       <c r="F12" t="n">
-        <v>885346</v>
+        <v>40254.425</v>
       </c>
       <c r="G12" t="n">
-        <v>1.914916666666666</v>
+        <v>1.915083333333333</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.907</v>
+        <v>1.925</v>
       </c>
       <c r="C13" t="n">
-        <v>1.924</v>
+        <v>1.925</v>
       </c>
       <c r="D13" t="n">
         <v>1.925</v>
       </c>
       <c r="E13" t="n">
-        <v>1.906</v>
+        <v>1.907</v>
       </c>
       <c r="F13" t="n">
-        <v>3047093.76</v>
+        <v>885346</v>
       </c>
       <c r="G13" t="n">
-        <v>1.914716666666666</v>
+        <v>1.914916666666666</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -856,19 +856,19 @@
         <v>1.907</v>
       </c>
       <c r="C14" t="n">
-        <v>1.906</v>
+        <v>1.924</v>
       </c>
       <c r="D14" t="n">
-        <v>1.924</v>
+        <v>1.925</v>
       </c>
       <c r="E14" t="n">
         <v>1.906</v>
       </c>
       <c r="F14" t="n">
-        <v>3131493.88</v>
+        <v>3047093.76</v>
       </c>
       <c r="G14" t="n">
-        <v>1.91455</v>
+        <v>1.914716666666666</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.91</v>
+        <v>1.907</v>
       </c>
       <c r="C15" t="n">
-        <v>1.91</v>
+        <v>1.906</v>
       </c>
       <c r="D15" t="n">
-        <v>1.91</v>
+        <v>1.924</v>
       </c>
       <c r="E15" t="n">
-        <v>1.91</v>
+        <v>1.906</v>
       </c>
       <c r="F15" t="n">
-        <v>8888</v>
+        <v>3131493.88</v>
       </c>
       <c r="G15" t="n">
-        <v>1.914133333333333</v>
+        <v>1.91455</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>1.91</v>
       </c>
       <c r="F16" t="n">
-        <v>13332</v>
+        <v>8888</v>
       </c>
       <c r="G16" t="n">
-        <v>1.914016666666666</v>
+        <v>1.914133333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>1.91</v>
       </c>
       <c r="F17" t="n">
-        <v>914.4103</v>
+        <v>13332</v>
       </c>
       <c r="G17" t="n">
-        <v>1.9136</v>
+        <v>1.914016666666666</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.907</v>
+        <v>1.91</v>
       </c>
       <c r="C18" t="n">
-        <v>1.907</v>
+        <v>1.91</v>
       </c>
       <c r="D18" t="n">
-        <v>1.907</v>
+        <v>1.91</v>
       </c>
       <c r="E18" t="n">
-        <v>1.907</v>
+        <v>1.91</v>
       </c>
       <c r="F18" t="n">
-        <v>9444</v>
+        <v>914.4103</v>
       </c>
       <c r="G18" t="n">
-        <v>1.913133333333333</v>
+        <v>1.9136</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.905</v>
+        <v>1.907</v>
       </c>
       <c r="C19" t="n">
-        <v>1.905</v>
+        <v>1.907</v>
       </c>
       <c r="D19" t="n">
-        <v>1.905</v>
+        <v>1.907</v>
       </c>
       <c r="E19" t="n">
-        <v>1.905</v>
+        <v>1.907</v>
       </c>
       <c r="F19" t="n">
-        <v>187556</v>
+        <v>9444</v>
       </c>
       <c r="G19" t="n">
-        <v>1.912916666666666</v>
+        <v>1.913133333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.91</v>
+        <v>1.905</v>
       </c>
       <c r="C20" t="n">
-        <v>1.91</v>
+        <v>1.905</v>
       </c>
       <c r="D20" t="n">
-        <v>1.91</v>
+        <v>1.905</v>
       </c>
       <c r="E20" t="n">
-        <v>1.91</v>
+        <v>1.905</v>
       </c>
       <c r="F20" t="n">
-        <v>99649.5353</v>
+        <v>187556</v>
       </c>
       <c r="G20" t="n">
-        <v>1.912799999999999</v>
+        <v>1.912916666666666</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.925</v>
+        <v>1.91</v>
       </c>
       <c r="C21" t="n">
-        <v>1.925</v>
+        <v>1.91</v>
       </c>
       <c r="D21" t="n">
-        <v>1.925</v>
+        <v>1.91</v>
       </c>
       <c r="E21" t="n">
-        <v>1.925</v>
+        <v>1.91</v>
       </c>
       <c r="F21" t="n">
-        <v>25909.2528</v>
+        <v>99649.5353</v>
       </c>
       <c r="G21" t="n">
-        <v>1.912999999999999</v>
+        <v>1.912799999999999</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.923</v>
+        <v>1.925</v>
       </c>
       <c r="C22" t="n">
-        <v>1.919</v>
+        <v>1.925</v>
       </c>
       <c r="D22" t="n">
-        <v>1.923</v>
+        <v>1.925</v>
       </c>
       <c r="E22" t="n">
-        <v>1.907</v>
+        <v>1.925</v>
       </c>
       <c r="F22" t="n">
-        <v>671257.88</v>
+        <v>25909.2528</v>
       </c>
       <c r="G22" t="n">
-        <v>1.913149999999999</v>
+        <v>1.912999999999999</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.906</v>
+        <v>1.923</v>
       </c>
       <c r="C23" t="n">
-        <v>1.906</v>
+        <v>1.919</v>
       </c>
       <c r="D23" t="n">
-        <v>1.906</v>
+        <v>1.923</v>
       </c>
       <c r="E23" t="n">
-        <v>1.906</v>
+        <v>1.907</v>
       </c>
       <c r="F23" t="n">
-        <v>867.6938</v>
+        <v>671257.88</v>
       </c>
       <c r="G23" t="n">
-        <v>1.913099999999999</v>
+        <v>1.913149999999999</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.914</v>
+        <v>1.906</v>
       </c>
       <c r="C24" t="n">
-        <v>1.914</v>
+        <v>1.906</v>
       </c>
       <c r="D24" t="n">
-        <v>1.914</v>
+        <v>1.906</v>
       </c>
       <c r="E24" t="n">
-        <v>1.914</v>
+        <v>1.906</v>
       </c>
       <c r="F24" t="n">
-        <v>14345.173</v>
+        <v>867.6938</v>
       </c>
       <c r="G24" t="n">
-        <v>1.913166666666666</v>
+        <v>1.913099999999999</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.919</v>
+        <v>1.914</v>
       </c>
       <c r="C25" t="n">
-        <v>1.92</v>
+        <v>1.914</v>
       </c>
       <c r="D25" t="n">
-        <v>1.92</v>
+        <v>1.914</v>
       </c>
       <c r="E25" t="n">
-        <v>1.919</v>
+        <v>1.914</v>
       </c>
       <c r="F25" t="n">
-        <v>36956.1729</v>
+        <v>14345.173</v>
       </c>
       <c r="G25" t="n">
-        <v>1.913316666666666</v>
+        <v>1.913166666666666</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.908</v>
+        <v>1.919</v>
       </c>
       <c r="C26" t="n">
-        <v>1.908</v>
+        <v>1.92</v>
       </c>
       <c r="D26" t="n">
-        <v>1.908</v>
+        <v>1.92</v>
       </c>
       <c r="E26" t="n">
-        <v>1.908</v>
+        <v>1.919</v>
       </c>
       <c r="F26" t="n">
-        <v>123573.4667</v>
+        <v>36956.1729</v>
       </c>
       <c r="G26" t="n">
-        <v>1.913283333333333</v>
+        <v>1.913316666666666</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.919</v>
+        <v>1.908</v>
       </c>
       <c r="C27" t="n">
-        <v>1.919</v>
+        <v>1.908</v>
       </c>
       <c r="D27" t="n">
-        <v>1.919</v>
+        <v>1.908</v>
       </c>
       <c r="E27" t="n">
-        <v>1.919</v>
+        <v>1.908</v>
       </c>
       <c r="F27" t="n">
-        <v>65990.099</v>
+        <v>123573.4667</v>
       </c>
       <c r="G27" t="n">
-        <v>1.913433333333333</v>
+        <v>1.913283333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1355,10 +1355,10 @@
         <v>1.919</v>
       </c>
       <c r="F28" t="n">
-        <v>33056.057</v>
+        <v>65990.099</v>
       </c>
       <c r="G28" t="n">
-        <v>1.913583333333333</v>
+        <v>1.913433333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1381,19 +1381,19 @@
         <v>1.919</v>
       </c>
       <c r="C29" t="n">
-        <v>1.924</v>
+        <v>1.919</v>
       </c>
       <c r="D29" t="n">
-        <v>1.924</v>
+        <v>1.919</v>
       </c>
       <c r="E29" t="n">
         <v>1.919</v>
       </c>
       <c r="F29" t="n">
-        <v>14159.83</v>
+        <v>33056.057</v>
       </c>
       <c r="G29" t="n">
-        <v>1.91365</v>
+        <v>1.913583333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.925</v>
+        <v>1.919</v>
       </c>
       <c r="C30" t="n">
-        <v>1.925</v>
+        <v>1.924</v>
       </c>
       <c r="D30" t="n">
-        <v>1.925</v>
+        <v>1.924</v>
       </c>
       <c r="E30" t="n">
-        <v>1.925</v>
+        <v>1.919</v>
       </c>
       <c r="F30" t="n">
-        <v>10781.1625</v>
+        <v>14159.83</v>
       </c>
       <c r="G30" t="n">
-        <v>1.913516666666666</v>
+        <v>1.91365</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1451,19 +1451,19 @@
         <v>1.925</v>
       </c>
       <c r="C31" t="n">
-        <v>1.908</v>
+        <v>1.925</v>
       </c>
       <c r="D31" t="n">
-        <v>1.926</v>
+        <v>1.925</v>
       </c>
       <c r="E31" t="n">
-        <v>1.908</v>
+        <v>1.925</v>
       </c>
       <c r="F31" t="n">
-        <v>1387260.6499</v>
+        <v>10781.1625</v>
       </c>
       <c r="G31" t="n">
-        <v>1.913483333333333</v>
+        <v>1.913516666666666</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,10 +1483,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.926</v>
+        <v>1.925</v>
       </c>
       <c r="C32" t="n">
-        <v>1.925</v>
+        <v>1.908</v>
       </c>
       <c r="D32" t="n">
         <v>1.926</v>
@@ -1495,10 +1495,10 @@
         <v>1.908</v>
       </c>
       <c r="F32" t="n">
-        <v>2842625.76</v>
+        <v>1387260.6499</v>
       </c>
       <c r="G32" t="n">
-        <v>1.913733333333333</v>
+        <v>1.913483333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="C33" t="n">
         <v>1.925</v>
       </c>
-      <c r="C33" t="n">
-        <v>1.908</v>
-      </c>
       <c r="D33" t="n">
-        <v>1.925</v>
+        <v>1.926</v>
       </c>
       <c r="E33" t="n">
         <v>1.908</v>
       </c>
       <c r="F33" t="n">
-        <v>2917156.88</v>
+        <v>2842625.76</v>
       </c>
       <c r="G33" t="n">
-        <v>1.9137</v>
+        <v>1.913733333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.926</v>
+        <v>1.925</v>
       </c>
       <c r="C34" t="n">
         <v>1.908</v>
       </c>
       <c r="D34" t="n">
-        <v>1.926</v>
+        <v>1.925</v>
       </c>
       <c r="E34" t="n">
         <v>1.908</v>
       </c>
       <c r="F34" t="n">
-        <v>1463004</v>
+        <v>2917156.88</v>
       </c>
       <c r="G34" t="n">
-        <v>1.9135</v>
+        <v>1.9137</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>1.926</v>
       </c>
       <c r="C35" t="n">
-        <v>1.926</v>
+        <v>1.908</v>
       </c>
       <c r="D35" t="n">
         <v>1.926</v>
@@ -1600,10 +1600,10 @@
         <v>1.908</v>
       </c>
       <c r="F35" t="n">
-        <v>2926300.88</v>
+        <v>1463004</v>
       </c>
       <c r="G35" t="n">
-        <v>1.913366666666666</v>
+        <v>1.9135</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,10 +1623,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.908</v>
+        <v>1.926</v>
       </c>
       <c r="C36" t="n">
-        <v>1.908</v>
+        <v>1.926</v>
       </c>
       <c r="D36" t="n">
         <v>1.926</v>
@@ -1635,10 +1635,10 @@
         <v>1.908</v>
       </c>
       <c r="F36" t="n">
-        <v>2436686.88</v>
+        <v>2926300.88</v>
       </c>
       <c r="G36" t="n">
-        <v>1.913316666666666</v>
+        <v>1.913366666666666</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.907</v>
+        <v>1.908</v>
       </c>
       <c r="C37" t="n">
-        <v>1.907</v>
+        <v>1.908</v>
       </c>
       <c r="D37" t="n">
-        <v>1.907</v>
+        <v>1.926</v>
       </c>
       <c r="E37" t="n">
-        <v>1.907</v>
+        <v>1.908</v>
       </c>
       <c r="F37" t="n">
-        <v>45923.0347</v>
+        <v>2436686.88</v>
       </c>
       <c r="G37" t="n">
-        <v>1.913249999999999</v>
+        <v>1.913316666666666</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,28 +1693,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.925</v>
+        <v>1.907</v>
       </c>
       <c r="C38" t="n">
-        <v>1.908</v>
+        <v>1.907</v>
       </c>
       <c r="D38" t="n">
-        <v>1.925</v>
+        <v>1.907</v>
       </c>
       <c r="E38" t="n">
-        <v>1.908</v>
+        <v>1.907</v>
       </c>
       <c r="F38" t="n">
-        <v>1279639</v>
+        <v>45923.0347</v>
       </c>
       <c r="G38" t="n">
-        <v>1.912883333333333</v>
+        <v>1.913249999999999</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1731,7 +1731,7 @@
         <v>1.925</v>
       </c>
       <c r="C39" t="n">
-        <v>1.925</v>
+        <v>1.908</v>
       </c>
       <c r="D39" t="n">
         <v>1.925</v>
@@ -1740,10 +1740,10 @@
         <v>1.908</v>
       </c>
       <c r="F39" t="n">
-        <v>2927233.88</v>
+        <v>1279639</v>
       </c>
       <c r="G39" t="n">
-        <v>1.913116666666666</v>
+        <v>1.912883333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.908</v>
+        <v>1.925</v>
       </c>
       <c r="C40" t="n">
-        <v>1.908</v>
+        <v>1.925</v>
       </c>
       <c r="D40" t="n">
-        <v>1.924</v>
+        <v>1.925</v>
       </c>
       <c r="E40" t="n">
         <v>1.908</v>
       </c>
       <c r="F40" t="n">
-        <v>3011350.88</v>
+        <v>2927233.88</v>
       </c>
       <c r="G40" t="n">
-        <v>1.913066666666666</v>
+        <v>1.913116666666666</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1804,16 +1804,16 @@
         <v>1.908</v>
       </c>
       <c r="D41" t="n">
-        <v>1.908</v>
+        <v>1.924</v>
       </c>
       <c r="E41" t="n">
         <v>1.908</v>
       </c>
       <c r="F41" t="n">
-        <v>589</v>
+        <v>3011350.88</v>
       </c>
       <c r="G41" t="n">
-        <v>1.913033333333333</v>
+        <v>1.913066666666666</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,10 +1845,10 @@
         <v>1.908</v>
       </c>
       <c r="F42" t="n">
-        <v>3855</v>
+        <v>589</v>
       </c>
       <c r="G42" t="n">
-        <v>1.913</v>
+        <v>1.913033333333333</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1880,10 +1880,10 @@
         <v>1.908</v>
       </c>
       <c r="F43" t="n">
-        <v>101688.6064</v>
+        <v>3855</v>
       </c>
       <c r="G43" t="n">
-        <v>1.912983333333333</v>
+        <v>1.913</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.907</v>
+        <v>1.908</v>
       </c>
       <c r="C44" t="n">
-        <v>1.907</v>
+        <v>1.908</v>
       </c>
       <c r="D44" t="n">
-        <v>1.907</v>
+        <v>1.908</v>
       </c>
       <c r="E44" t="n">
-        <v>1.907</v>
+        <v>1.908</v>
       </c>
       <c r="F44" t="n">
-        <v>1000</v>
+        <v>101688.6064</v>
       </c>
       <c r="G44" t="n">
-        <v>1.912949999999999</v>
+        <v>1.912983333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.919</v>
+        <v>1.907</v>
       </c>
       <c r="C45" t="n">
-        <v>1.919</v>
+        <v>1.907</v>
       </c>
       <c r="D45" t="n">
-        <v>1.919</v>
+        <v>1.907</v>
       </c>
       <c r="E45" t="n">
-        <v>1.919</v>
+        <v>1.907</v>
       </c>
       <c r="F45" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="G45" t="n">
-        <v>1.913116666666666</v>
+        <v>1.912949999999999</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1985,10 +1985,10 @@
         <v>1.919</v>
       </c>
       <c r="F46" t="n">
-        <v>419.7219</v>
+        <v>600</v>
       </c>
       <c r="G46" t="n">
-        <v>1.913283333333332</v>
+        <v>1.913116666666666</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.918</v>
+        <v>1.919</v>
       </c>
       <c r="C47" t="n">
-        <v>1.92</v>
+        <v>1.919</v>
       </c>
       <c r="D47" t="n">
-        <v>1.92</v>
+        <v>1.919</v>
       </c>
       <c r="E47" t="n">
-        <v>1.918</v>
+        <v>1.919</v>
       </c>
       <c r="F47" t="n">
-        <v>30537.188</v>
+        <v>419.7219</v>
       </c>
       <c r="G47" t="n">
-        <v>1.913533333333332</v>
+        <v>1.913283333333332</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,7 +2043,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.92</v>
+        <v>1.918</v>
       </c>
       <c r="C48" t="n">
         <v>1.92</v>
@@ -2052,13 +2052,13 @@
         <v>1.92</v>
       </c>
       <c r="E48" t="n">
-        <v>1.92</v>
+        <v>1.918</v>
       </c>
       <c r="F48" t="n">
-        <v>1000</v>
+        <v>30537.188</v>
       </c>
       <c r="G48" t="n">
-        <v>1.913783333333332</v>
+        <v>1.913533333333332</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2081,19 +2081,19 @@
         <v>1.92</v>
       </c>
       <c r="C49" t="n">
-        <v>1.922</v>
+        <v>1.92</v>
       </c>
       <c r="D49" t="n">
-        <v>1.922</v>
+        <v>1.92</v>
       </c>
       <c r="E49" t="n">
         <v>1.92</v>
       </c>
       <c r="F49" t="n">
-        <v>9300</v>
+        <v>1000</v>
       </c>
       <c r="G49" t="n">
-        <v>1.914049999999999</v>
+        <v>1.913783333333332</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,7 +2113,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1.922</v>
+        <v>1.92</v>
       </c>
       <c r="C50" t="n">
         <v>1.922</v>
@@ -2122,13 +2122,13 @@
         <v>1.922</v>
       </c>
       <c r="E50" t="n">
-        <v>1.922</v>
+        <v>1.92</v>
       </c>
       <c r="F50" t="n">
-        <v>300</v>
+        <v>9300</v>
       </c>
       <c r="G50" t="n">
-        <v>1.914333333333332</v>
+        <v>1.914049999999999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2151,19 +2151,19 @@
         <v>1.922</v>
       </c>
       <c r="C51" t="n">
-        <v>1.926</v>
+        <v>1.922</v>
       </c>
       <c r="D51" t="n">
-        <v>1.926</v>
+        <v>1.922</v>
       </c>
       <c r="E51" t="n">
         <v>1.922</v>
       </c>
       <c r="F51" t="n">
-        <v>1114682.566</v>
+        <v>300</v>
       </c>
       <c r="G51" t="n">
-        <v>1.914599999999999</v>
+        <v>1.914333333333332</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1.927</v>
+        <v>1.922</v>
       </c>
       <c r="C52" t="n">
-        <v>1.932</v>
+        <v>1.926</v>
       </c>
       <c r="D52" t="n">
-        <v>1.932</v>
+        <v>1.926</v>
       </c>
       <c r="E52" t="n">
-        <v>1.927</v>
+        <v>1.922</v>
       </c>
       <c r="F52" t="n">
-        <v>61192.0067</v>
+        <v>1114682.566</v>
       </c>
       <c r="G52" t="n">
-        <v>1.914816666666666</v>
+        <v>1.914599999999999</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1.933</v>
+        <v>1.927</v>
       </c>
       <c r="C53" t="n">
-        <v>1.927</v>
+        <v>1.932</v>
       </c>
       <c r="D53" t="n">
-        <v>1.934</v>
+        <v>1.932</v>
       </c>
       <c r="E53" t="n">
         <v>1.927</v>
       </c>
       <c r="F53" t="n">
-        <v>47425.3182</v>
+        <v>61192.0067</v>
       </c>
       <c r="G53" t="n">
-        <v>1.915083333333332</v>
+        <v>1.914816666666666</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1.925</v>
+        <v>1.933</v>
       </c>
       <c r="C54" t="n">
-        <v>1.933</v>
+        <v>1.927</v>
       </c>
       <c r="D54" t="n">
-        <v>1.933</v>
+        <v>1.934</v>
       </c>
       <c r="E54" t="n">
-        <v>1.925</v>
+        <v>1.927</v>
       </c>
       <c r="F54" t="n">
-        <v>46496.4754</v>
+        <v>47425.3182</v>
       </c>
       <c r="G54" t="n">
-        <v>1.915466666666666</v>
+        <v>1.915083333333332</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.92</v>
+        <v>1.925</v>
       </c>
       <c r="C55" t="n">
-        <v>1.92</v>
+        <v>1.933</v>
       </c>
       <c r="D55" t="n">
-        <v>1.92</v>
+        <v>1.933</v>
       </c>
       <c r="E55" t="n">
-        <v>1.92</v>
+        <v>1.925</v>
       </c>
       <c r="F55" t="n">
-        <v>665550.7804</v>
+        <v>46496.4754</v>
       </c>
       <c r="G55" t="n">
-        <v>1.915633333333333</v>
+        <v>1.915466666666666</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.931</v>
+        <v>1.92</v>
       </c>
       <c r="C56" t="n">
-        <v>1.931</v>
+        <v>1.92</v>
       </c>
       <c r="D56" t="n">
-        <v>1.931</v>
+        <v>1.92</v>
       </c>
       <c r="E56" t="n">
-        <v>1.911</v>
+        <v>1.92</v>
       </c>
       <c r="F56" t="n">
-        <v>3189784.88</v>
+        <v>665550.7804</v>
       </c>
       <c r="G56" t="n">
-        <v>1.915983333333333</v>
+        <v>1.915633333333333</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,10 +2358,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1.911</v>
+        <v>1.931</v>
       </c>
       <c r="C57" t="n">
-        <v>1.911</v>
+        <v>1.931</v>
       </c>
       <c r="D57" t="n">
         <v>1.931</v>
@@ -2370,10 +2370,10 @@
         <v>1.911</v>
       </c>
       <c r="F57" t="n">
-        <v>3371933.88</v>
+        <v>3189784.88</v>
       </c>
       <c r="G57" t="n">
-        <v>1.915999999999999</v>
+        <v>1.915983333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.93</v>
+        <v>1.911</v>
       </c>
       <c r="C58" t="n">
-        <v>1.932</v>
+        <v>1.911</v>
       </c>
       <c r="D58" t="n">
-        <v>1.932</v>
+        <v>1.931</v>
       </c>
       <c r="E58" t="n">
         <v>1.911</v>
       </c>
       <c r="F58" t="n">
-        <v>1889290.271</v>
+        <v>3371933.88</v>
       </c>
       <c r="G58" t="n">
-        <v>1.916433333333333</v>
+        <v>1.915999999999999</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,7 +2428,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.932</v>
+        <v>1.93</v>
       </c>
       <c r="C59" t="n">
         <v>1.932</v>
@@ -2437,19 +2437,19 @@
         <v>1.932</v>
       </c>
       <c r="E59" t="n">
-        <v>1.932</v>
+        <v>1.911</v>
       </c>
       <c r="F59" t="n">
-        <v>25815.2173</v>
+        <v>1889290.271</v>
       </c>
       <c r="G59" t="n">
-        <v>1.916866666666666</v>
+        <v>1.916433333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.931</v>
+        <v>1.932</v>
       </c>
       <c r="C60" t="n">
-        <v>1.911</v>
+        <v>1.932</v>
       </c>
       <c r="D60" t="n">
-        <v>1.931</v>
+        <v>1.932</v>
       </c>
       <c r="E60" t="n">
-        <v>1.911</v>
+        <v>1.932</v>
       </c>
       <c r="F60" t="n">
-        <v>1947854</v>
+        <v>25815.2173</v>
       </c>
       <c r="G60" t="n">
-        <v>1.916666666666666</v>
+        <v>1.916866666666666</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,10 +2498,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
+        <v>1.931</v>
+      </c>
+      <c r="C61" t="n">
         <v>1.911</v>
-      </c>
-      <c r="C61" t="n">
-        <v>1.931</v>
       </c>
       <c r="D61" t="n">
         <v>1.931</v>
@@ -2510,10 +2510,10 @@
         <v>1.911</v>
       </c>
       <c r="F61" t="n">
-        <v>2753999.76</v>
+        <v>1947854</v>
       </c>
       <c r="G61" t="n">
-        <v>1.916799999999999</v>
+        <v>1.916666666666666</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>1.911</v>
       </c>
       <c r="C62" t="n">
-        <v>1.912</v>
+        <v>1.931</v>
       </c>
       <c r="D62" t="n">
         <v>1.931</v>
@@ -2545,10 +2545,10 @@
         <v>1.911</v>
       </c>
       <c r="F62" t="n">
-        <v>2696309.88</v>
+        <v>2753999.76</v>
       </c>
       <c r="G62" t="n">
-        <v>1.916899999999999</v>
+        <v>1.916799999999999</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.929</v>
+        <v>1.911</v>
       </c>
       <c r="C63" t="n">
-        <v>1.929</v>
+        <v>1.912</v>
       </c>
       <c r="D63" t="n">
-        <v>1.929</v>
+        <v>1.931</v>
       </c>
       <c r="E63" t="n">
-        <v>1.929</v>
+        <v>1.911</v>
       </c>
       <c r="F63" t="n">
-        <v>770.7894</v>
+        <v>2696309.88</v>
       </c>
       <c r="G63" t="n">
-        <v>1.917283333333333</v>
+        <v>1.916899999999999</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2615,10 +2615,10 @@
         <v>1.929</v>
       </c>
       <c r="F64" t="n">
-        <v>1421.980300673924</v>
+        <v>770.7894</v>
       </c>
       <c r="G64" t="n">
-        <v>1.917316666666666</v>
+        <v>1.917283333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.914</v>
+        <v>1.929</v>
       </c>
       <c r="C65" t="n">
-        <v>1.914</v>
+        <v>1.929</v>
       </c>
       <c r="D65" t="n">
-        <v>1.914</v>
+        <v>1.929</v>
       </c>
       <c r="E65" t="n">
-        <v>1.914</v>
+        <v>1.929</v>
       </c>
       <c r="F65" t="n">
-        <v>1421.9803</v>
+        <v>1421.980300673924</v>
       </c>
       <c r="G65" t="n">
-        <v>1.917116666666666</v>
+        <v>1.917316666666666</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1.931</v>
+        <v>1.914</v>
       </c>
       <c r="C66" t="n">
         <v>1.914</v>
       </c>
       <c r="D66" t="n">
-        <v>1.931</v>
+        <v>1.914</v>
       </c>
       <c r="E66" t="n">
         <v>1.914</v>
       </c>
       <c r="F66" t="n">
-        <v>1710469.88</v>
+        <v>1421.9803</v>
       </c>
       <c r="G66" t="n">
-        <v>1.917149999999999</v>
+        <v>1.917116666666666</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.914</v>
+        <v>1.931</v>
       </c>
       <c r="C67" t="n">
         <v>1.914</v>
       </c>
       <c r="D67" t="n">
-        <v>1.914</v>
+        <v>1.931</v>
       </c>
       <c r="E67" t="n">
         <v>1.914</v>
       </c>
       <c r="F67" t="n">
-        <v>251478</v>
+        <v>1710469.88</v>
       </c>
       <c r="G67" t="n">
-        <v>1.917183333333332</v>
+        <v>1.917149999999999</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.915</v>
+        <v>1.914</v>
       </c>
       <c r="C68" t="n">
-        <v>1.915</v>
+        <v>1.914</v>
       </c>
       <c r="D68" t="n">
-        <v>1.915</v>
+        <v>1.914</v>
       </c>
       <c r="E68" t="n">
-        <v>1.915</v>
+        <v>1.914</v>
       </c>
       <c r="F68" t="n">
-        <v>24700.5185</v>
+        <v>251478</v>
       </c>
       <c r="G68" t="n">
-        <v>1.917016666666666</v>
+        <v>1.917183333333332</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.928</v>
+        <v>1.915</v>
       </c>
       <c r="C69" t="n">
-        <v>1.928</v>
+        <v>1.915</v>
       </c>
       <c r="D69" t="n">
-        <v>1.928</v>
+        <v>1.915</v>
       </c>
       <c r="E69" t="n">
-        <v>1.928</v>
+        <v>1.915</v>
       </c>
       <c r="F69" t="n">
-        <v>500</v>
+        <v>24700.5185</v>
       </c>
       <c r="G69" t="n">
-        <v>1.917066666666666</v>
+        <v>1.917016666666666</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2825,10 +2825,10 @@
         <v>1.928</v>
       </c>
       <c r="F70" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="G70" t="n">
-        <v>1.917416666666666</v>
+        <v>1.917066666666666</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2860,10 +2860,10 @@
         <v>1.928</v>
       </c>
       <c r="F71" t="n">
-        <v>561</v>
+        <v>260</v>
       </c>
       <c r="G71" t="n">
-        <v>1.917783333333332</v>
+        <v>1.917416666666666</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2895,10 +2895,10 @@
         <v>1.928</v>
       </c>
       <c r="F72" t="n">
-        <v>3123</v>
+        <v>561</v>
       </c>
       <c r="G72" t="n">
-        <v>1.917833333333332</v>
+        <v>1.917783333333332</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.929</v>
+        <v>1.928</v>
       </c>
       <c r="C73" t="n">
-        <v>1.929</v>
+        <v>1.928</v>
       </c>
       <c r="D73" t="n">
-        <v>1.929</v>
+        <v>1.928</v>
       </c>
       <c r="E73" t="n">
-        <v>1.929</v>
+        <v>1.928</v>
       </c>
       <c r="F73" t="n">
-        <v>523</v>
+        <v>3123</v>
       </c>
       <c r="G73" t="n">
-        <v>1.917916666666666</v>
+        <v>1.917833333333332</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>1.929</v>
       </c>
       <c r="F74" t="n">
-        <v>260</v>
+        <v>523</v>
       </c>
       <c r="G74" t="n">
-        <v>1.918299999999999</v>
+        <v>1.917916666666666</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2991,19 +2991,19 @@
         <v>1.929</v>
       </c>
       <c r="C75" t="n">
-        <v>1.93</v>
+        <v>1.929</v>
       </c>
       <c r="D75" t="n">
-        <v>1.93</v>
+        <v>1.929</v>
       </c>
       <c r="E75" t="n">
         <v>1.929</v>
       </c>
       <c r="F75" t="n">
-        <v>3921</v>
+        <v>260</v>
       </c>
       <c r="G75" t="n">
-        <v>1.918633333333332</v>
+        <v>1.918299999999999</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
+        <v>1.929</v>
+      </c>
+      <c r="C76" t="n">
         <v>1.93</v>
       </c>
-      <c r="C76" t="n">
-        <v>1.931</v>
-      </c>
       <c r="D76" t="n">
-        <v>1.931</v>
+        <v>1.93</v>
       </c>
       <c r="E76" t="n">
-        <v>1.93</v>
+        <v>1.929</v>
       </c>
       <c r="F76" t="n">
-        <v>4704</v>
+        <v>3921</v>
       </c>
       <c r="G76" t="n">
-        <v>1.918983333333332</v>
+        <v>1.918633333333332</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="C77" t="n">
         <v>1.931</v>
       </c>
-      <c r="C77" t="n">
-        <v>1.932</v>
-      </c>
       <c r="D77" t="n">
-        <v>1.932</v>
+        <v>1.931</v>
       </c>
       <c r="E77" t="n">
-        <v>1.931</v>
+        <v>1.93</v>
       </c>
       <c r="F77" t="n">
-        <v>4184</v>
+        <v>4704</v>
       </c>
       <c r="G77" t="n">
-        <v>1.919349999999999</v>
+        <v>1.918983333333332</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3096,19 +3096,19 @@
         <v>1.931</v>
       </c>
       <c r="C78" t="n">
-        <v>1.931</v>
+        <v>1.932</v>
       </c>
       <c r="D78" t="n">
-        <v>1.931</v>
+        <v>1.932</v>
       </c>
       <c r="E78" t="n">
         <v>1.931</v>
       </c>
       <c r="F78" t="n">
-        <v>2000</v>
+        <v>4184</v>
       </c>
       <c r="G78" t="n">
-        <v>1.919749999999999</v>
+        <v>1.919349999999999</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3140,10 +3140,10 @@
         <v>1.931</v>
       </c>
       <c r="F79" t="n">
-        <v>869</v>
+        <v>2000</v>
       </c>
       <c r="G79" t="n">
-        <v>1.920183333333332</v>
+        <v>1.919749999999999</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3166,19 +3166,19 @@
         <v>1.931</v>
       </c>
       <c r="C80" t="n">
-        <v>1.932</v>
+        <v>1.931</v>
       </c>
       <c r="D80" t="n">
-        <v>1.932</v>
+        <v>1.931</v>
       </c>
       <c r="E80" t="n">
         <v>1.931</v>
       </c>
       <c r="F80" t="n">
-        <v>11315</v>
+        <v>869</v>
       </c>
       <c r="G80" t="n">
-        <v>1.920549999999999</v>
+        <v>1.920183333333332</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.932</v>
+        <v>1.931</v>
       </c>
       <c r="C81" t="n">
         <v>1.932</v>
@@ -3207,23 +3207,29 @@
         <v>1.932</v>
       </c>
       <c r="E81" t="n">
-        <v>1.932</v>
+        <v>1.931</v>
       </c>
       <c r="F81" t="n">
-        <v>1000</v>
+        <v>11315</v>
       </c>
       <c r="G81" t="n">
-        <v>1.920666666666666</v>
+        <v>1.920549999999999</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>1.931</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3245,10 +3251,10 @@
         <v>1.932</v>
       </c>
       <c r="F82" t="n">
-        <v>180120.8521</v>
+        <v>1000</v>
       </c>
       <c r="G82" t="n">
-        <v>1.920883333333333</v>
+        <v>1.920666666666666</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3258,7 +3264,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3280,10 +3290,10 @@
         <v>1.932</v>
       </c>
       <c r="F83" t="n">
-        <v>3178</v>
+        <v>180120.8521</v>
       </c>
       <c r="G83" t="n">
-        <v>1.921316666666666</v>
+        <v>1.920883333333333</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3293,7 +3303,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3315,10 +3329,10 @@
         <v>1.932</v>
       </c>
       <c r="F84" t="n">
-        <v>179243.0414</v>
+        <v>3178</v>
       </c>
       <c r="G84" t="n">
-        <v>1.921616666666666</v>
+        <v>1.921316666666666</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3328,7 +3342,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3350,10 +3368,10 @@
         <v>1.932</v>
       </c>
       <c r="F85" t="n">
-        <v>784</v>
+        <v>179243.0414</v>
       </c>
       <c r="G85" t="n">
-        <v>1.921816666666666</v>
+        <v>1.921616666666666</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3363,7 +3381,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3385,10 +3407,10 @@
         <v>1.932</v>
       </c>
       <c r="F86" t="n">
-        <v>3000</v>
+        <v>784</v>
       </c>
       <c r="G86" t="n">
-        <v>1.922216666666666</v>
+        <v>1.921816666666666</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3398,7 +3420,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3420,10 +3446,10 @@
         <v>1.932</v>
       </c>
       <c r="F87" t="n">
-        <v>6825</v>
+        <v>3000</v>
       </c>
       <c r="G87" t="n">
-        <v>1.922433333333333</v>
+        <v>1.922216666666666</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3433,7 +3459,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3455,10 +3485,10 @@
         <v>1.932</v>
       </c>
       <c r="F88" t="n">
-        <v>500</v>
+        <v>6825</v>
       </c>
       <c r="G88" t="n">
-        <v>1.92265</v>
+        <v>1.922433333333333</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3468,7 +3498,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3490,10 +3524,10 @@
         <v>1.932</v>
       </c>
       <c r="F89" t="n">
-        <v>2421</v>
+        <v>500</v>
       </c>
       <c r="G89" t="n">
-        <v>1.922783333333333</v>
+        <v>1.92265</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3503,7 +3537,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3525,10 +3563,10 @@
         <v>1.932</v>
       </c>
       <c r="F90" t="n">
-        <v>2500</v>
+        <v>2421</v>
       </c>
       <c r="G90" t="n">
-        <v>1.922899999999999</v>
+        <v>1.922783333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3538,7 +3576,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3560,10 +3602,10 @@
         <v>1.932</v>
       </c>
       <c r="F91" t="n">
-        <v>1877</v>
+        <v>2500</v>
       </c>
       <c r="G91" t="n">
-        <v>1.9233</v>
+        <v>1.922899999999999</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3573,7 +3615,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3595,10 +3641,10 @@
         <v>1.932</v>
       </c>
       <c r="F92" t="n">
-        <v>1661</v>
+        <v>1877</v>
       </c>
       <c r="G92" t="n">
-        <v>1.923416666666666</v>
+        <v>1.9233</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3608,7 +3654,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3630,10 +3680,10 @@
         <v>1.932</v>
       </c>
       <c r="F93" t="n">
-        <v>1084</v>
+        <v>1661</v>
       </c>
       <c r="G93" t="n">
-        <v>1.923816666666666</v>
+        <v>1.923416666666666</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3643,7 +3693,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3653,22 +3707,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1.918</v>
+        <v>1.932</v>
       </c>
       <c r="C94" t="n">
-        <v>1.917</v>
+        <v>1.932</v>
       </c>
       <c r="D94" t="n">
-        <v>1.918</v>
+        <v>1.932</v>
       </c>
       <c r="E94" t="n">
-        <v>1.917</v>
+        <v>1.932</v>
       </c>
       <c r="F94" t="n">
-        <v>59188.4413</v>
+        <v>1084</v>
       </c>
       <c r="G94" t="n">
-        <v>1.923966666666666</v>
+        <v>1.923816666666666</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3678,7 +3732,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3688,22 +3746,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.917</v>
+        <v>1.918</v>
       </c>
       <c r="C95" t="n">
         <v>1.917</v>
       </c>
       <c r="D95" t="n">
-        <v>1.917</v>
+        <v>1.918</v>
       </c>
       <c r="E95" t="n">
         <v>1.917</v>
       </c>
       <c r="F95" t="n">
-        <v>5647.7246</v>
+        <v>59188.4413</v>
       </c>
       <c r="G95" t="n">
-        <v>1.923816666666666</v>
+        <v>1.923966666666666</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3713,7 +3771,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3726,19 +3788,19 @@
         <v>1.917</v>
       </c>
       <c r="C96" t="n">
-        <v>1.915</v>
+        <v>1.917</v>
       </c>
       <c r="D96" t="n">
         <v>1.917</v>
       </c>
       <c r="E96" t="n">
-        <v>1.915</v>
+        <v>1.917</v>
       </c>
       <c r="F96" t="n">
-        <v>169907.0143</v>
+        <v>5647.7246</v>
       </c>
       <c r="G96" t="n">
-        <v>1.923933333333333</v>
+        <v>1.923816666666666</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3748,7 +3810,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3758,22 +3824,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="C97" t="n">
         <v>1.915</v>
       </c>
-      <c r="C97" t="n">
-        <v>1.913</v>
-      </c>
       <c r="D97" t="n">
-        <v>1.93</v>
+        <v>1.917</v>
       </c>
       <c r="E97" t="n">
-        <v>1.913</v>
+        <v>1.915</v>
       </c>
       <c r="F97" t="n">
-        <v>2029349.9144</v>
+        <v>169907.0143</v>
       </c>
       <c r="G97" t="n">
-        <v>1.924033333333333</v>
+        <v>1.923933333333333</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3783,7 +3849,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3793,10 +3863,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.93</v>
+        <v>1.915</v>
       </c>
       <c r="C98" t="n">
-        <v>1.93</v>
+        <v>1.913</v>
       </c>
       <c r="D98" t="n">
         <v>1.93</v>
@@ -3805,10 +3875,10 @@
         <v>1.913</v>
       </c>
       <c r="F98" t="n">
-        <v>2780061.76</v>
+        <v>2029349.9144</v>
       </c>
       <c r="G98" t="n">
-        <v>1.9244</v>
+        <v>1.924033333333333</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3818,7 +3888,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3831,7 +3905,7 @@
         <v>1.93</v>
       </c>
       <c r="C99" t="n">
-        <v>1.913</v>
+        <v>1.93</v>
       </c>
       <c r="D99" t="n">
         <v>1.93</v>
@@ -3840,10 +3914,10 @@
         <v>1.913</v>
       </c>
       <c r="F99" t="n">
-        <v>796945</v>
+        <v>2780061.76</v>
       </c>
       <c r="G99" t="n">
-        <v>1.9242</v>
+        <v>1.9244</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3853,7 +3927,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3863,22 +3941,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.912</v>
+        <v>1.93</v>
       </c>
       <c r="C100" t="n">
-        <v>1.912</v>
+        <v>1.913</v>
       </c>
       <c r="D100" t="n">
-        <v>1.912</v>
+        <v>1.93</v>
       </c>
       <c r="E100" t="n">
-        <v>1.912</v>
+        <v>1.913</v>
       </c>
       <c r="F100" t="n">
-        <v>50000</v>
+        <v>796945</v>
       </c>
       <c r="G100" t="n">
-        <v>1.924266666666667</v>
+        <v>1.9242</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3888,7 +3966,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3910,10 +3992,10 @@
         <v>1.912</v>
       </c>
       <c r="F101" t="n">
-        <v>40558.0711</v>
+        <v>50000</v>
       </c>
       <c r="G101" t="n">
-        <v>1.924333333333333</v>
+        <v>1.924266666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3923,7 +4005,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3933,22 +4019,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1.929</v>
+        <v>1.912</v>
       </c>
       <c r="C102" t="n">
-        <v>1.929</v>
+        <v>1.912</v>
       </c>
       <c r="D102" t="n">
-        <v>1.929</v>
+        <v>1.912</v>
       </c>
       <c r="E102" t="n">
-        <v>1.908</v>
+        <v>1.912</v>
       </c>
       <c r="F102" t="n">
-        <v>955411.88</v>
+        <v>40558.0711</v>
       </c>
       <c r="G102" t="n">
-        <v>1.924683333333333</v>
+        <v>1.924333333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3958,7 +4044,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3968,22 +4058,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.909</v>
+        <v>1.929</v>
       </c>
       <c r="C103" t="n">
-        <v>1.909</v>
+        <v>1.929</v>
       </c>
       <c r="D103" t="n">
         <v>1.929</v>
       </c>
       <c r="E103" t="n">
-        <v>1.909</v>
+        <v>1.908</v>
       </c>
       <c r="F103" t="n">
-        <v>2940783.88</v>
+        <v>955411.88</v>
       </c>
       <c r="G103" t="n">
-        <v>1.9247</v>
+        <v>1.924683333333333</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3993,7 +4083,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4015,10 +4109,10 @@
         <v>1.909</v>
       </c>
       <c r="F104" t="n">
-        <v>2982037.88</v>
+        <v>2940783.88</v>
       </c>
       <c r="G104" t="n">
-        <v>1.924733333333333</v>
+        <v>1.9247</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4028,7 +4122,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4038,22 +4136,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1.928</v>
+        <v>1.909</v>
       </c>
       <c r="C105" t="n">
-        <v>1.927</v>
+        <v>1.909</v>
       </c>
       <c r="D105" t="n">
-        <v>1.928</v>
+        <v>1.929</v>
       </c>
       <c r="E105" t="n">
-        <v>1.908</v>
+        <v>1.909</v>
       </c>
       <c r="F105" t="n">
-        <v>1794380.88</v>
+        <v>2982037.88</v>
       </c>
       <c r="G105" t="n">
-        <v>1.924866666666667</v>
+        <v>1.924733333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4063,7 +4161,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4073,22 +4175,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1.908</v>
+        <v>1.928</v>
       </c>
       <c r="C106" t="n">
-        <v>1.908</v>
+        <v>1.927</v>
       </c>
       <c r="D106" t="n">
-        <v>1.927</v>
+        <v>1.928</v>
       </c>
       <c r="E106" t="n">
         <v>1.908</v>
       </c>
       <c r="F106" t="n">
-        <v>3276677.88</v>
+        <v>1794380.88</v>
       </c>
       <c r="G106" t="n">
-        <v>1.924683333333334</v>
+        <v>1.924866666666667</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4098,7 +4200,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4108,7 +4214,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1.927</v>
+        <v>1.908</v>
       </c>
       <c r="C107" t="n">
         <v>1.908</v>
@@ -4120,10 +4226,10 @@
         <v>1.908</v>
       </c>
       <c r="F107" t="n">
-        <v>2221502.88</v>
+        <v>3276677.88</v>
       </c>
       <c r="G107" t="n">
-        <v>1.924483333333334</v>
+        <v>1.924683333333334</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4133,7 +4239,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4146,19 +4256,19 @@
         <v>1.927</v>
       </c>
       <c r="C108" t="n">
-        <v>1.927</v>
+        <v>1.908</v>
       </c>
       <c r="D108" t="n">
         <v>1.927</v>
       </c>
       <c r="E108" t="n">
-        <v>1.91</v>
+        <v>1.908</v>
       </c>
       <c r="F108" t="n">
-        <v>2237398.88</v>
+        <v>2221502.88</v>
       </c>
       <c r="G108" t="n">
-        <v>1.924600000000001</v>
+        <v>1.924483333333334</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4168,7 +4278,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4178,22 +4292,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1.91</v>
+        <v>1.927</v>
       </c>
       <c r="C109" t="n">
-        <v>1.91</v>
+        <v>1.927</v>
       </c>
       <c r="D109" t="n">
-        <v>1.928</v>
+        <v>1.927</v>
       </c>
       <c r="E109" t="n">
         <v>1.91</v>
       </c>
       <c r="F109" t="n">
-        <v>3411828.88</v>
+        <v>2237398.88</v>
       </c>
       <c r="G109" t="n">
-        <v>1.924400000000001</v>
+        <v>1.924600000000001</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4203,7 +4317,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4213,7 +4331,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1.928</v>
+        <v>1.91</v>
       </c>
       <c r="C110" t="n">
         <v>1.91</v>
@@ -4225,10 +4343,10 @@
         <v>1.91</v>
       </c>
       <c r="F110" t="n">
-        <v>1404700.88</v>
+        <v>3411828.88</v>
       </c>
       <c r="G110" t="n">
-        <v>1.9242</v>
+        <v>1.924400000000001</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4238,7 +4356,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4248,32 +4370,36 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1.909</v>
+        <v>1.928</v>
       </c>
       <c r="C111" t="n">
-        <v>1.909</v>
+        <v>1.91</v>
       </c>
       <c r="D111" t="n">
-        <v>1.909</v>
+        <v>1.928</v>
       </c>
       <c r="E111" t="n">
-        <v>1.909</v>
+        <v>1.91</v>
       </c>
       <c r="F111" t="n">
-        <v>3852.6091</v>
+        <v>1404700.88</v>
       </c>
       <c r="G111" t="n">
-        <v>1.923916666666667</v>
+        <v>1.9242</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4283,22 +4409,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1.927</v>
+        <v>1.909</v>
       </c>
       <c r="C112" t="n">
-        <v>1.927</v>
+        <v>1.909</v>
       </c>
       <c r="D112" t="n">
-        <v>1.927</v>
+        <v>1.909</v>
       </c>
       <c r="E112" t="n">
-        <v>1.927</v>
+        <v>1.909</v>
       </c>
       <c r="F112" t="n">
-        <v>225238</v>
+        <v>3852.6091</v>
       </c>
       <c r="G112" t="n">
-        <v>1.923833333333334</v>
+        <v>1.923916666666667</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4308,7 +4434,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4318,7 +4448,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1.911</v>
+        <v>1.927</v>
       </c>
       <c r="C113" t="n">
         <v>1.927</v>
@@ -4327,10 +4457,10 @@
         <v>1.927</v>
       </c>
       <c r="E113" t="n">
-        <v>1.911</v>
+        <v>1.927</v>
       </c>
       <c r="F113" t="n">
-        <v>2851138.76</v>
+        <v>225238</v>
       </c>
       <c r="G113" t="n">
         <v>1.923833333333334</v>
@@ -4343,7 +4473,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4353,22 +4487,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
+        <v>1.911</v>
+      </c>
+      <c r="C114" t="n">
         <v>1.927</v>
-      </c>
-      <c r="C114" t="n">
-        <v>1.912</v>
       </c>
       <c r="D114" t="n">
         <v>1.927</v>
       </c>
       <c r="E114" t="n">
-        <v>1.912</v>
+        <v>1.911</v>
       </c>
       <c r="F114" t="n">
-        <v>627641</v>
+        <v>2851138.76</v>
       </c>
       <c r="G114" t="n">
-        <v>1.923483333333334</v>
+        <v>1.923833333333334</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4378,7 +4512,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4388,22 +4526,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1.928</v>
+        <v>1.927</v>
       </c>
       <c r="C115" t="n">
-        <v>1.928</v>
+        <v>1.912</v>
       </c>
       <c r="D115" t="n">
-        <v>1.928</v>
+        <v>1.927</v>
       </c>
       <c r="E115" t="n">
-        <v>1.928</v>
+        <v>1.912</v>
       </c>
       <c r="F115" t="n">
-        <v>3852.6091</v>
+        <v>627641</v>
       </c>
       <c r="G115" t="n">
-        <v>1.923616666666667</v>
+        <v>1.923483333333334</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4413,7 +4551,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4435,10 +4577,10 @@
         <v>1.928</v>
       </c>
       <c r="F116" t="n">
-        <v>10000</v>
+        <v>3852.6091</v>
       </c>
       <c r="G116" t="n">
-        <v>1.923566666666667</v>
+        <v>1.923616666666667</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4448,7 +4590,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4464,16 +4610,16 @@
         <v>1.928</v>
       </c>
       <c r="D117" t="n">
-        <v>1.929</v>
+        <v>1.928</v>
       </c>
       <c r="E117" t="n">
         <v>1.928</v>
       </c>
       <c r="F117" t="n">
-        <v>24143.2039</v>
+        <v>10000</v>
       </c>
       <c r="G117" t="n">
-        <v>1.923850000000001</v>
+        <v>1.923566666666667</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4483,7 +4629,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4496,19 +4646,19 @@
         <v>1.928</v>
       </c>
       <c r="C118" t="n">
-        <v>1.91</v>
+        <v>1.928</v>
       </c>
       <c r="D118" t="n">
+        <v>1.929</v>
+      </c>
+      <c r="E118" t="n">
         <v>1.928</v>
       </c>
-      <c r="E118" t="n">
-        <v>1.91</v>
-      </c>
       <c r="F118" t="n">
-        <v>1106384.1267</v>
+        <v>24143.2039</v>
       </c>
       <c r="G118" t="n">
-        <v>1.923483333333334</v>
+        <v>1.923850000000001</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4518,7 +4668,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4528,22 +4682,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="C119" t="n">
         <v>1.91</v>
       </c>
-      <c r="C119" t="n">
-        <v>1.927</v>
-      </c>
       <c r="D119" t="n">
-        <v>1.927</v>
+        <v>1.928</v>
       </c>
       <c r="E119" t="n">
         <v>1.91</v>
       </c>
       <c r="F119" t="n">
-        <v>2791957.76</v>
+        <v>1106384.1267</v>
       </c>
       <c r="G119" t="n">
-        <v>1.9234</v>
+        <v>1.923483333333334</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4553,7 +4707,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4563,19 +4721,19 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1.911</v>
+        <v>1.91</v>
       </c>
       <c r="C120" t="n">
-        <v>1.911</v>
+        <v>1.927</v>
       </c>
       <c r="D120" t="n">
-        <v>1.911</v>
+        <v>1.927</v>
       </c>
       <c r="E120" t="n">
-        <v>1.911</v>
+        <v>1.91</v>
       </c>
       <c r="F120" t="n">
-        <v>534134</v>
+        <v>2791957.76</v>
       </c>
       <c r="G120" t="n">
         <v>1.9234</v>
@@ -4588,7 +4746,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4598,22 +4760,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1.912</v>
+        <v>1.911</v>
       </c>
       <c r="C121" t="n">
-        <v>1.912</v>
+        <v>1.911</v>
       </c>
       <c r="D121" t="n">
-        <v>1.912</v>
+        <v>1.911</v>
       </c>
       <c r="E121" t="n">
-        <v>1.912</v>
+        <v>1.911</v>
       </c>
       <c r="F121" t="n">
-        <v>20116.5496</v>
+        <v>534134</v>
       </c>
       <c r="G121" t="n">
-        <v>1.923083333333334</v>
+        <v>1.9234</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4623,7 +4785,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4645,7 +4811,7 @@
         <v>1.912</v>
       </c>
       <c r="F122" t="n">
-        <v>10134.4077</v>
+        <v>20116.5496</v>
       </c>
       <c r="G122" t="n">
         <v>1.923083333333334</v>
@@ -4658,7 +4824,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4668,22 +4838,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1.91</v>
+        <v>1.912</v>
       </c>
       <c r="C123" t="n">
-        <v>1.909</v>
+        <v>1.912</v>
       </c>
       <c r="D123" t="n">
-        <v>1.91</v>
+        <v>1.912</v>
       </c>
       <c r="E123" t="n">
-        <v>1.909</v>
+        <v>1.912</v>
       </c>
       <c r="F123" t="n">
-        <v>517378.7548</v>
+        <v>10134.4077</v>
       </c>
       <c r="G123" t="n">
-        <v>1.922750000000001</v>
+        <v>1.923083333333334</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4693,7 +4863,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4703,22 +4877,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C124" t="n">
         <v>1.909</v>
       </c>
-      <c r="C124" t="n">
-        <v>1.908</v>
-      </c>
       <c r="D124" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E124" t="n">
         <v>1.909</v>
       </c>
-      <c r="E124" t="n">
-        <v>1.908</v>
-      </c>
       <c r="F124" t="n">
-        <v>219718.7189</v>
+        <v>517378.7548</v>
       </c>
       <c r="G124" t="n">
-        <v>1.922400000000001</v>
+        <v>1.922750000000001</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4728,7 +4902,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4741,19 +4919,19 @@
         <v>1.909</v>
       </c>
       <c r="C125" t="n">
-        <v>1.909</v>
+        <v>1.908</v>
       </c>
       <c r="D125" t="n">
         <v>1.909</v>
       </c>
       <c r="E125" t="n">
-        <v>1.909</v>
+        <v>1.908</v>
       </c>
       <c r="F125" t="n">
-        <v>6463.7776</v>
+        <v>219718.7189</v>
       </c>
       <c r="G125" t="n">
-        <v>1.922316666666667</v>
+        <v>1.922400000000001</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4763,7 +4941,11 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4785,10 +4967,10 @@
         <v>1.909</v>
       </c>
       <c r="F126" t="n">
-        <v>14300.9872</v>
+        <v>6463.7776</v>
       </c>
       <c r="G126" t="n">
-        <v>1.922233333333334</v>
+        <v>1.922316666666667</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4798,7 +4980,11 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4811,19 +4997,19 @@
         <v>1.909</v>
       </c>
       <c r="C127" t="n">
-        <v>1.91</v>
+        <v>1.909</v>
       </c>
       <c r="D127" t="n">
-        <v>1.91</v>
+        <v>1.909</v>
       </c>
       <c r="E127" t="n">
         <v>1.909</v>
       </c>
       <c r="F127" t="n">
-        <v>121128.8728</v>
+        <v>14300.9872</v>
       </c>
       <c r="G127" t="n">
-        <v>1.922166666666667</v>
+        <v>1.922233333333334</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4833,7 +5019,11 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4843,22 +5033,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1.912</v>
+        <v>1.909</v>
       </c>
       <c r="C128" t="n">
-        <v>1.924</v>
+        <v>1.91</v>
       </c>
       <c r="D128" t="n">
-        <v>1.924</v>
+        <v>1.91</v>
       </c>
       <c r="E128" t="n">
-        <v>1.912</v>
+        <v>1.909</v>
       </c>
       <c r="F128" t="n">
-        <v>61357.5526</v>
+        <v>121128.8728</v>
       </c>
       <c r="G128" t="n">
-        <v>1.922316666666667</v>
+        <v>1.922166666666667</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4868,7 +5058,11 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4878,7 +5072,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1.924</v>
+        <v>1.912</v>
       </c>
       <c r="C129" t="n">
         <v>1.924</v>
@@ -4887,27 +5081,27 @@
         <v>1.924</v>
       </c>
       <c r="E129" t="n">
-        <v>1.924</v>
+        <v>1.912</v>
       </c>
       <c r="F129" t="n">
-        <v>12119.008</v>
+        <v>61357.5526</v>
       </c>
       <c r="G129" t="n">
-        <v>1.922250000000001</v>
+        <v>1.922316666666667</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>1.924</v>
-      </c>
-      <c r="K129" t="n">
-        <v>1.924</v>
-      </c>
-      <c r="L129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4917,38 +5111,34 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1.91</v>
+        <v>1.924</v>
       </c>
       <c r="C130" t="n">
-        <v>1.909</v>
+        <v>1.924</v>
       </c>
       <c r="D130" t="n">
-        <v>1.91</v>
+        <v>1.924</v>
       </c>
       <c r="E130" t="n">
-        <v>1.909</v>
+        <v>1.924</v>
       </c>
       <c r="F130" t="n">
-        <v>1153.9676</v>
+        <v>12119.008</v>
       </c>
       <c r="G130" t="n">
-        <v>1.921933333333334</v>
+        <v>1.922250000000001</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>1.924</v>
-      </c>
-      <c r="K130" t="n">
-        <v>1.924</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M130" t="n">
@@ -4960,22 +5150,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1.924</v>
+        <v>1.91</v>
       </c>
       <c r="C131" t="n">
-        <v>1.924</v>
+        <v>1.909</v>
       </c>
       <c r="D131" t="n">
-        <v>1.924</v>
+        <v>1.91</v>
       </c>
       <c r="E131" t="n">
-        <v>1.924</v>
+        <v>1.909</v>
       </c>
       <c r="F131" t="n">
-        <v>260</v>
+        <v>1153.9676</v>
       </c>
       <c r="G131" t="n">
-        <v>1.921866666666668</v>
+        <v>1.921933333333334</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4984,9 +5174,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>1.924</v>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5001,22 +5189,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1.925</v>
+        <v>1.924</v>
       </c>
       <c r="C132" t="n">
-        <v>1.925</v>
+        <v>1.924</v>
       </c>
       <c r="D132" t="n">
-        <v>1.925</v>
+        <v>1.924</v>
       </c>
       <c r="E132" t="n">
-        <v>1.925</v>
+        <v>1.924</v>
       </c>
       <c r="F132" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G132" t="n">
-        <v>1.921816666666668</v>
+        <v>1.921866666666668</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5025,9 +5213,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>1.924</v>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5042,22 +5228,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1.92</v>
+        <v>1.925</v>
       </c>
       <c r="C133" t="n">
-        <v>1.92</v>
+        <v>1.925</v>
       </c>
       <c r="D133" t="n">
-        <v>1.92</v>
+        <v>1.925</v>
       </c>
       <c r="E133" t="n">
-        <v>1.92</v>
+        <v>1.925</v>
       </c>
       <c r="F133" t="n">
-        <v>33124.7575</v>
+        <v>261</v>
       </c>
       <c r="G133" t="n">
-        <v>1.921666666666668</v>
+        <v>1.921816666666668</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5066,9 +5252,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>1.924</v>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5083,22 +5267,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1.925</v>
+        <v>1.92</v>
       </c>
       <c r="C134" t="n">
-        <v>1.925</v>
+        <v>1.92</v>
       </c>
       <c r="D134" t="n">
-        <v>1.925</v>
+        <v>1.92</v>
       </c>
       <c r="E134" t="n">
-        <v>1.925</v>
+        <v>1.92</v>
       </c>
       <c r="F134" t="n">
-        <v>260</v>
+        <v>33124.7575</v>
       </c>
       <c r="G134" t="n">
-        <v>1.921600000000001</v>
+        <v>1.921666666666668</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5107,9 +5291,7 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>1.924</v>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5127,19 +5309,19 @@
         <v>1.925</v>
       </c>
       <c r="C135" t="n">
-        <v>1.92</v>
+        <v>1.925</v>
       </c>
       <c r="D135" t="n">
         <v>1.925</v>
       </c>
       <c r="E135" t="n">
-        <v>1.92</v>
+        <v>1.925</v>
       </c>
       <c r="F135" t="n">
-        <v>731418.969</v>
+        <v>260</v>
       </c>
       <c r="G135" t="n">
-        <v>1.921433333333334</v>
+        <v>1.921600000000001</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5148,9 +5330,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>1.924</v>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5165,22 +5345,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1.915</v>
+        <v>1.925</v>
       </c>
       <c r="C136" t="n">
-        <v>1.915</v>
+        <v>1.92</v>
       </c>
       <c r="D136" t="n">
-        <v>1.915</v>
+        <v>1.925</v>
       </c>
       <c r="E136" t="n">
-        <v>1.915</v>
+        <v>1.92</v>
       </c>
       <c r="F136" t="n">
-        <v>100000</v>
+        <v>731418.969</v>
       </c>
       <c r="G136" t="n">
-        <v>1.921166666666668</v>
+        <v>1.921433333333334</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5189,9 +5369,7 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>1.924</v>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5206,22 +5384,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1.914</v>
+        <v>1.915</v>
       </c>
       <c r="C137" t="n">
-        <v>1.923</v>
+        <v>1.915</v>
       </c>
       <c r="D137" t="n">
-        <v>1.923</v>
+        <v>1.915</v>
       </c>
       <c r="E137" t="n">
-        <v>1.914</v>
+        <v>1.915</v>
       </c>
       <c r="F137" t="n">
-        <v>347878.5401</v>
+        <v>100000</v>
       </c>
       <c r="G137" t="n">
-        <v>1.921016666666668</v>
+        <v>1.921166666666668</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5230,9 +5408,7 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>1.924</v>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5250,19 +5426,19 @@
         <v>1.914</v>
       </c>
       <c r="C138" t="n">
-        <v>1.914</v>
+        <v>1.923</v>
       </c>
       <c r="D138" t="n">
-        <v>1.914</v>
+        <v>1.923</v>
       </c>
       <c r="E138" t="n">
         <v>1.914</v>
       </c>
       <c r="F138" t="n">
-        <v>2317.6577</v>
+        <v>347878.5401</v>
       </c>
       <c r="G138" t="n">
-        <v>1.920733333333335</v>
+        <v>1.921016666666668</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5271,9 +5447,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>1.924</v>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5288,22 +5462,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1.921</v>
+        <v>1.914</v>
       </c>
       <c r="C139" t="n">
-        <v>1.921</v>
+        <v>1.914</v>
       </c>
       <c r="D139" t="n">
-        <v>1.921</v>
+        <v>1.914</v>
       </c>
       <c r="E139" t="n">
-        <v>1.921</v>
+        <v>1.914</v>
       </c>
       <c r="F139" t="n">
-        <v>49481.1295</v>
+        <v>2317.6577</v>
       </c>
       <c r="G139" t="n">
-        <v>1.920566666666668</v>
+        <v>1.920733333333335</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5312,9 +5486,7 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>1.924</v>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5332,19 +5504,19 @@
         <v>1.921</v>
       </c>
       <c r="C140" t="n">
-        <v>1.923</v>
+        <v>1.921</v>
       </c>
       <c r="D140" t="n">
-        <v>1.923</v>
+        <v>1.921</v>
       </c>
       <c r="E140" t="n">
         <v>1.921</v>
       </c>
       <c r="F140" t="n">
-        <v>80000</v>
+        <v>49481.1295</v>
       </c>
       <c r="G140" t="n">
-        <v>1.920416666666668</v>
+        <v>1.920566666666668</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5353,9 +5525,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>1.924</v>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5370,7 +5540,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1.923</v>
+        <v>1.921</v>
       </c>
       <c r="C141" t="n">
         <v>1.923</v>
@@ -5379,13 +5549,13 @@
         <v>1.923</v>
       </c>
       <c r="E141" t="n">
-        <v>1.923</v>
+        <v>1.921</v>
       </c>
       <c r="F141" t="n">
-        <v>7000</v>
+        <v>80000</v>
       </c>
       <c r="G141" t="n">
-        <v>1.920266666666668</v>
+        <v>1.920416666666668</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5394,9 +5564,7 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>1.924</v>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5414,19 +5582,19 @@
         <v>1.923</v>
       </c>
       <c r="C142" t="n">
-        <v>1.926</v>
+        <v>1.923</v>
       </c>
       <c r="D142" t="n">
-        <v>1.926</v>
+        <v>1.923</v>
       </c>
       <c r="E142" t="n">
         <v>1.923</v>
       </c>
       <c r="F142" t="n">
-        <v>22214.5979</v>
+        <v>7000</v>
       </c>
       <c r="G142" t="n">
-        <v>1.920166666666668</v>
+        <v>1.920266666666668</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5435,9 +5603,7 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>1.924</v>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5452,7 +5618,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1.926</v>
+        <v>1.923</v>
       </c>
       <c r="C143" t="n">
         <v>1.926</v>
@@ -5461,13 +5627,13 @@
         <v>1.926</v>
       </c>
       <c r="E143" t="n">
-        <v>1.926</v>
+        <v>1.923</v>
       </c>
       <c r="F143" t="n">
-        <v>21107.4295</v>
+        <v>22214.5979</v>
       </c>
       <c r="G143" t="n">
-        <v>1.920066666666668</v>
+        <v>1.920166666666668</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5476,9 +5642,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>1.924</v>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5493,39 +5657,76 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="F144" t="n">
+        <v>21107.4295</v>
+      </c>
+      <c r="G144" t="n">
+        <v>1.920066666666668</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
         <v>1.914</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C145" t="n">
         <v>1.914</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D145" t="n">
         <v>1.914</v>
       </c>
-      <c r="E144" t="n">
+      <c r="E145" t="n">
         <v>1.914</v>
       </c>
-      <c r="F144" t="n">
+      <c r="F145" t="n">
         <v>10720.3212</v>
       </c>
-      <c r="G144" t="n">
+      <c r="G145" t="n">
         <v>1.919766666666668</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>1.924</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-13 BackTest AOA.xlsx
+++ b/BackTest/2020-01-13 BackTest AOA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M145"/>
+  <dimension ref="A1:N155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>3739463.88</v>
       </c>
       <c r="G2" t="n">
+        <v>1.9106</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.916499999999999</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>2981653.88</v>
       </c>
       <c r="G3" t="n">
+        <v>1.910666666666667</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.916033333333333</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>643823.88</v>
       </c>
       <c r="G4" t="n">
+        <v>1.910733333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>1.915566666666666</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>770370.88</v>
       </c>
       <c r="G5" t="n">
+        <v>1.912133333333333</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.915666666666666</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>40254.425</v>
       </c>
       <c r="G6" t="n">
+        <v>1.913533333333333</v>
+      </c>
+      <c r="H6" t="n">
         <v>1.915849999999999</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>422636.5779</v>
       </c>
       <c r="G7" t="n">
+        <v>1.913666666666666</v>
+      </c>
+      <c r="H7" t="n">
         <v>1.915783333333333</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>129800.4421</v>
       </c>
       <c r="G8" t="n">
+        <v>1.913199999999999</v>
+      </c>
+      <c r="H8" t="n">
         <v>1.915416666666666</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>2983815.88</v>
       </c>
       <c r="G9" t="n">
+        <v>1.914133333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>1.915566666666666</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>3242678.88</v>
       </c>
       <c r="G10" t="n">
+        <v>1.915133333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>1.915716666666666</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>438890</v>
       </c>
       <c r="G11" t="n">
+        <v>1.914933333333333</v>
+      </c>
+      <c r="H11" t="n">
         <v>1.91555</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>40254.425</v>
       </c>
       <c r="G12" t="n">
+        <v>1.914666666666666</v>
+      </c>
+      <c r="H12" t="n">
         <v>1.915083333333333</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>885346</v>
       </c>
       <c r="G13" t="n">
+        <v>1.915666666666666</v>
+      </c>
+      <c r="H13" t="n">
         <v>1.914916666666666</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>3047093.76</v>
       </c>
       <c r="G14" t="n">
+        <v>1.916866666666666</v>
+      </c>
+      <c r="H14" t="n">
         <v>1.914716666666666</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>3131493.88</v>
       </c>
       <c r="G15" t="n">
+        <v>1.916866666666666</v>
+      </c>
+      <c r="H15" t="n">
         <v>1.91455</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>8888</v>
       </c>
       <c r="G16" t="n">
+        <v>1.915999999999999</v>
+      </c>
+      <c r="H16" t="n">
         <v>1.914133333333333</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>13332</v>
       </c>
       <c r="G17" t="n">
+        <v>1.915133333333333</v>
+      </c>
+      <c r="H17" t="n">
         <v>1.914016666666666</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>914.4103</v>
       </c>
       <c r="G18" t="n">
+        <v>1.915399999999999</v>
+      </c>
+      <c r="H18" t="n">
         <v>1.9136</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>9444</v>
       </c>
       <c r="G19" t="n">
+        <v>1.915466666666666</v>
+      </c>
+      <c r="H19" t="n">
         <v>1.913133333333333</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>187556</v>
       </c>
       <c r="G20" t="n">
+        <v>1.913999999999999</v>
+      </c>
+      <c r="H20" t="n">
         <v>1.912916666666666</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,25 @@
         <v>99649.5353</v>
       </c>
       <c r="G21" t="n">
+        <v>1.912933333333333</v>
+      </c>
+      <c r="H21" t="n">
         <v>1.912799999999999</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1217,27 @@
         <v>25909.2528</v>
       </c>
       <c r="G22" t="n">
+        <v>1.9138</v>
+      </c>
+      <c r="H22" t="n">
         <v>1.912999999999999</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="L22" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1261,27 @@
         <v>671257.88</v>
       </c>
       <c r="G23" t="n">
+        <v>1.914266666666667</v>
+      </c>
+      <c r="H23" t="n">
         <v>1.913149999999999</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="L23" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1305,21 @@
         <v>867.6938</v>
       </c>
       <c r="G24" t="n">
+        <v>1.913</v>
+      </c>
+      <c r="H24" t="n">
         <v>1.913099999999999</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1343,21 @@
         <v>14345.173</v>
       </c>
       <c r="G25" t="n">
+        <v>1.912266666666667</v>
+      </c>
+      <c r="H25" t="n">
         <v>1.913166666666666</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1381,21 @@
         <v>36956.1729</v>
       </c>
       <c r="G26" t="n">
+        <v>1.913133333333333</v>
+      </c>
+      <c r="H26" t="n">
         <v>1.913316666666666</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1419,21 @@
         <v>123573.4667</v>
       </c>
       <c r="G27" t="n">
+        <v>1.913266666666667</v>
+      </c>
+      <c r="H27" t="n">
         <v>1.913283333333333</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1457,25 @@
         <v>65990.099</v>
       </c>
       <c r="G28" t="n">
+        <v>1.912866666666667</v>
+      </c>
+      <c r="H28" t="n">
         <v>1.913433333333333</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1.908</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.908</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1499,29 @@
         <v>33056.057</v>
       </c>
       <c r="G29" t="n">
+        <v>1.912533333333333</v>
+      </c>
+      <c r="H29" t="n">
         <v>1.913583333333333</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.908</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1545,27 @@
         <v>14159.83</v>
       </c>
       <c r="G30" t="n">
+        <v>1.913733333333334</v>
+      </c>
+      <c r="H30" t="n">
         <v>1.91365</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
+        <v>1.908</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1589,21 @@
         <v>10781.1625</v>
       </c>
       <c r="G31" t="n">
+        <v>1.914733333333334</v>
+      </c>
+      <c r="H31" t="n">
         <v>1.913516666666666</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1627,21 @@
         <v>1387260.6499</v>
       </c>
       <c r="G32" t="n">
+        <v>1.9146</v>
+      </c>
+      <c r="H32" t="n">
         <v>1.913483333333333</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1665,21 @@
         <v>2842625.76</v>
       </c>
       <c r="G33" t="n">
+        <v>1.9156</v>
+      </c>
+      <c r="H33" t="n">
         <v>1.913733333333333</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1703,21 @@
         <v>2917156.88</v>
       </c>
       <c r="G34" t="n">
+        <v>1.915666666666667</v>
+      </c>
+      <c r="H34" t="n">
         <v>1.9137</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1741,21 @@
         <v>1463004</v>
       </c>
       <c r="G35" t="n">
+        <v>1.915866666666667</v>
+      </c>
+      <c r="H35" t="n">
         <v>1.9135</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1779,21 @@
         <v>2926300.88</v>
       </c>
       <c r="G36" t="n">
+        <v>1.916933333333334</v>
+      </c>
+      <c r="H36" t="n">
         <v>1.913366666666666</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1817,21 @@
         <v>2436686.88</v>
       </c>
       <c r="G37" t="n">
+        <v>1.9158</v>
+      </c>
+      <c r="H37" t="n">
         <v>1.913316666666666</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1855,21 @@
         <v>45923.0347</v>
       </c>
       <c r="G38" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="H38" t="n">
         <v>1.913249999999999</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1893,21 @@
         <v>1279639</v>
       </c>
       <c r="G39" t="n">
+        <v>1.915133333333334</v>
+      </c>
+      <c r="H39" t="n">
         <v>1.912883333333333</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1931,21 @@
         <v>2927233.88</v>
       </c>
       <c r="G40" t="n">
+        <v>1.915866666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>1.913116666666666</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1969,21 @@
         <v>3011350.88</v>
       </c>
       <c r="G41" t="n">
+        <v>1.915066666666667</v>
+      </c>
+      <c r="H41" t="n">
         <v>1.913066666666666</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2007,21 @@
         <v>589</v>
       </c>
       <c r="G42" t="n">
+        <v>1.915066666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>1.913033333333333</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2045,21 @@
         <v>3855</v>
       </c>
       <c r="G43" t="n">
+        <v>1.914333333333334</v>
+      </c>
+      <c r="H43" t="n">
         <v>1.913</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2083,21 @@
         <v>101688.6064</v>
       </c>
       <c r="G44" t="n">
+        <v>1.9136</v>
+      </c>
+      <c r="H44" t="n">
         <v>1.912983333333333</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2121,21 @@
         <v>1000</v>
       </c>
       <c r="G45" t="n">
+        <v>1.912466666666667</v>
+      </c>
+      <c r="H45" t="n">
         <v>1.912949999999999</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2159,25 @@
         <v>600</v>
       </c>
       <c r="G46" t="n">
+        <v>1.912066666666667</v>
+      </c>
+      <c r="H46" t="n">
         <v>1.913116666666666</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1.907</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.907</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2201,29 @@
         <v>419.7219</v>
       </c>
       <c r="G47" t="n">
+        <v>1.9128</v>
+      </c>
+      <c r="H47" t="n">
         <v>1.913283333333332</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.907</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2247,27 @@
         <v>30537.188</v>
       </c>
       <c r="G48" t="n">
+        <v>1.912466666666667</v>
+      </c>
+      <c r="H48" t="n">
         <v>1.913533333333332</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>1.907</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2291,21 @@
         <v>1000</v>
       </c>
       <c r="G49" t="n">
+        <v>1.913266666666667</v>
+      </c>
+      <c r="H49" t="n">
         <v>1.913783333333332</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2329,21 @@
         <v>9300</v>
       </c>
       <c r="G50" t="n">
+        <v>1.9142</v>
+      </c>
+      <c r="H50" t="n">
         <v>1.914049999999999</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2367,21 @@
         <v>300</v>
       </c>
       <c r="G51" t="n">
+        <v>1.913933333333334</v>
+      </c>
+      <c r="H51" t="n">
         <v>1.914333333333332</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2405,21 @@
         <v>1114682.566</v>
       </c>
       <c r="G52" t="n">
+        <v>1.915133333333334</v>
+      </c>
+      <c r="H52" t="n">
         <v>1.914599999999999</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2443,21 @@
         <v>61192.0067</v>
       </c>
       <c r="G53" t="n">
+        <v>1.9168</v>
+      </c>
+      <c r="H53" t="n">
         <v>1.914816666666666</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2481,21 @@
         <v>47425.3182</v>
       </c>
       <c r="G54" t="n">
+        <v>1.918066666666667</v>
+      </c>
+      <c r="H54" t="n">
         <v>1.915083333333332</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2519,21 @@
         <v>46496.4754</v>
       </c>
       <c r="G55" t="n">
+        <v>1.9186</v>
+      </c>
+      <c r="H55" t="n">
         <v>1.915466666666666</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2557,21 @@
         <v>665550.7804</v>
       </c>
       <c r="G56" t="n">
+        <v>1.9194</v>
+      </c>
+      <c r="H56" t="n">
         <v>1.915633333333333</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2595,21 @@
         <v>3189784.88</v>
       </c>
       <c r="G57" t="n">
+        <v>1.920933333333333</v>
+      </c>
+      <c r="H57" t="n">
         <v>1.915983333333333</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2633,21 @@
         <v>3371933.88</v>
       </c>
       <c r="G58" t="n">
+        <v>1.921133333333333</v>
+      </c>
+      <c r="H58" t="n">
         <v>1.915999999999999</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2671,21 @@
         <v>1889290.271</v>
       </c>
       <c r="G59" t="n">
+        <v>1.922733333333333</v>
+      </c>
+      <c r="H59" t="n">
         <v>1.916433333333333</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2709,21 @@
         <v>25815.2173</v>
       </c>
       <c r="G60" t="n">
+        <v>1.924399999999999</v>
+      </c>
+      <c r="H60" t="n">
         <v>1.916866666666666</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2747,21 @@
         <v>1947854</v>
       </c>
       <c r="G61" t="n">
+        <v>1.923866666666666</v>
+      </c>
+      <c r="H61" t="n">
         <v>1.916666666666666</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2785,21 @@
         <v>2753999.76</v>
       </c>
       <c r="G62" t="n">
+        <v>1.924666666666666</v>
+      </c>
+      <c r="H62" t="n">
         <v>1.916799999999999</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2823,21 @@
         <v>2696309.88</v>
       </c>
       <c r="G63" t="n">
+        <v>1.924133333333333</v>
+      </c>
+      <c r="H63" t="n">
         <v>1.916899999999999</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2861,21 @@
         <v>770.7894</v>
       </c>
       <c r="G64" t="n">
+        <v>1.924733333333333</v>
+      </c>
+      <c r="H64" t="n">
         <v>1.917283333333333</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2899,21 @@
         <v>1421.980300673924</v>
       </c>
       <c r="G65" t="n">
+        <v>1.9252</v>
+      </c>
+      <c r="H65" t="n">
         <v>1.917316666666666</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2937,21 @@
         <v>1421.9803</v>
       </c>
       <c r="G66" t="n">
+        <v>1.924666666666666</v>
+      </c>
+      <c r="H66" t="n">
         <v>1.917116666666666</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2975,21 @@
         <v>1710469.88</v>
       </c>
       <c r="G67" t="n">
+        <v>1.923866666666666</v>
+      </c>
+      <c r="H67" t="n">
         <v>1.917149999999999</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +3013,21 @@
         <v>251478</v>
       </c>
       <c r="G68" t="n">
+        <v>1.922666666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>1.917183333333332</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3051,21 @@
         <v>24700.5185</v>
       </c>
       <c r="G69" t="n">
+        <v>1.921866666666667</v>
+      </c>
+      <c r="H69" t="n">
         <v>1.917016666666666</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3089,21 @@
         <v>500</v>
       </c>
       <c r="G70" t="n">
+        <v>1.921533333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>1.917066666666666</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3127,21 @@
         <v>260</v>
       </c>
       <c r="G71" t="n">
+        <v>1.922066666666667</v>
+      </c>
+      <c r="H71" t="n">
         <v>1.917416666666666</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3165,21 @@
         <v>561</v>
       </c>
       <c r="G72" t="n">
+        <v>1.921866666666667</v>
+      </c>
+      <c r="H72" t="n">
         <v>1.917783333333332</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3203,21 @@
         <v>3123</v>
       </c>
       <c r="G73" t="n">
+        <v>1.923</v>
+      </c>
+      <c r="H73" t="n">
         <v>1.917833333333332</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3241,21 @@
         <v>523</v>
       </c>
       <c r="G74" t="n">
+        <v>1.9228</v>
+      </c>
+      <c r="H74" t="n">
         <v>1.917916666666666</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3279,21 @@
         <v>260</v>
       </c>
       <c r="G75" t="n">
+        <v>1.9226</v>
+      </c>
+      <c r="H75" t="n">
         <v>1.918299999999999</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3317,21 @@
         <v>3921</v>
       </c>
       <c r="G76" t="n">
+        <v>1.923866666666667</v>
+      </c>
+      <c r="H76" t="n">
         <v>1.918633333333332</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3355,21 @@
         <v>4704</v>
       </c>
       <c r="G77" t="n">
+        <v>1.923866666666667</v>
+      </c>
+      <c r="H77" t="n">
         <v>1.918983333333332</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3393,21 @@
         <v>4184</v>
       </c>
       <c r="G78" t="n">
+        <v>1.9252</v>
+      </c>
+      <c r="H78" t="n">
         <v>1.919349999999999</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3431,21 @@
         <v>2000</v>
       </c>
       <c r="G79" t="n">
+        <v>1.925333333333334</v>
+      </c>
+      <c r="H79" t="n">
         <v>1.919749999999999</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3469,21 @@
         <v>869</v>
       </c>
       <c r="G80" t="n">
+        <v>1.925466666666667</v>
+      </c>
+      <c r="H80" t="n">
         <v>1.920183333333332</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,24 +3507,21 @@
         <v>11315</v>
       </c>
       <c r="G81" t="n">
+        <v>1.926666666666667</v>
+      </c>
+      <c r="H81" t="n">
         <v>1.920549999999999</v>
       </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>1.931</v>
+        <v>0</v>
       </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3254,22 +3545,21 @@
         <v>1000</v>
       </c>
       <c r="G82" t="n">
+        <v>1.927866666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>1.920666666666666</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3293,22 +3583,21 @@
         <v>180120.8521</v>
       </c>
       <c r="G83" t="n">
+        <v>1.929066666666666</v>
+      </c>
+      <c r="H83" t="n">
         <v>1.920883333333333</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3332,22 +3621,21 @@
         <v>3178</v>
       </c>
       <c r="G84" t="n">
+        <v>1.9302</v>
+      </c>
+      <c r="H84" t="n">
         <v>1.921316666666666</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3371,22 +3659,21 @@
         <v>179243.0414</v>
       </c>
       <c r="G85" t="n">
+        <v>1.930466666666666</v>
+      </c>
+      <c r="H85" t="n">
         <v>1.921616666666666</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3410,22 +3697,21 @@
         <v>784</v>
       </c>
       <c r="G86" t="n">
+        <v>1.930733333333333</v>
+      </c>
+      <c r="H86" t="n">
         <v>1.921816666666666</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3449,22 +3735,21 @@
         <v>3000</v>
       </c>
       <c r="G87" t="n">
+        <v>1.930999999999999</v>
+      </c>
+      <c r="H87" t="n">
         <v>1.922216666666666</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3488,22 +3773,21 @@
         <v>6825</v>
       </c>
       <c r="G88" t="n">
+        <v>1.931266666666666</v>
+      </c>
+      <c r="H88" t="n">
         <v>1.922433333333333</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3527,22 +3811,21 @@
         <v>500</v>
       </c>
       <c r="G89" t="n">
+        <v>1.931466666666666</v>
+      </c>
+      <c r="H89" t="n">
         <v>1.92265</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3566,22 +3849,21 @@
         <v>2421</v>
       </c>
       <c r="G90" t="n">
+        <v>1.931666666666666</v>
+      </c>
+      <c r="H90" t="n">
         <v>1.922783333333333</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3605,22 +3887,21 @@
         <v>2500</v>
       </c>
       <c r="G91" t="n">
+        <v>1.931799999999999</v>
+      </c>
+      <c r="H91" t="n">
         <v>1.922899999999999</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3644,22 +3925,21 @@
         <v>1877</v>
       </c>
       <c r="G92" t="n">
+        <v>1.931866666666666</v>
+      </c>
+      <c r="H92" t="n">
         <v>1.9233</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3683,22 +3963,21 @@
         <v>1661</v>
       </c>
       <c r="G93" t="n">
+        <v>1.931866666666666</v>
+      </c>
+      <c r="H93" t="n">
         <v>1.923416666666666</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3722,22 +4001,21 @@
         <v>1084</v>
       </c>
       <c r="G94" t="n">
+        <v>1.931933333333332</v>
+      </c>
+      <c r="H94" t="n">
         <v>1.923816666666666</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3761,22 +4039,21 @@
         <v>59188.4413</v>
       </c>
       <c r="G95" t="n">
+        <v>1.930999999999999</v>
+      </c>
+      <c r="H95" t="n">
         <v>1.923966666666666</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3800,22 +4077,21 @@
         <v>5647.7246</v>
       </c>
       <c r="G96" t="n">
+        <v>1.929999999999999</v>
+      </c>
+      <c r="H96" t="n">
         <v>1.923816666666666</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3839,22 +4115,21 @@
         <v>169907.0143</v>
       </c>
       <c r="G97" t="n">
+        <v>1.928866666666666</v>
+      </c>
+      <c r="H97" t="n">
         <v>1.923933333333333</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,22 +4153,21 @@
         <v>2029349.9144</v>
       </c>
       <c r="G98" t="n">
+        <v>1.927599999999999</v>
+      </c>
+      <c r="H98" t="n">
         <v>1.924033333333333</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3917,22 +4191,21 @@
         <v>2780061.76</v>
       </c>
       <c r="G99" t="n">
+        <v>1.927466666666666</v>
+      </c>
+      <c r="H99" t="n">
         <v>1.9244</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3956,22 +4229,21 @@
         <v>796945</v>
       </c>
       <c r="G100" t="n">
+        <v>1.926199999999999</v>
+      </c>
+      <c r="H100" t="n">
         <v>1.9242</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3995,22 +4267,21 @@
         <v>50000</v>
       </c>
       <c r="G101" t="n">
+        <v>1.924866666666666</v>
+      </c>
+      <c r="H101" t="n">
         <v>1.924266666666667</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4034,22 +4305,21 @@
         <v>40558.0711</v>
       </c>
       <c r="G102" t="n">
+        <v>1.923533333333333</v>
+      </c>
+      <c r="H102" t="n">
         <v>1.924333333333333</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4073,22 +4343,21 @@
         <v>955411.88</v>
       </c>
       <c r="G103" t="n">
+        <v>1.923333333333333</v>
+      </c>
+      <c r="H103" t="n">
         <v>1.924683333333333</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4112,22 +4381,21 @@
         <v>2940783.88</v>
       </c>
       <c r="G104" t="n">
+        <v>1.9218</v>
+      </c>
+      <c r="H104" t="n">
         <v>1.9247</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4151,22 +4419,21 @@
         <v>2982037.88</v>
       </c>
       <c r="G105" t="n">
+        <v>1.920266666666666</v>
+      </c>
+      <c r="H105" t="n">
         <v>1.924733333333333</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4190,22 +4457,21 @@
         <v>1794380.88</v>
       </c>
       <c r="G106" t="n">
+        <v>1.919933333333333</v>
+      </c>
+      <c r="H106" t="n">
         <v>1.924866666666667</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4229,22 +4495,21 @@
         <v>3276677.88</v>
       </c>
       <c r="G107" t="n">
+        <v>1.918333333333333</v>
+      </c>
+      <c r="H107" t="n">
         <v>1.924683333333334</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4268,22 +4533,21 @@
         <v>2221502.88</v>
       </c>
       <c r="G108" t="n">
+        <v>1.916733333333333</v>
+      </c>
+      <c r="H108" t="n">
         <v>1.924483333333334</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4307,22 +4571,21 @@
         <v>2237398.88</v>
       </c>
       <c r="G109" t="n">
+        <v>1.9164</v>
+      </c>
+      <c r="H109" t="n">
         <v>1.924600000000001</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4346,22 +4609,21 @@
         <v>3411828.88</v>
       </c>
       <c r="G110" t="n">
+        <v>1.915933333333333</v>
+      </c>
+      <c r="H110" t="n">
         <v>1.924400000000001</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4385,22 +4647,21 @@
         <v>1404700.88</v>
       </c>
       <c r="G111" t="n">
+        <v>1.915466666666666</v>
+      </c>
+      <c r="H111" t="n">
         <v>1.9242</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4424,22 +4685,21 @@
         <v>3852.6091</v>
       </c>
       <c r="G112" t="n">
+        <v>1.915066666666666</v>
+      </c>
+      <c r="H112" t="n">
         <v>1.923916666666667</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4463,22 +4723,21 @@
         <v>225238</v>
       </c>
       <c r="G113" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="H113" t="n">
         <v>1.923833333333334</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4502,22 +4761,21 @@
         <v>2851138.76</v>
       </c>
       <c r="G114" t="n">
+        <v>1.9158</v>
+      </c>
+      <c r="H114" t="n">
         <v>1.923833333333334</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4541,22 +4799,21 @@
         <v>627641</v>
       </c>
       <c r="G115" t="n">
+        <v>1.915733333333333</v>
+      </c>
+      <c r="H115" t="n">
         <v>1.923483333333334</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4580,22 +4837,21 @@
         <v>3852.6091</v>
       </c>
       <c r="G116" t="n">
+        <v>1.9168</v>
+      </c>
+      <c r="H116" t="n">
         <v>1.923616666666667</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4619,22 +4875,21 @@
         <v>10000</v>
       </c>
       <c r="G117" t="n">
+        <v>1.917866666666666</v>
+      </c>
+      <c r="H117" t="n">
         <v>1.923566666666667</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4658,22 +4913,21 @@
         <v>24143.2039</v>
       </c>
       <c r="G118" t="n">
+        <v>1.9178</v>
+      </c>
+      <c r="H118" t="n">
         <v>1.923850000000001</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4697,22 +4951,21 @@
         <v>1106384.1267</v>
       </c>
       <c r="G119" t="n">
+        <v>1.917866666666667</v>
+      </c>
+      <c r="H119" t="n">
         <v>1.923483333333334</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4736,22 +4989,21 @@
         <v>2791957.76</v>
       </c>
       <c r="G120" t="n">
+        <v>1.919066666666667</v>
+      </c>
+      <c r="H120" t="n">
         <v>1.9234</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4775,22 +5027,21 @@
         <v>534134</v>
       </c>
       <c r="G121" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="H121" t="n">
         <v>1.9234</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4814,22 +5065,21 @@
         <v>20116.5496</v>
       </c>
       <c r="G122" t="n">
+        <v>1.918266666666667</v>
+      </c>
+      <c r="H122" t="n">
         <v>1.923083333333334</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4853,22 +5103,21 @@
         <v>10134.4077</v>
       </c>
       <c r="G123" t="n">
+        <v>1.918533333333333</v>
+      </c>
+      <c r="H123" t="n">
         <v>1.923083333333334</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4892,22 +5141,21 @@
         <v>517378.7548</v>
       </c>
       <c r="G124" t="n">
+        <v>1.917333333333333</v>
+      </c>
+      <c r="H124" t="n">
         <v>1.922750000000001</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4931,22 +5179,21 @@
         <v>219718.7189</v>
       </c>
       <c r="G125" t="n">
+        <v>1.9172</v>
+      </c>
+      <c r="H125" t="n">
         <v>1.922400000000001</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4970,22 +5217,21 @@
         <v>6463.7776</v>
       </c>
       <c r="G126" t="n">
+        <v>1.917133333333333</v>
+      </c>
+      <c r="H126" t="n">
         <v>1.922316666666667</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5009,22 +5255,21 @@
         <v>14300.9872</v>
       </c>
       <c r="G127" t="n">
+        <v>1.917133333333333</v>
+      </c>
+      <c r="H127" t="n">
         <v>1.922233333333334</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5048,22 +5293,21 @@
         <v>121128.8728</v>
       </c>
       <c r="G128" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="H128" t="n">
         <v>1.922166666666667</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5087,22 +5331,21 @@
         <v>61357.5526</v>
       </c>
       <c r="G129" t="n">
+        <v>1.9158</v>
+      </c>
+      <c r="H129" t="n">
         <v>1.922316666666667</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5126,22 +5369,21 @@
         <v>12119.008</v>
       </c>
       <c r="G130" t="n">
+        <v>1.9166</v>
+      </c>
+      <c r="H130" t="n">
         <v>1.922250000000001</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5165,22 +5407,21 @@
         <v>1153.9676</v>
       </c>
       <c r="G131" t="n">
+        <v>1.915333333333333</v>
+      </c>
+      <c r="H131" t="n">
         <v>1.921933333333334</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5204,22 +5445,21 @@
         <v>260</v>
       </c>
       <c r="G132" t="n">
+        <v>1.915066666666666</v>
+      </c>
+      <c r="H132" t="n">
         <v>1.921866666666668</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,22 +5483,21 @@
         <v>261</v>
       </c>
       <c r="G133" t="n">
+        <v>1.914866666666666</v>
+      </c>
+      <c r="H133" t="n">
         <v>1.921816666666668</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5282,22 +5521,21 @@
         <v>33124.7575</v>
       </c>
       <c r="G134" t="n">
+        <v>1.915533333333333</v>
+      </c>
+      <c r="H134" t="n">
         <v>1.921666666666668</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5321,22 +5559,21 @@
         <v>260</v>
       </c>
       <c r="G135" t="n">
+        <v>1.9154</v>
+      </c>
+      <c r="H135" t="n">
         <v>1.921600000000001</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5360,22 +5597,21 @@
         <v>731418.969</v>
       </c>
       <c r="G136" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="H136" t="n">
         <v>1.921433333333334</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5399,22 +5635,21 @@
         <v>100000</v>
       </c>
       <c r="G137" t="n">
+        <v>1.9162</v>
+      </c>
+      <c r="H137" t="n">
         <v>1.921166666666668</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5438,22 +5673,21 @@
         <v>347878.5401</v>
       </c>
       <c r="G138" t="n">
+        <v>1.916933333333333</v>
+      </c>
+      <c r="H138" t="n">
         <v>1.921016666666668</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5477,22 +5711,21 @@
         <v>2317.6577</v>
       </c>
       <c r="G139" t="n">
+        <v>1.917266666666667</v>
+      </c>
+      <c r="H139" t="n">
         <v>1.920733333333335</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5516,22 +5749,21 @@
         <v>49481.1295</v>
       </c>
       <c r="G140" t="n">
+        <v>1.918133333333333</v>
+      </c>
+      <c r="H140" t="n">
         <v>1.920566666666668</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5555,22 +5787,21 @@
         <v>80000</v>
       </c>
       <c r="G141" t="n">
+        <v>1.919066666666667</v>
+      </c>
+      <c r="H141" t="n">
         <v>1.920416666666668</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5594,22 +5825,21 @@
         <v>7000</v>
       </c>
       <c r="G142" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H142" t="n">
         <v>1.920266666666668</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5633,22 +5863,21 @@
         <v>22214.5979</v>
       </c>
       <c r="G143" t="n">
+        <v>1.921066666666667</v>
+      </c>
+      <c r="H143" t="n">
         <v>1.920166666666668</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5672,22 +5901,21 @@
         <v>21107.4295</v>
       </c>
       <c r="G144" t="n">
+        <v>1.9212</v>
+      </c>
+      <c r="H144" t="n">
         <v>1.920066666666668</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5711,22 +5939,401 @@
         <v>10720.3212</v>
       </c>
       <c r="G145" t="n">
+        <v>1.920533333333334</v>
+      </c>
+      <c r="H145" t="n">
         <v>1.919766666666668</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="F146" t="n">
+        <v>260</v>
+      </c>
+      <c r="G146" t="n">
+        <v>1.921666666666667</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1.919666666666668</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="F147" t="n">
+        <v>171717.724</v>
+      </c>
+      <c r="G147" t="n">
+        <v>1.9218</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1.919566666666668</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="F148" t="n">
+        <v>22220</v>
+      </c>
+      <c r="G148" t="n">
+        <v>1.921866666666667</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1.919466666666668</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="F149" t="n">
+        <v>10017.1648</v>
+      </c>
+      <c r="G149" t="n">
+        <v>1.9224</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1.919400000000001</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="F150" t="n">
+        <v>3451.1787</v>
+      </c>
+      <c r="G150" t="n">
+        <v>1.9226</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1.919333333333334</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1.929</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1.931</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1.931</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1.929</v>
+      </c>
+      <c r="F151" t="n">
+        <v>65682.584</v>
+      </c>
+      <c r="G151" t="n">
+        <v>1.923333333333333</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1.919316666666668</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="F152" t="n">
+        <v>5627.3295</v>
+      </c>
+      <c r="G152" t="n">
+        <v>1.9242</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1.919250000000001</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="F153" t="n">
+        <v>9000</v>
+      </c>
+      <c r="G153" t="n">
+        <v>1.924533333333333</v>
+      </c>
+      <c r="H153" t="n">
+        <v>1.919183333333334</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="F154" t="n">
+        <v>312621.0099</v>
+      </c>
+      <c r="G154" t="n">
+        <v>1.925466666666667</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1.919116666666667</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1.931</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1.931</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="F155" t="n">
+        <v>309897.1804</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1.926133333333333</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1.919350000000001</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-13 BackTest AOA.xlsx
+++ b/BackTest/2020-01-13 BackTest AOA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N155"/>
+  <dimension ref="A1:M184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.923</v>
+        <v>1.933</v>
       </c>
       <c r="C2" t="n">
-        <v>1.923</v>
+        <v>1.91</v>
       </c>
       <c r="D2" t="n">
-        <v>1.923</v>
+        <v>1.933</v>
       </c>
       <c r="E2" t="n">
-        <v>1.906</v>
+        <v>1.91</v>
       </c>
       <c r="F2" t="n">
-        <v>3739463.88</v>
+        <v>3248236.88</v>
       </c>
       <c r="G2" t="n">
-        <v>1.9106</v>
+        <v>-19897963.3537</v>
       </c>
       <c r="H2" t="n">
-        <v>1.916499999999999</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.923</v>
+        <v>1.91</v>
       </c>
       <c r="C3" t="n">
-        <v>1.906</v>
+        <v>1.91</v>
       </c>
       <c r="D3" t="n">
-        <v>1.927</v>
+        <v>1.91</v>
       </c>
       <c r="E3" t="n">
-        <v>1.906</v>
+        <v>1.91</v>
       </c>
       <c r="F3" t="n">
-        <v>2981653.88</v>
+        <v>28000</v>
       </c>
       <c r="G3" t="n">
-        <v>1.910666666666667</v>
+        <v>-19897963.3537</v>
       </c>
       <c r="H3" t="n">
-        <v>1.916033333333333</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.927</v>
+        <v>1.92</v>
       </c>
       <c r="C4" t="n">
-        <v>1.906</v>
+        <v>1.92</v>
       </c>
       <c r="D4" t="n">
-        <v>1.927</v>
+        <v>1.92</v>
       </c>
       <c r="E4" t="n">
-        <v>1.906</v>
+        <v>1.92</v>
       </c>
       <c r="F4" t="n">
-        <v>643823.88</v>
+        <v>28152.7349</v>
       </c>
       <c r="G4" t="n">
-        <v>1.910733333333333</v>
+        <v>-19869810.6188</v>
       </c>
       <c r="H4" t="n">
-        <v>1.915566666666666</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.927</v>
+        <v>1.931</v>
       </c>
       <c r="C5" t="n">
-        <v>1.927</v>
+        <v>1.934</v>
       </c>
       <c r="D5" t="n">
-        <v>1.927</v>
+        <v>1.934</v>
       </c>
       <c r="E5" t="n">
-        <v>1.913</v>
+        <v>1.911</v>
       </c>
       <c r="F5" t="n">
-        <v>770370.88</v>
+        <v>775840.88</v>
       </c>
       <c r="G5" t="n">
-        <v>1.912133333333333</v>
+        <v>-19093969.7388</v>
       </c>
       <c r="H5" t="n">
-        <v>1.915666666666666</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.926</v>
+        <v>1.934</v>
       </c>
       <c r="C6" t="n">
-        <v>1.926</v>
+        <v>1.911</v>
       </c>
       <c r="D6" t="n">
-        <v>1.926</v>
+        <v>1.934</v>
       </c>
       <c r="E6" t="n">
-        <v>1.926</v>
+        <v>1.911</v>
       </c>
       <c r="F6" t="n">
-        <v>40254.425</v>
+        <v>3548123.88</v>
       </c>
       <c r="G6" t="n">
-        <v>1.913533333333333</v>
+        <v>-22642093.6188</v>
       </c>
       <c r="H6" t="n">
-        <v>1.915849999999999</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.912</v>
+        <v>1.934</v>
       </c>
       <c r="C7" t="n">
-        <v>1.912</v>
+        <v>1.911</v>
       </c>
       <c r="D7" t="n">
-        <v>1.912</v>
+        <v>1.934</v>
       </c>
       <c r="E7" t="n">
-        <v>1.912</v>
+        <v>1.911</v>
       </c>
       <c r="F7" t="n">
-        <v>422636.5779</v>
+        <v>2897645.88</v>
       </c>
       <c r="G7" t="n">
-        <v>1.913666666666666</v>
+        <v>-22642093.6188</v>
       </c>
       <c r="H7" t="n">
-        <v>1.915783333333333</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.912</v>
+        <v>1.93</v>
       </c>
       <c r="C8" t="n">
-        <v>1.912</v>
+        <v>1.93</v>
       </c>
       <c r="D8" t="n">
-        <v>1.912</v>
+        <v>1.932</v>
       </c>
       <c r="E8" t="n">
-        <v>1.912</v>
+        <v>1.911</v>
       </c>
       <c r="F8" t="n">
-        <v>129800.4421</v>
+        <v>3382402.88</v>
       </c>
       <c r="G8" t="n">
-        <v>1.913199999999999</v>
+        <v>-19259690.7388</v>
       </c>
       <c r="H8" t="n">
-        <v>1.915416666666666</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.926</v>
+        <v>1.911</v>
       </c>
       <c r="C9" t="n">
-        <v>1.925</v>
+        <v>1.911</v>
       </c>
       <c r="D9" t="n">
-        <v>1.926</v>
+        <v>1.93</v>
       </c>
       <c r="E9" t="n">
-        <v>1.906</v>
+        <v>1.911</v>
       </c>
       <c r="F9" t="n">
-        <v>2983815.88</v>
+        <v>3404394.88</v>
       </c>
       <c r="G9" t="n">
-        <v>1.914133333333333</v>
+        <v>-22664085.6188</v>
       </c>
       <c r="H9" t="n">
-        <v>1.915566666666666</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.925</v>
+        <v>1.93</v>
       </c>
       <c r="C10" t="n">
-        <v>1.925</v>
+        <v>1.911</v>
       </c>
       <c r="D10" t="n">
-        <v>1.925</v>
+        <v>1.93</v>
       </c>
       <c r="E10" t="n">
-        <v>1.907</v>
+        <v>1.911</v>
       </c>
       <c r="F10" t="n">
-        <v>3242678.88</v>
+        <v>1478046.88</v>
       </c>
       <c r="G10" t="n">
-        <v>1.915133333333333</v>
+        <v>-22664085.6188</v>
       </c>
       <c r="H10" t="n">
-        <v>1.915716666666666</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.907</v>
+        <v>1.91</v>
       </c>
       <c r="C11" t="n">
-        <v>1.907</v>
+        <v>1.91</v>
       </c>
       <c r="D11" t="n">
-        <v>1.907</v>
+        <v>1.91</v>
       </c>
       <c r="E11" t="n">
-        <v>1.907</v>
+        <v>1.91</v>
       </c>
       <c r="F11" t="n">
-        <v>438890</v>
+        <v>37584.1579</v>
       </c>
       <c r="G11" t="n">
-        <v>1.914933333333333</v>
+        <v>-22701669.7767</v>
       </c>
       <c r="H11" t="n">
-        <v>1.91555</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.906</v>
+        <v>1.91</v>
       </c>
       <c r="C12" t="n">
-        <v>1.906</v>
+        <v>1.91</v>
       </c>
       <c r="D12" t="n">
-        <v>1.906</v>
+        <v>1.91</v>
       </c>
       <c r="E12" t="n">
-        <v>1.906</v>
+        <v>1.91</v>
       </c>
       <c r="F12" t="n">
-        <v>40254.425</v>
+        <v>265612.9211</v>
       </c>
       <c r="G12" t="n">
-        <v>1.914666666666666</v>
+        <v>-22701669.7767</v>
       </c>
       <c r="H12" t="n">
-        <v>1.915083333333333</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.925</v>
+        <v>1.909</v>
       </c>
       <c r="C13" t="n">
-        <v>1.925</v>
+        <v>1.909</v>
       </c>
       <c r="D13" t="n">
-        <v>1.925</v>
+        <v>1.909</v>
       </c>
       <c r="E13" t="n">
-        <v>1.907</v>
+        <v>1.909</v>
       </c>
       <c r="F13" t="n">
-        <v>885346</v>
+        <v>26126.2441</v>
       </c>
       <c r="G13" t="n">
-        <v>1.915666666666666</v>
+        <v>-22727796.0208</v>
       </c>
       <c r="H13" t="n">
-        <v>1.914916666666666</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.907</v>
+        <v>1.909</v>
       </c>
       <c r="C14" t="n">
-        <v>1.924</v>
+        <v>1.909</v>
       </c>
       <c r="D14" t="n">
-        <v>1.925</v>
+        <v>1.909</v>
       </c>
       <c r="E14" t="n">
-        <v>1.906</v>
+        <v>1.909</v>
       </c>
       <c r="F14" t="n">
-        <v>3047093.76</v>
+        <v>173053.819</v>
       </c>
       <c r="G14" t="n">
-        <v>1.916866666666666</v>
+        <v>-22727796.0208</v>
       </c>
       <c r="H14" t="n">
-        <v>1.914716666666666</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.907</v>
+        <v>1.909</v>
       </c>
       <c r="C15" t="n">
-        <v>1.906</v>
+        <v>1.909</v>
       </c>
       <c r="D15" t="n">
-        <v>1.924</v>
+        <v>1.909</v>
       </c>
       <c r="E15" t="n">
-        <v>1.906</v>
+        <v>1.909</v>
       </c>
       <c r="F15" t="n">
-        <v>3131493.88</v>
+        <v>918023.9393</v>
       </c>
       <c r="G15" t="n">
-        <v>1.916866666666666</v>
+        <v>-22727796.0208</v>
       </c>
       <c r="H15" t="n">
-        <v>1.91455</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.91</v>
+        <v>1.909</v>
       </c>
       <c r="C16" t="n">
-        <v>1.91</v>
+        <v>1.909</v>
       </c>
       <c r="D16" t="n">
-        <v>1.91</v>
+        <v>1.909</v>
       </c>
       <c r="E16" t="n">
-        <v>1.91</v>
+        <v>1.909</v>
       </c>
       <c r="F16" t="n">
-        <v>8888</v>
+        <v>872122.7423</v>
       </c>
       <c r="G16" t="n">
-        <v>1.915999999999999</v>
+        <v>-22727796.0208</v>
       </c>
       <c r="H16" t="n">
-        <v>1.914133333333333</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.91</v>
+        <v>1.905</v>
       </c>
       <c r="C17" t="n">
-        <v>1.91</v>
+        <v>1.905</v>
       </c>
       <c r="D17" t="n">
-        <v>1.91</v>
+        <v>1.905</v>
       </c>
       <c r="E17" t="n">
-        <v>1.91</v>
+        <v>1.905</v>
       </c>
       <c r="F17" t="n">
-        <v>13332</v>
+        <v>10781.1625</v>
       </c>
       <c r="G17" t="n">
-        <v>1.915133333333333</v>
+        <v>-22738577.1833</v>
       </c>
       <c r="H17" t="n">
-        <v>1.914016666666666</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.91</v>
+        <v>1.905</v>
       </c>
       <c r="C18" t="n">
-        <v>1.91</v>
+        <v>1.905</v>
       </c>
       <c r="D18" t="n">
-        <v>1.91</v>
+        <v>1.905</v>
       </c>
       <c r="E18" t="n">
-        <v>1.91</v>
+        <v>1.905</v>
       </c>
       <c r="F18" t="n">
-        <v>914.4103</v>
+        <v>40000</v>
       </c>
       <c r="G18" t="n">
-        <v>1.915399999999999</v>
+        <v>-22738577.1833</v>
       </c>
       <c r="H18" t="n">
-        <v>1.9136</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.907</v>
+        <v>1.906</v>
       </c>
       <c r="C19" t="n">
-        <v>1.907</v>
+        <v>1.906</v>
       </c>
       <c r="D19" t="n">
-        <v>1.907</v>
+        <v>1.906</v>
       </c>
       <c r="E19" t="n">
-        <v>1.907</v>
+        <v>1.906</v>
       </c>
       <c r="F19" t="n">
-        <v>9444</v>
+        <v>140000</v>
       </c>
       <c r="G19" t="n">
-        <v>1.915466666666666</v>
+        <v>-22598577.1833</v>
       </c>
       <c r="H19" t="n">
-        <v>1.913133333333333</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.905</v>
+        <v>1.906</v>
       </c>
       <c r="C20" t="n">
         <v>1.905</v>
       </c>
       <c r="D20" t="n">
-        <v>1.905</v>
+        <v>1.906</v>
       </c>
       <c r="E20" t="n">
         <v>1.905</v>
       </c>
       <c r="F20" t="n">
-        <v>187556</v>
+        <v>393797.9664</v>
       </c>
       <c r="G20" t="n">
-        <v>1.913999999999999</v>
+        <v>-22992375.1497</v>
       </c>
       <c r="H20" t="n">
-        <v>1.912916666666666</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1172,28 +1110,21 @@
         <v>1.91</v>
       </c>
       <c r="F21" t="n">
-        <v>99649.5353</v>
+        <v>3391.3582</v>
       </c>
       <c r="G21" t="n">
-        <v>1.912933333333333</v>
+        <v>-22988983.79150001</v>
       </c>
       <c r="H21" t="n">
-        <v>1.912799999999999</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1.905</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.905</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1202,42 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.925</v>
+        <v>1.91</v>
       </c>
       <c r="C22" t="n">
-        <v>1.925</v>
+        <v>1.919</v>
       </c>
       <c r="D22" t="n">
-        <v>1.925</v>
+        <v>1.919</v>
       </c>
       <c r="E22" t="n">
-        <v>1.925</v>
+        <v>1.91</v>
       </c>
       <c r="F22" t="n">
-        <v>25909.2528</v>
+        <v>149000</v>
       </c>
       <c r="G22" t="n">
-        <v>1.9138</v>
+        <v>-22839983.79150001</v>
       </c>
       <c r="H22" t="n">
-        <v>1.912999999999999</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1.905</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1246,42 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.923</v>
+        <v>1.927</v>
       </c>
       <c r="C23" t="n">
-        <v>1.919</v>
+        <v>1.911</v>
       </c>
       <c r="D23" t="n">
-        <v>1.923</v>
+        <v>1.927</v>
       </c>
       <c r="E23" t="n">
-        <v>1.907</v>
+        <v>1.911</v>
       </c>
       <c r="F23" t="n">
-        <v>671257.88</v>
+        <v>2026871</v>
       </c>
       <c r="G23" t="n">
-        <v>1.914266666666667</v>
+        <v>-24866854.79150001</v>
       </c>
       <c r="H23" t="n">
-        <v>1.913149999999999</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1.905</v>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1290,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.906</v>
+        <v>1.927</v>
       </c>
       <c r="C24" t="n">
-        <v>1.906</v>
+        <v>1.91</v>
       </c>
       <c r="D24" t="n">
-        <v>1.906</v>
+        <v>1.927</v>
       </c>
       <c r="E24" t="n">
-        <v>1.906</v>
+        <v>1.91</v>
       </c>
       <c r="F24" t="n">
-        <v>867.6938</v>
+        <v>840754.8287</v>
       </c>
       <c r="G24" t="n">
-        <v>1.913</v>
+        <v>-25707609.6202</v>
       </c>
       <c r="H24" t="n">
-        <v>1.913099999999999</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1328,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.914</v>
+        <v>1.91</v>
       </c>
       <c r="C25" t="n">
-        <v>1.914</v>
+        <v>1.91</v>
       </c>
       <c r="D25" t="n">
-        <v>1.914</v>
+        <v>1.91</v>
       </c>
       <c r="E25" t="n">
-        <v>1.914</v>
+        <v>1.91</v>
       </c>
       <c r="F25" t="n">
-        <v>14345.173</v>
+        <v>5000</v>
       </c>
       <c r="G25" t="n">
-        <v>1.912266666666667</v>
+        <v>-25707609.6202</v>
       </c>
       <c r="H25" t="n">
-        <v>1.913166666666666</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1366,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.919</v>
+        <v>1.91</v>
       </c>
       <c r="C26" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="D26" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="E26" t="n">
-        <v>1.919</v>
+        <v>1.91</v>
       </c>
       <c r="F26" t="n">
-        <v>36956.1729</v>
+        <v>4657</v>
       </c>
       <c r="G26" t="n">
-        <v>1.913133333333333</v>
+        <v>-25707609.6202</v>
       </c>
       <c r="H26" t="n">
-        <v>1.913316666666666</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1404,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.908</v>
+        <v>1.91</v>
       </c>
       <c r="C27" t="n">
-        <v>1.908</v>
+        <v>1.91</v>
       </c>
       <c r="D27" t="n">
-        <v>1.908</v>
+        <v>1.91</v>
       </c>
       <c r="E27" t="n">
-        <v>1.908</v>
+        <v>1.91</v>
       </c>
       <c r="F27" t="n">
-        <v>123573.4667</v>
+        <v>16524.1023</v>
       </c>
       <c r="G27" t="n">
-        <v>1.913266666666667</v>
+        <v>-25707609.6202</v>
       </c>
       <c r="H27" t="n">
-        <v>1.913283333333333</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1442,40 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.919</v>
+        <v>1.923</v>
       </c>
       <c r="C28" t="n">
-        <v>1.919</v>
+        <v>1.906</v>
       </c>
       <c r="D28" t="n">
-        <v>1.919</v>
+        <v>1.923</v>
       </c>
       <c r="E28" t="n">
-        <v>1.919</v>
+        <v>1.906</v>
       </c>
       <c r="F28" t="n">
-        <v>65990.099</v>
+        <v>1459568</v>
       </c>
       <c r="G28" t="n">
-        <v>1.912866666666667</v>
+        <v>-27167177.6202</v>
       </c>
       <c r="H28" t="n">
-        <v>1.913433333333333</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>1.908</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.908</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1484,44 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.919</v>
+        <v>1.923</v>
       </c>
       <c r="C29" t="n">
-        <v>1.919</v>
+        <v>1.906</v>
       </c>
       <c r="D29" t="n">
-        <v>1.919</v>
+        <v>1.923</v>
       </c>
       <c r="E29" t="n">
-        <v>1.919</v>
+        <v>1.906</v>
       </c>
       <c r="F29" t="n">
-        <v>33056.057</v>
+        <v>2743685.88</v>
       </c>
       <c r="G29" t="n">
-        <v>1.912533333333333</v>
+        <v>-27167177.6202</v>
       </c>
       <c r="H29" t="n">
-        <v>1.913583333333333</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>1.919</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.908</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1530,42 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.919</v>
+        <v>1.923</v>
       </c>
       <c r="C30" t="n">
-        <v>1.924</v>
+        <v>1.923</v>
       </c>
       <c r="D30" t="n">
-        <v>1.924</v>
+        <v>1.923</v>
       </c>
       <c r="E30" t="n">
-        <v>1.919</v>
+        <v>1.906</v>
       </c>
       <c r="F30" t="n">
-        <v>14159.83</v>
+        <v>835110.88</v>
       </c>
       <c r="G30" t="n">
-        <v>1.913733333333334</v>
+        <v>-26332066.74020001</v>
       </c>
       <c r="H30" t="n">
-        <v>1.91365</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1.908</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1574,36 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.925</v>
+        <v>1.923</v>
       </c>
       <c r="C31" t="n">
-        <v>1.925</v>
+        <v>1.923</v>
       </c>
       <c r="D31" t="n">
-        <v>1.925</v>
+        <v>1.923</v>
       </c>
       <c r="E31" t="n">
-        <v>1.925</v>
+        <v>1.906</v>
       </c>
       <c r="F31" t="n">
-        <v>10781.1625</v>
+        <v>3739463.88</v>
       </c>
       <c r="G31" t="n">
-        <v>1.914733333333334</v>
+        <v>-26332066.74020001</v>
       </c>
       <c r="H31" t="n">
-        <v>1.913516666666666</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1612,36 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.925</v>
+        <v>1.923</v>
       </c>
       <c r="C32" t="n">
-        <v>1.908</v>
+        <v>1.906</v>
       </c>
       <c r="D32" t="n">
-        <v>1.926</v>
+        <v>1.927</v>
       </c>
       <c r="E32" t="n">
-        <v>1.908</v>
+        <v>1.906</v>
       </c>
       <c r="F32" t="n">
-        <v>1387260.6499</v>
+        <v>2981653.88</v>
       </c>
       <c r="G32" t="n">
-        <v>1.9146</v>
+        <v>-29313720.6202</v>
       </c>
       <c r="H32" t="n">
-        <v>1.913483333333333</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1650,36 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.926</v>
+        <v>1.927</v>
       </c>
       <c r="C33" t="n">
-        <v>1.925</v>
+        <v>1.906</v>
       </c>
       <c r="D33" t="n">
-        <v>1.926</v>
+        <v>1.927</v>
       </c>
       <c r="E33" t="n">
-        <v>1.908</v>
+        <v>1.906</v>
       </c>
       <c r="F33" t="n">
-        <v>2842625.76</v>
+        <v>643823.88</v>
       </c>
       <c r="G33" t="n">
-        <v>1.9156</v>
+        <v>-29313720.6202</v>
       </c>
       <c r="H33" t="n">
-        <v>1.913733333333333</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1688,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.925</v>
+        <v>1.927</v>
       </c>
       <c r="C34" t="n">
-        <v>1.908</v>
+        <v>1.927</v>
       </c>
       <c r="D34" t="n">
-        <v>1.925</v>
+        <v>1.927</v>
       </c>
       <c r="E34" t="n">
-        <v>1.908</v>
+        <v>1.913</v>
       </c>
       <c r="F34" t="n">
-        <v>2917156.88</v>
+        <v>770370.88</v>
       </c>
       <c r="G34" t="n">
-        <v>1.915666666666667</v>
+        <v>-28543349.74020001</v>
       </c>
       <c r="H34" t="n">
-        <v>1.9137</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1729,33 +1591,30 @@
         <v>1.926</v>
       </c>
       <c r="C35" t="n">
-        <v>1.908</v>
+        <v>1.926</v>
       </c>
       <c r="D35" t="n">
         <v>1.926</v>
       </c>
       <c r="E35" t="n">
-        <v>1.908</v>
+        <v>1.926</v>
       </c>
       <c r="F35" t="n">
-        <v>1463004</v>
+        <v>40254.425</v>
       </c>
       <c r="G35" t="n">
-        <v>1.915866666666667</v>
+        <v>-28583604.16520001</v>
       </c>
       <c r="H35" t="n">
-        <v>1.9135</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1764,36 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.926</v>
+        <v>1.912</v>
       </c>
       <c r="C36" t="n">
-        <v>1.926</v>
+        <v>1.912</v>
       </c>
       <c r="D36" t="n">
-        <v>1.926</v>
+        <v>1.912</v>
       </c>
       <c r="E36" t="n">
-        <v>1.908</v>
+        <v>1.912</v>
       </c>
       <c r="F36" t="n">
-        <v>2926300.88</v>
+        <v>422636.5779</v>
       </c>
       <c r="G36" t="n">
-        <v>1.916933333333334</v>
+        <v>-29006240.74310001</v>
       </c>
       <c r="H36" t="n">
-        <v>1.913366666666666</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1802,36 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.908</v>
+        <v>1.912</v>
       </c>
       <c r="C37" t="n">
-        <v>1.908</v>
+        <v>1.912</v>
       </c>
       <c r="D37" t="n">
-        <v>1.926</v>
+        <v>1.912</v>
       </c>
       <c r="E37" t="n">
-        <v>1.908</v>
+        <v>1.912</v>
       </c>
       <c r="F37" t="n">
-        <v>2436686.88</v>
+        <v>129800.4421</v>
       </c>
       <c r="G37" t="n">
-        <v>1.9158</v>
+        <v>-29006240.74310001</v>
       </c>
       <c r="H37" t="n">
-        <v>1.913316666666666</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1840,36 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.907</v>
+        <v>1.926</v>
       </c>
       <c r="C38" t="n">
-        <v>1.907</v>
+        <v>1.925</v>
       </c>
       <c r="D38" t="n">
-        <v>1.907</v>
+        <v>1.926</v>
       </c>
       <c r="E38" t="n">
-        <v>1.907</v>
+        <v>1.906</v>
       </c>
       <c r="F38" t="n">
-        <v>45923.0347</v>
+        <v>2983815.88</v>
       </c>
       <c r="G38" t="n">
-        <v>1.915</v>
+        <v>-26022424.86310001</v>
       </c>
       <c r="H38" t="n">
-        <v>1.913249999999999</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1881,33 +1731,30 @@
         <v>1.925</v>
       </c>
       <c r="C39" t="n">
-        <v>1.908</v>
+        <v>1.925</v>
       </c>
       <c r="D39" t="n">
         <v>1.925</v>
       </c>
       <c r="E39" t="n">
-        <v>1.908</v>
+        <v>1.907</v>
       </c>
       <c r="F39" t="n">
-        <v>1279639</v>
+        <v>3242678.88</v>
       </c>
       <c r="G39" t="n">
-        <v>1.915133333333334</v>
+        <v>-26022424.86310001</v>
       </c>
       <c r="H39" t="n">
-        <v>1.912883333333333</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1916,36 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.925</v>
+        <v>1.907</v>
       </c>
       <c r="C40" t="n">
-        <v>1.925</v>
+        <v>1.907</v>
       </c>
       <c r="D40" t="n">
-        <v>1.925</v>
+        <v>1.907</v>
       </c>
       <c r="E40" t="n">
-        <v>1.908</v>
+        <v>1.907</v>
       </c>
       <c r="F40" t="n">
-        <v>2927233.88</v>
+        <v>438890</v>
       </c>
       <c r="G40" t="n">
-        <v>1.915866666666667</v>
+        <v>-26461314.86310001</v>
       </c>
       <c r="H40" t="n">
-        <v>1.913116666666666</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1954,36 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.908</v>
+        <v>1.906</v>
       </c>
       <c r="C41" t="n">
-        <v>1.908</v>
+        <v>1.906</v>
       </c>
       <c r="D41" t="n">
-        <v>1.924</v>
+        <v>1.906</v>
       </c>
       <c r="E41" t="n">
-        <v>1.908</v>
+        <v>1.906</v>
       </c>
       <c r="F41" t="n">
-        <v>3011350.88</v>
+        <v>40254.425</v>
       </c>
       <c r="G41" t="n">
-        <v>1.915066666666667</v>
+        <v>-26501569.28810001</v>
       </c>
       <c r="H41" t="n">
-        <v>1.913066666666666</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1992,36 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.908</v>
+        <v>1.925</v>
       </c>
       <c r="C42" t="n">
-        <v>1.908</v>
+        <v>1.925</v>
       </c>
       <c r="D42" t="n">
-        <v>1.908</v>
+        <v>1.925</v>
       </c>
       <c r="E42" t="n">
-        <v>1.908</v>
+        <v>1.907</v>
       </c>
       <c r="F42" t="n">
-        <v>589</v>
+        <v>885346</v>
       </c>
       <c r="G42" t="n">
-        <v>1.915066666666667</v>
+        <v>-25616223.28810001</v>
       </c>
       <c r="H42" t="n">
-        <v>1.913033333333333</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2030,36 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.908</v>
+        <v>1.907</v>
       </c>
       <c r="C43" t="n">
-        <v>1.908</v>
+        <v>1.924</v>
       </c>
       <c r="D43" t="n">
-        <v>1.908</v>
+        <v>1.925</v>
       </c>
       <c r="E43" t="n">
-        <v>1.908</v>
+        <v>1.906</v>
       </c>
       <c r="F43" t="n">
-        <v>3855</v>
+        <v>3047093.76</v>
       </c>
       <c r="G43" t="n">
-        <v>1.914333333333334</v>
+        <v>-28663317.04810001</v>
       </c>
       <c r="H43" t="n">
-        <v>1.913</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2068,36 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.908</v>
+        <v>1.907</v>
       </c>
       <c r="C44" t="n">
-        <v>1.908</v>
+        <v>1.906</v>
       </c>
       <c r="D44" t="n">
-        <v>1.908</v>
+        <v>1.924</v>
       </c>
       <c r="E44" t="n">
-        <v>1.908</v>
+        <v>1.906</v>
       </c>
       <c r="F44" t="n">
-        <v>101688.6064</v>
+        <v>3131493.88</v>
       </c>
       <c r="G44" t="n">
-        <v>1.9136</v>
+        <v>-31794810.92810001</v>
       </c>
       <c r="H44" t="n">
-        <v>1.912983333333333</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2106,36 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.907</v>
+        <v>1.91</v>
       </c>
       <c r="C45" t="n">
-        <v>1.907</v>
+        <v>1.91</v>
       </c>
       <c r="D45" t="n">
-        <v>1.907</v>
+        <v>1.91</v>
       </c>
       <c r="E45" t="n">
-        <v>1.907</v>
+        <v>1.91</v>
       </c>
       <c r="F45" t="n">
-        <v>1000</v>
+        <v>8888</v>
       </c>
       <c r="G45" t="n">
-        <v>1.912466666666667</v>
+        <v>-31785922.92810001</v>
       </c>
       <c r="H45" t="n">
-        <v>1.912949999999999</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2144,40 +1973,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.919</v>
+        <v>1.91</v>
       </c>
       <c r="C46" t="n">
-        <v>1.919</v>
+        <v>1.91</v>
       </c>
       <c r="D46" t="n">
-        <v>1.919</v>
+        <v>1.91</v>
       </c>
       <c r="E46" t="n">
-        <v>1.919</v>
+        <v>1.91</v>
       </c>
       <c r="F46" t="n">
-        <v>600</v>
+        <v>13332</v>
       </c>
       <c r="G46" t="n">
-        <v>1.912066666666667</v>
+        <v>-31785922.92810001</v>
       </c>
       <c r="H46" t="n">
-        <v>1.913116666666666</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>1.907</v>
-      </c>
-      <c r="L46" t="n">
-        <v>1.907</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,44 +2008,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.919</v>
+        <v>1.91</v>
       </c>
       <c r="C47" t="n">
-        <v>1.919</v>
+        <v>1.91</v>
       </c>
       <c r="D47" t="n">
-        <v>1.919</v>
+        <v>1.91</v>
       </c>
       <c r="E47" t="n">
-        <v>1.919</v>
+        <v>1.91</v>
       </c>
       <c r="F47" t="n">
-        <v>419.7219</v>
+        <v>914.4103</v>
       </c>
       <c r="G47" t="n">
-        <v>1.9128</v>
+        <v>-31785922.92810001</v>
       </c>
       <c r="H47" t="n">
-        <v>1.913283333333332</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>1.919</v>
-      </c>
-      <c r="L47" t="n">
-        <v>1.907</v>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2232,42 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.918</v>
+        <v>1.907</v>
       </c>
       <c r="C48" t="n">
-        <v>1.92</v>
+        <v>1.907</v>
       </c>
       <c r="D48" t="n">
-        <v>1.92</v>
+        <v>1.907</v>
       </c>
       <c r="E48" t="n">
-        <v>1.918</v>
+        <v>1.907</v>
       </c>
       <c r="F48" t="n">
-        <v>30537.188</v>
+        <v>9444</v>
       </c>
       <c r="G48" t="n">
-        <v>1.912466666666667</v>
+        <v>-31795366.92810001</v>
       </c>
       <c r="H48" t="n">
-        <v>1.913533333333332</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1.907</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2276,36 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.92</v>
+        <v>1.905</v>
       </c>
       <c r="C49" t="n">
-        <v>1.92</v>
+        <v>1.905</v>
       </c>
       <c r="D49" t="n">
-        <v>1.92</v>
+        <v>1.905</v>
       </c>
       <c r="E49" t="n">
-        <v>1.92</v>
+        <v>1.905</v>
       </c>
       <c r="F49" t="n">
-        <v>1000</v>
+        <v>187556</v>
       </c>
       <c r="G49" t="n">
-        <v>1.913266666666667</v>
+        <v>-31982922.92810001</v>
       </c>
       <c r="H49" t="n">
-        <v>1.913783333333332</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2314,36 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="C50" t="n">
-        <v>1.922</v>
+        <v>1.91</v>
       </c>
       <c r="D50" t="n">
-        <v>1.922</v>
+        <v>1.91</v>
       </c>
       <c r="E50" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="F50" t="n">
-        <v>9300</v>
+        <v>99649.5353</v>
       </c>
       <c r="G50" t="n">
-        <v>1.9142</v>
+        <v>-31883273.39280001</v>
       </c>
       <c r="H50" t="n">
-        <v>1.914049999999999</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2352,36 +2148,37 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.922</v>
+        <v>1.925</v>
       </c>
       <c r="C51" t="n">
-        <v>1.922</v>
+        <v>1.925</v>
       </c>
       <c r="D51" t="n">
-        <v>1.922</v>
+        <v>1.925</v>
       </c>
       <c r="E51" t="n">
-        <v>1.922</v>
+        <v>1.925</v>
       </c>
       <c r="F51" t="n">
-        <v>300</v>
+        <v>25909.2528</v>
       </c>
       <c r="G51" t="n">
-        <v>1.913933333333334</v>
+        <v>-31857364.14000001</v>
       </c>
       <c r="H51" t="n">
-        <v>1.914333333333332</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
+        <v>1.91</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1.91</v>
+      </c>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2390,36 +2187,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1.922</v>
+        <v>1.923</v>
       </c>
       <c r="C52" t="n">
-        <v>1.926</v>
+        <v>1.919</v>
       </c>
       <c r="D52" t="n">
-        <v>1.926</v>
+        <v>1.923</v>
       </c>
       <c r="E52" t="n">
-        <v>1.922</v>
+        <v>1.907</v>
       </c>
       <c r="F52" t="n">
-        <v>1114682.566</v>
+        <v>671257.88</v>
       </c>
       <c r="G52" t="n">
-        <v>1.915133333333334</v>
+        <v>-32528622.02000001</v>
       </c>
       <c r="H52" t="n">
-        <v>1.914599999999999</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2428,36 +2228,41 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1.927</v>
+        <v>1.906</v>
       </c>
       <c r="C53" t="n">
-        <v>1.932</v>
+        <v>1.906</v>
       </c>
       <c r="D53" t="n">
-        <v>1.932</v>
+        <v>1.906</v>
       </c>
       <c r="E53" t="n">
-        <v>1.927</v>
+        <v>1.906</v>
       </c>
       <c r="F53" t="n">
-        <v>61192.0067</v>
+        <v>867.6938</v>
       </c>
       <c r="G53" t="n">
-        <v>1.9168</v>
+        <v>-32529489.71380001</v>
       </c>
       <c r="H53" t="n">
-        <v>1.914816666666666</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2466,36 +2271,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1.933</v>
+        <v>1.914</v>
       </c>
       <c r="C54" t="n">
-        <v>1.927</v>
+        <v>1.914</v>
       </c>
       <c r="D54" t="n">
-        <v>1.934</v>
+        <v>1.914</v>
       </c>
       <c r="E54" t="n">
-        <v>1.927</v>
+        <v>1.914</v>
       </c>
       <c r="F54" t="n">
-        <v>47425.3182</v>
+        <v>14345.173</v>
       </c>
       <c r="G54" t="n">
-        <v>1.918066666666667</v>
+        <v>-32515144.54080001</v>
       </c>
       <c r="H54" t="n">
-        <v>1.915083333333332</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2504,36 +2312,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.925</v>
+        <v>1.919</v>
       </c>
       <c r="C55" t="n">
-        <v>1.933</v>
+        <v>1.92</v>
       </c>
       <c r="D55" t="n">
-        <v>1.933</v>
+        <v>1.92</v>
       </c>
       <c r="E55" t="n">
-        <v>1.925</v>
+        <v>1.919</v>
       </c>
       <c r="F55" t="n">
-        <v>46496.4754</v>
+        <v>36956.1729</v>
       </c>
       <c r="G55" t="n">
-        <v>1.9186</v>
+        <v>-32478188.36790001</v>
       </c>
       <c r="H55" t="n">
-        <v>1.915466666666666</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2542,36 +2353,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.92</v>
+        <v>1.908</v>
       </c>
       <c r="C56" t="n">
-        <v>1.92</v>
+        <v>1.908</v>
       </c>
       <c r="D56" t="n">
-        <v>1.92</v>
+        <v>1.908</v>
       </c>
       <c r="E56" t="n">
-        <v>1.92</v>
+        <v>1.908</v>
       </c>
       <c r="F56" t="n">
-        <v>665550.7804</v>
+        <v>123573.4667</v>
       </c>
       <c r="G56" t="n">
-        <v>1.9194</v>
+        <v>-32601761.83460001</v>
       </c>
       <c r="H56" t="n">
-        <v>1.915633333333333</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2580,36 +2394,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1.931</v>
+        <v>1.919</v>
       </c>
       <c r="C57" t="n">
-        <v>1.931</v>
+        <v>1.919</v>
       </c>
       <c r="D57" t="n">
-        <v>1.931</v>
+        <v>1.919</v>
       </c>
       <c r="E57" t="n">
-        <v>1.911</v>
+        <v>1.919</v>
       </c>
       <c r="F57" t="n">
-        <v>3189784.88</v>
+        <v>65990.099</v>
       </c>
       <c r="G57" t="n">
-        <v>1.920933333333333</v>
+        <v>-32535771.73560001</v>
       </c>
       <c r="H57" t="n">
-        <v>1.915983333333333</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,36 +2435,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.911</v>
+        <v>1.919</v>
       </c>
       <c r="C58" t="n">
-        <v>1.911</v>
+        <v>1.919</v>
       </c>
       <c r="D58" t="n">
-        <v>1.931</v>
+        <v>1.919</v>
       </c>
       <c r="E58" t="n">
-        <v>1.911</v>
+        <v>1.919</v>
       </c>
       <c r="F58" t="n">
-        <v>3371933.88</v>
+        <v>33056.057</v>
       </c>
       <c r="G58" t="n">
-        <v>1.921133333333333</v>
+        <v>-32535771.73560001</v>
       </c>
       <c r="H58" t="n">
-        <v>1.915999999999999</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2656,36 +2476,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.93</v>
+        <v>1.919</v>
       </c>
       <c r="C59" t="n">
-        <v>1.932</v>
+        <v>1.924</v>
       </c>
       <c r="D59" t="n">
-        <v>1.932</v>
+        <v>1.924</v>
       </c>
       <c r="E59" t="n">
-        <v>1.911</v>
+        <v>1.919</v>
       </c>
       <c r="F59" t="n">
-        <v>1889290.271</v>
+        <v>14159.83</v>
       </c>
       <c r="G59" t="n">
-        <v>1.922733333333333</v>
+        <v>-32521611.90560001</v>
       </c>
       <c r="H59" t="n">
-        <v>1.916433333333333</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2694,36 +2517,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.932</v>
+        <v>1.925</v>
       </c>
       <c r="C60" t="n">
-        <v>1.932</v>
+        <v>1.925</v>
       </c>
       <c r="D60" t="n">
-        <v>1.932</v>
+        <v>1.925</v>
       </c>
       <c r="E60" t="n">
-        <v>1.932</v>
+        <v>1.925</v>
       </c>
       <c r="F60" t="n">
-        <v>25815.2173</v>
+        <v>10781.1625</v>
       </c>
       <c r="G60" t="n">
-        <v>1.924399999999999</v>
+        <v>-32510830.74310001</v>
       </c>
       <c r="H60" t="n">
-        <v>1.916866666666666</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2732,36 +2558,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.931</v>
+        <v>1.925</v>
       </c>
       <c r="C61" t="n">
-        <v>1.911</v>
+        <v>1.908</v>
       </c>
       <c r="D61" t="n">
-        <v>1.931</v>
+        <v>1.926</v>
       </c>
       <c r="E61" t="n">
-        <v>1.911</v>
+        <v>1.908</v>
       </c>
       <c r="F61" t="n">
-        <v>1947854</v>
+        <v>1387260.6499</v>
       </c>
       <c r="G61" t="n">
-        <v>1.923866666666666</v>
+        <v>-33898091.39300001</v>
       </c>
       <c r="H61" t="n">
-        <v>1.916666666666666</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2770,36 +2599,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.911</v>
+        <v>1.926</v>
       </c>
       <c r="C62" t="n">
-        <v>1.931</v>
+        <v>1.925</v>
       </c>
       <c r="D62" t="n">
-        <v>1.931</v>
+        <v>1.926</v>
       </c>
       <c r="E62" t="n">
-        <v>1.911</v>
+        <v>1.908</v>
       </c>
       <c r="F62" t="n">
-        <v>2753999.76</v>
+        <v>2842625.76</v>
       </c>
       <c r="G62" t="n">
-        <v>1.924666666666666</v>
+        <v>-31055465.63300001</v>
       </c>
       <c r="H62" t="n">
-        <v>1.916799999999999</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2808,36 +2640,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.911</v>
+        <v>1.925</v>
       </c>
       <c r="C63" t="n">
-        <v>1.912</v>
+        <v>1.908</v>
       </c>
       <c r="D63" t="n">
-        <v>1.931</v>
+        <v>1.925</v>
       </c>
       <c r="E63" t="n">
-        <v>1.911</v>
+        <v>1.908</v>
       </c>
       <c r="F63" t="n">
-        <v>2696309.88</v>
+        <v>2917156.88</v>
       </c>
       <c r="G63" t="n">
-        <v>1.924133333333333</v>
+        <v>-33972622.51300001</v>
       </c>
       <c r="H63" t="n">
-        <v>1.916899999999999</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2846,36 +2681,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.929</v>
+        <v>1.926</v>
       </c>
       <c r="C64" t="n">
-        <v>1.929</v>
+        <v>1.908</v>
       </c>
       <c r="D64" t="n">
-        <v>1.929</v>
+        <v>1.926</v>
       </c>
       <c r="E64" t="n">
-        <v>1.929</v>
+        <v>1.908</v>
       </c>
       <c r="F64" t="n">
-        <v>770.7894</v>
+        <v>1463004</v>
       </c>
       <c r="G64" t="n">
-        <v>1.924733333333333</v>
+        <v>-33972622.51300001</v>
       </c>
       <c r="H64" t="n">
-        <v>1.917283333333333</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2884,36 +2722,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.929</v>
+        <v>1.926</v>
       </c>
       <c r="C65" t="n">
-        <v>1.929</v>
+        <v>1.926</v>
       </c>
       <c r="D65" t="n">
-        <v>1.929</v>
+        <v>1.926</v>
       </c>
       <c r="E65" t="n">
-        <v>1.929</v>
+        <v>1.908</v>
       </c>
       <c r="F65" t="n">
-        <v>1421.980300673924</v>
+        <v>2926300.88</v>
       </c>
       <c r="G65" t="n">
-        <v>1.9252</v>
+        <v>-31046321.63300001</v>
       </c>
       <c r="H65" t="n">
-        <v>1.917316666666666</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2922,36 +2763,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1.914</v>
+        <v>1.908</v>
       </c>
       <c r="C66" t="n">
-        <v>1.914</v>
+        <v>1.908</v>
       </c>
       <c r="D66" t="n">
-        <v>1.914</v>
+        <v>1.926</v>
       </c>
       <c r="E66" t="n">
-        <v>1.914</v>
+        <v>1.908</v>
       </c>
       <c r="F66" t="n">
-        <v>1421.9803</v>
+        <v>2436686.88</v>
       </c>
       <c r="G66" t="n">
-        <v>1.924666666666666</v>
+        <v>-33483008.51300001</v>
       </c>
       <c r="H66" t="n">
-        <v>1.917116666666666</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2960,36 +2804,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.931</v>
+        <v>1.907</v>
       </c>
       <c r="C67" t="n">
-        <v>1.914</v>
+        <v>1.907</v>
       </c>
       <c r="D67" t="n">
-        <v>1.931</v>
+        <v>1.907</v>
       </c>
       <c r="E67" t="n">
-        <v>1.914</v>
+        <v>1.907</v>
       </c>
       <c r="F67" t="n">
-        <v>1710469.88</v>
+        <v>45923.0347</v>
       </c>
       <c r="G67" t="n">
-        <v>1.923866666666666</v>
+        <v>-33528931.54770001</v>
       </c>
       <c r="H67" t="n">
-        <v>1.917149999999999</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2998,36 +2845,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.914</v>
+        <v>1.925</v>
       </c>
       <c r="C68" t="n">
-        <v>1.914</v>
+        <v>1.908</v>
       </c>
       <c r="D68" t="n">
-        <v>1.914</v>
+        <v>1.925</v>
       </c>
       <c r="E68" t="n">
-        <v>1.914</v>
+        <v>1.908</v>
       </c>
       <c r="F68" t="n">
-        <v>251478</v>
+        <v>1279639</v>
       </c>
       <c r="G68" t="n">
-        <v>1.922666666666667</v>
+        <v>-32249292.54770001</v>
       </c>
       <c r="H68" t="n">
-        <v>1.917183333333332</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3036,36 +2886,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.915</v>
+        <v>1.925</v>
       </c>
       <c r="C69" t="n">
-        <v>1.915</v>
+        <v>1.925</v>
       </c>
       <c r="D69" t="n">
-        <v>1.915</v>
+        <v>1.925</v>
       </c>
       <c r="E69" t="n">
-        <v>1.915</v>
+        <v>1.908</v>
       </c>
       <c r="F69" t="n">
-        <v>24700.5185</v>
+        <v>2927233.88</v>
       </c>
       <c r="G69" t="n">
-        <v>1.921866666666667</v>
+        <v>-29322058.66770001</v>
       </c>
       <c r="H69" t="n">
-        <v>1.917016666666666</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3074,36 +2927,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.928</v>
+        <v>1.908</v>
       </c>
       <c r="C70" t="n">
-        <v>1.928</v>
+        <v>1.908</v>
       </c>
       <c r="D70" t="n">
-        <v>1.928</v>
+        <v>1.924</v>
       </c>
       <c r="E70" t="n">
-        <v>1.928</v>
+        <v>1.908</v>
       </c>
       <c r="F70" t="n">
-        <v>500</v>
+        <v>3011350.88</v>
       </c>
       <c r="G70" t="n">
-        <v>1.921533333333333</v>
+        <v>-32333409.54770001</v>
       </c>
       <c r="H70" t="n">
-        <v>1.917066666666666</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3112,36 +2968,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.928</v>
+        <v>1.908</v>
       </c>
       <c r="C71" t="n">
-        <v>1.928</v>
+        <v>1.908</v>
       </c>
       <c r="D71" t="n">
-        <v>1.928</v>
+        <v>1.908</v>
       </c>
       <c r="E71" t="n">
-        <v>1.928</v>
+        <v>1.908</v>
       </c>
       <c r="F71" t="n">
-        <v>260</v>
+        <v>589</v>
       </c>
       <c r="G71" t="n">
-        <v>1.922066666666667</v>
+        <v>-32333409.54770001</v>
       </c>
       <c r="H71" t="n">
-        <v>1.917416666666666</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3150,36 +3009,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.928</v>
+        <v>1.908</v>
       </c>
       <c r="C72" t="n">
-        <v>1.928</v>
+        <v>1.908</v>
       </c>
       <c r="D72" t="n">
-        <v>1.928</v>
+        <v>1.908</v>
       </c>
       <c r="E72" t="n">
-        <v>1.928</v>
+        <v>1.908</v>
       </c>
       <c r="F72" t="n">
-        <v>561</v>
+        <v>3855</v>
       </c>
       <c r="G72" t="n">
-        <v>1.921866666666667</v>
+        <v>-32333409.54770001</v>
       </c>
       <c r="H72" t="n">
-        <v>1.917783333333332</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3188,36 +3050,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.928</v>
+        <v>1.908</v>
       </c>
       <c r="C73" t="n">
-        <v>1.928</v>
+        <v>1.908</v>
       </c>
       <c r="D73" t="n">
-        <v>1.928</v>
+        <v>1.908</v>
       </c>
       <c r="E73" t="n">
-        <v>1.928</v>
+        <v>1.908</v>
       </c>
       <c r="F73" t="n">
-        <v>3123</v>
+        <v>101688.6064</v>
       </c>
       <c r="G73" t="n">
-        <v>1.923</v>
+        <v>-32333409.54770001</v>
       </c>
       <c r="H73" t="n">
-        <v>1.917833333333332</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3226,36 +3091,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.929</v>
+        <v>1.907</v>
       </c>
       <c r="C74" t="n">
-        <v>1.929</v>
+        <v>1.907</v>
       </c>
       <c r="D74" t="n">
-        <v>1.929</v>
+        <v>1.907</v>
       </c>
       <c r="E74" t="n">
-        <v>1.929</v>
+        <v>1.907</v>
       </c>
       <c r="F74" t="n">
-        <v>523</v>
+        <v>1000</v>
       </c>
       <c r="G74" t="n">
-        <v>1.9228</v>
+        <v>-32334409.54770001</v>
       </c>
       <c r="H74" t="n">
-        <v>1.917916666666666</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3264,36 +3132,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.929</v>
+        <v>1.919</v>
       </c>
       <c r="C75" t="n">
-        <v>1.929</v>
+        <v>1.919</v>
       </c>
       <c r="D75" t="n">
-        <v>1.929</v>
+        <v>1.919</v>
       </c>
       <c r="E75" t="n">
-        <v>1.929</v>
+        <v>1.919</v>
       </c>
       <c r="F75" t="n">
-        <v>260</v>
+        <v>600</v>
       </c>
       <c r="G75" t="n">
-        <v>1.9226</v>
+        <v>-32333809.54770001</v>
       </c>
       <c r="H75" t="n">
-        <v>1.918299999999999</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3302,36 +3173,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.929</v>
+        <v>1.919</v>
       </c>
       <c r="C76" t="n">
-        <v>1.93</v>
+        <v>1.919</v>
       </c>
       <c r="D76" t="n">
-        <v>1.93</v>
+        <v>1.919</v>
       </c>
       <c r="E76" t="n">
-        <v>1.929</v>
+        <v>1.919</v>
       </c>
       <c r="F76" t="n">
-        <v>3921</v>
+        <v>419.7219</v>
       </c>
       <c r="G76" t="n">
-        <v>1.923866666666667</v>
+        <v>-32333809.54770001</v>
       </c>
       <c r="H76" t="n">
-        <v>1.918633333333332</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3340,36 +3214,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.93</v>
+        <v>1.918</v>
       </c>
       <c r="C77" t="n">
-        <v>1.931</v>
+        <v>1.92</v>
       </c>
       <c r="D77" t="n">
-        <v>1.931</v>
+        <v>1.92</v>
       </c>
       <c r="E77" t="n">
-        <v>1.93</v>
+        <v>1.918</v>
       </c>
       <c r="F77" t="n">
-        <v>4704</v>
+        <v>30537.188</v>
       </c>
       <c r="G77" t="n">
-        <v>1.923866666666667</v>
+        <v>-32303272.35970001</v>
       </c>
       <c r="H77" t="n">
-        <v>1.918983333333332</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3378,36 +3255,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.931</v>
+        <v>1.92</v>
       </c>
       <c r="C78" t="n">
-        <v>1.932</v>
+        <v>1.92</v>
       </c>
       <c r="D78" t="n">
-        <v>1.932</v>
+        <v>1.92</v>
       </c>
       <c r="E78" t="n">
-        <v>1.931</v>
+        <v>1.92</v>
       </c>
       <c r="F78" t="n">
-        <v>4184</v>
+        <v>1000</v>
       </c>
       <c r="G78" t="n">
-        <v>1.9252</v>
+        <v>-32303272.35970001</v>
       </c>
       <c r="H78" t="n">
-        <v>1.919349999999999</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3416,36 +3296,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.931</v>
+        <v>1.92</v>
       </c>
       <c r="C79" t="n">
-        <v>1.931</v>
+        <v>1.922</v>
       </c>
       <c r="D79" t="n">
-        <v>1.931</v>
+        <v>1.922</v>
       </c>
       <c r="E79" t="n">
-        <v>1.931</v>
+        <v>1.92</v>
       </c>
       <c r="F79" t="n">
-        <v>2000</v>
+        <v>9300</v>
       </c>
       <c r="G79" t="n">
-        <v>1.925333333333334</v>
+        <v>-32293972.35970001</v>
       </c>
       <c r="H79" t="n">
-        <v>1.919749999999999</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3454,36 +3337,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.931</v>
+        <v>1.922</v>
       </c>
       <c r="C80" t="n">
-        <v>1.931</v>
+        <v>1.922</v>
       </c>
       <c r="D80" t="n">
-        <v>1.931</v>
+        <v>1.922</v>
       </c>
       <c r="E80" t="n">
-        <v>1.931</v>
+        <v>1.922</v>
       </c>
       <c r="F80" t="n">
-        <v>869</v>
+        <v>300</v>
       </c>
       <c r="G80" t="n">
-        <v>1.925466666666667</v>
+        <v>-32293972.35970001</v>
       </c>
       <c r="H80" t="n">
-        <v>1.920183333333332</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3492,36 +3378,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.931</v>
+        <v>1.922</v>
       </c>
       <c r="C81" t="n">
-        <v>1.932</v>
+        <v>1.926</v>
       </c>
       <c r="D81" t="n">
-        <v>1.932</v>
+        <v>1.926</v>
       </c>
       <c r="E81" t="n">
-        <v>1.931</v>
+        <v>1.922</v>
       </c>
       <c r="F81" t="n">
-        <v>11315</v>
+        <v>1114682.566</v>
       </c>
       <c r="G81" t="n">
-        <v>1.926666666666667</v>
+        <v>-31179289.79370001</v>
       </c>
       <c r="H81" t="n">
-        <v>1.920549999999999</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3530,7 +3419,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.932</v>
+        <v>1.927</v>
       </c>
       <c r="C82" t="n">
         <v>1.932</v>
@@ -3539,27 +3428,30 @@
         <v>1.932</v>
       </c>
       <c r="E82" t="n">
-        <v>1.932</v>
+        <v>1.927</v>
       </c>
       <c r="F82" t="n">
-        <v>1000</v>
+        <v>61192.0067</v>
       </c>
       <c r="G82" t="n">
-        <v>1.927866666666667</v>
+        <v>-31118097.78700001</v>
       </c>
       <c r="H82" t="n">
-        <v>1.920666666666666</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>1</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3568,36 +3460,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.932</v>
+        <v>1.933</v>
       </c>
       <c r="C83" t="n">
-        <v>1.932</v>
+        <v>1.927</v>
       </c>
       <c r="D83" t="n">
-        <v>1.932</v>
+        <v>1.934</v>
       </c>
       <c r="E83" t="n">
-        <v>1.932</v>
+        <v>1.927</v>
       </c>
       <c r="F83" t="n">
-        <v>180120.8521</v>
+        <v>47425.3182</v>
       </c>
       <c r="G83" t="n">
-        <v>1.929066666666666</v>
+        <v>-31165523.10520001</v>
       </c>
       <c r="H83" t="n">
-        <v>1.920883333333333</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>1</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3606,36 +3501,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.932</v>
+        <v>1.925</v>
       </c>
       <c r="C84" t="n">
-        <v>1.932</v>
+        <v>1.933</v>
       </c>
       <c r="D84" t="n">
-        <v>1.932</v>
+        <v>1.933</v>
       </c>
       <c r="E84" t="n">
-        <v>1.932</v>
+        <v>1.925</v>
       </c>
       <c r="F84" t="n">
-        <v>3178</v>
+        <v>46496.4754</v>
       </c>
       <c r="G84" t="n">
-        <v>1.9302</v>
+        <v>-31119026.62980001</v>
       </c>
       <c r="H84" t="n">
-        <v>1.921316666666666</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>1</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3644,36 +3542,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.932</v>
+        <v>1.92</v>
       </c>
       <c r="C85" t="n">
-        <v>1.932</v>
+        <v>1.92</v>
       </c>
       <c r="D85" t="n">
-        <v>1.932</v>
+        <v>1.92</v>
       </c>
       <c r="E85" t="n">
-        <v>1.932</v>
+        <v>1.92</v>
       </c>
       <c r="F85" t="n">
-        <v>179243.0414</v>
+        <v>665550.7804</v>
       </c>
       <c r="G85" t="n">
-        <v>1.930466666666666</v>
+        <v>-31784577.41020001</v>
       </c>
       <c r="H85" t="n">
-        <v>1.921616666666666</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>1</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3682,36 +3583,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.932</v>
+        <v>1.931</v>
       </c>
       <c r="C86" t="n">
-        <v>1.932</v>
+        <v>1.931</v>
       </c>
       <c r="D86" t="n">
-        <v>1.932</v>
+        <v>1.931</v>
       </c>
       <c r="E86" t="n">
-        <v>1.932</v>
+        <v>1.911</v>
       </c>
       <c r="F86" t="n">
-        <v>784</v>
+        <v>3189784.88</v>
       </c>
       <c r="G86" t="n">
-        <v>1.930733333333333</v>
+        <v>-28594792.53020001</v>
       </c>
       <c r="H86" t="n">
-        <v>1.921816666666666</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3720,36 +3624,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.932</v>
+        <v>1.911</v>
       </c>
       <c r="C87" t="n">
-        <v>1.932</v>
+        <v>1.911</v>
       </c>
       <c r="D87" t="n">
-        <v>1.932</v>
+        <v>1.931</v>
       </c>
       <c r="E87" t="n">
-        <v>1.932</v>
+        <v>1.911</v>
       </c>
       <c r="F87" t="n">
-        <v>3000</v>
+        <v>3371933.88</v>
       </c>
       <c r="G87" t="n">
-        <v>1.930999999999999</v>
+        <v>-31966726.41020001</v>
       </c>
       <c r="H87" t="n">
-        <v>1.922216666666666</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>1</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3758,7 +3665,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.932</v>
+        <v>1.93</v>
       </c>
       <c r="C88" t="n">
         <v>1.932</v>
@@ -3767,27 +3674,30 @@
         <v>1.932</v>
       </c>
       <c r="E88" t="n">
-        <v>1.932</v>
+        <v>1.911</v>
       </c>
       <c r="F88" t="n">
-        <v>6825</v>
+        <v>1889290.271</v>
       </c>
       <c r="G88" t="n">
-        <v>1.931266666666666</v>
+        <v>-30077436.13920001</v>
       </c>
       <c r="H88" t="n">
-        <v>1.922433333333333</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,24 +3718,27 @@
         <v>1.932</v>
       </c>
       <c r="F89" t="n">
-        <v>500</v>
+        <v>25815.2173</v>
       </c>
       <c r="G89" t="n">
-        <v>1.931466666666666</v>
+        <v>-30077436.13920001</v>
       </c>
       <c r="H89" t="n">
-        <v>1.92265</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3834,36 +3747,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.932</v>
+        <v>1.931</v>
       </c>
       <c r="C90" t="n">
-        <v>1.932</v>
+        <v>1.911</v>
       </c>
       <c r="D90" t="n">
-        <v>1.932</v>
+        <v>1.931</v>
       </c>
       <c r="E90" t="n">
-        <v>1.932</v>
+        <v>1.911</v>
       </c>
       <c r="F90" t="n">
-        <v>2421</v>
+        <v>1947854</v>
       </c>
       <c r="G90" t="n">
-        <v>1.931666666666666</v>
+        <v>-32025290.13920001</v>
       </c>
       <c r="H90" t="n">
-        <v>1.922783333333333</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>1</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3872,36 +3788,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.932</v>
+        <v>1.911</v>
       </c>
       <c r="C91" t="n">
-        <v>1.932</v>
+        <v>1.931</v>
       </c>
       <c r="D91" t="n">
-        <v>1.932</v>
+        <v>1.931</v>
       </c>
       <c r="E91" t="n">
-        <v>1.932</v>
+        <v>1.911</v>
       </c>
       <c r="F91" t="n">
-        <v>2500</v>
+        <v>2753999.76</v>
       </c>
       <c r="G91" t="n">
-        <v>1.931799999999999</v>
+        <v>-29271290.3792</v>
       </c>
       <c r="H91" t="n">
-        <v>1.922899999999999</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>1</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3910,36 +3829,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1.932</v>
+        <v>1.911</v>
       </c>
       <c r="C92" t="n">
-        <v>1.932</v>
+        <v>1.912</v>
       </c>
       <c r="D92" t="n">
-        <v>1.932</v>
+        <v>1.931</v>
       </c>
       <c r="E92" t="n">
-        <v>1.932</v>
+        <v>1.911</v>
       </c>
       <c r="F92" t="n">
-        <v>1877</v>
+        <v>2696309.88</v>
       </c>
       <c r="G92" t="n">
-        <v>1.931866666666666</v>
+        <v>-31967600.2592</v>
       </c>
       <c r="H92" t="n">
-        <v>1.9233</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,36 +3870,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1.932</v>
+        <v>1.929</v>
       </c>
       <c r="C93" t="n">
-        <v>1.932</v>
+        <v>1.929</v>
       </c>
       <c r="D93" t="n">
-        <v>1.932</v>
+        <v>1.929</v>
       </c>
       <c r="E93" t="n">
-        <v>1.932</v>
+        <v>1.929</v>
       </c>
       <c r="F93" t="n">
-        <v>1661</v>
+        <v>770.7894</v>
       </c>
       <c r="G93" t="n">
-        <v>1.931866666666666</v>
+        <v>-31966829.4698</v>
       </c>
       <c r="H93" t="n">
-        <v>1.923416666666666</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3986,36 +3911,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1.932</v>
+        <v>1.929</v>
       </c>
       <c r="C94" t="n">
-        <v>1.932</v>
+        <v>1.929</v>
       </c>
       <c r="D94" t="n">
-        <v>1.932</v>
+        <v>1.929</v>
       </c>
       <c r="E94" t="n">
-        <v>1.932</v>
+        <v>1.929</v>
       </c>
       <c r="F94" t="n">
-        <v>1084</v>
+        <v>1421.980300673924</v>
       </c>
       <c r="G94" t="n">
-        <v>1.931933333333332</v>
+        <v>-31966829.4698</v>
       </c>
       <c r="H94" t="n">
-        <v>1.923816666666666</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4024,36 +3952,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.918</v>
+        <v>1.914</v>
       </c>
       <c r="C95" t="n">
-        <v>1.917</v>
+        <v>1.914</v>
       </c>
       <c r="D95" t="n">
-        <v>1.918</v>
+        <v>1.914</v>
       </c>
       <c r="E95" t="n">
-        <v>1.917</v>
+        <v>1.914</v>
       </c>
       <c r="F95" t="n">
-        <v>59188.4413</v>
+        <v>1421.9803</v>
       </c>
       <c r="G95" t="n">
-        <v>1.930999999999999</v>
+        <v>-31968251.4501</v>
       </c>
       <c r="H95" t="n">
-        <v>1.923966666666666</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>1</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4062,36 +3993,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.917</v>
+        <v>1.931</v>
       </c>
       <c r="C96" t="n">
-        <v>1.917</v>
+        <v>1.914</v>
       </c>
       <c r="D96" t="n">
-        <v>1.917</v>
+        <v>1.931</v>
       </c>
       <c r="E96" t="n">
-        <v>1.917</v>
+        <v>1.914</v>
       </c>
       <c r="F96" t="n">
-        <v>5647.7246</v>
+        <v>1710469.88</v>
       </c>
       <c r="G96" t="n">
-        <v>1.929999999999999</v>
+        <v>-31968251.4501</v>
       </c>
       <c r="H96" t="n">
-        <v>1.923816666666666</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4100,36 +4034,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.917</v>
+        <v>1.914</v>
       </c>
       <c r="C97" t="n">
-        <v>1.915</v>
+        <v>1.914</v>
       </c>
       <c r="D97" t="n">
-        <v>1.917</v>
+        <v>1.914</v>
       </c>
       <c r="E97" t="n">
-        <v>1.915</v>
+        <v>1.914</v>
       </c>
       <c r="F97" t="n">
-        <v>169907.0143</v>
+        <v>251478</v>
       </c>
       <c r="G97" t="n">
-        <v>1.928866666666666</v>
+        <v>-31968251.4501</v>
       </c>
       <c r="H97" t="n">
-        <v>1.923933333333333</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4141,33 +4078,36 @@
         <v>1.915</v>
       </c>
       <c r="C98" t="n">
-        <v>1.913</v>
+        <v>1.915</v>
       </c>
       <c r="D98" t="n">
-        <v>1.93</v>
+        <v>1.915</v>
       </c>
       <c r="E98" t="n">
-        <v>1.913</v>
+        <v>1.915</v>
       </c>
       <c r="F98" t="n">
-        <v>2029349.9144</v>
+        <v>24700.5185</v>
       </c>
       <c r="G98" t="n">
-        <v>1.927599999999999</v>
+        <v>-31943550.9316</v>
       </c>
       <c r="H98" t="n">
-        <v>1.924033333333333</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4176,36 +4116,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1.93</v>
+        <v>1.928</v>
       </c>
       <c r="C99" t="n">
-        <v>1.93</v>
+        <v>1.928</v>
       </c>
       <c r="D99" t="n">
-        <v>1.93</v>
+        <v>1.928</v>
       </c>
       <c r="E99" t="n">
-        <v>1.913</v>
+        <v>1.928</v>
       </c>
       <c r="F99" t="n">
-        <v>2780061.76</v>
+        <v>500</v>
       </c>
       <c r="G99" t="n">
-        <v>1.927466666666666</v>
+        <v>-31943050.9316</v>
       </c>
       <c r="H99" t="n">
-        <v>1.9244</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4214,36 +4157,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.93</v>
+        <v>1.928</v>
       </c>
       <c r="C100" t="n">
-        <v>1.913</v>
+        <v>1.928</v>
       </c>
       <c r="D100" t="n">
-        <v>1.93</v>
+        <v>1.928</v>
       </c>
       <c r="E100" t="n">
-        <v>1.913</v>
+        <v>1.928</v>
       </c>
       <c r="F100" t="n">
-        <v>796945</v>
+        <v>260</v>
       </c>
       <c r="G100" t="n">
-        <v>1.926199999999999</v>
+        <v>-31943050.9316</v>
       </c>
       <c r="H100" t="n">
-        <v>1.9242</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4252,36 +4198,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1.912</v>
+        <v>1.928</v>
       </c>
       <c r="C101" t="n">
-        <v>1.912</v>
+        <v>1.928</v>
       </c>
       <c r="D101" t="n">
-        <v>1.912</v>
+        <v>1.928</v>
       </c>
       <c r="E101" t="n">
-        <v>1.912</v>
+        <v>1.928</v>
       </c>
       <c r="F101" t="n">
-        <v>50000</v>
+        <v>561</v>
       </c>
       <c r="G101" t="n">
-        <v>1.924866666666666</v>
+        <v>-31943050.9316</v>
       </c>
       <c r="H101" t="n">
-        <v>1.924266666666667</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4290,36 +4239,39 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1.912</v>
+        <v>1.928</v>
       </c>
       <c r="C102" t="n">
-        <v>1.912</v>
+        <v>1.928</v>
       </c>
       <c r="D102" t="n">
-        <v>1.912</v>
+        <v>1.928</v>
       </c>
       <c r="E102" t="n">
-        <v>1.912</v>
+        <v>1.928</v>
       </c>
       <c r="F102" t="n">
-        <v>40558.0711</v>
+        <v>3123</v>
       </c>
       <c r="G102" t="n">
-        <v>1.923533333333333</v>
+        <v>-31943050.9316</v>
       </c>
       <c r="H102" t="n">
-        <v>1.924333333333333</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4337,27 +4289,30 @@
         <v>1.929</v>
       </c>
       <c r="E103" t="n">
-        <v>1.908</v>
+        <v>1.929</v>
       </c>
       <c r="F103" t="n">
-        <v>955411.88</v>
+        <v>523</v>
       </c>
       <c r="G103" t="n">
-        <v>1.923333333333333</v>
+        <v>-31942527.9316</v>
       </c>
       <c r="H103" t="n">
-        <v>1.924683333333333</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4366,36 +4321,39 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1.909</v>
+        <v>1.929</v>
       </c>
       <c r="C104" t="n">
-        <v>1.909</v>
+        <v>1.929</v>
       </c>
       <c r="D104" t="n">
         <v>1.929</v>
       </c>
       <c r="E104" t="n">
-        <v>1.909</v>
+        <v>1.929</v>
       </c>
       <c r="F104" t="n">
-        <v>2940783.88</v>
+        <v>260</v>
       </c>
       <c r="G104" t="n">
-        <v>1.9218</v>
+        <v>-31942527.9316</v>
       </c>
       <c r="H104" t="n">
-        <v>1.9247</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4404,36 +4362,39 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1.909</v>
+        <v>1.929</v>
       </c>
       <c r="C105" t="n">
-        <v>1.909</v>
+        <v>1.93</v>
       </c>
       <c r="D105" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="E105" t="n">
         <v>1.929</v>
       </c>
-      <c r="E105" t="n">
-        <v>1.909</v>
-      </c>
       <c r="F105" t="n">
-        <v>2982037.88</v>
+        <v>3921</v>
       </c>
       <c r="G105" t="n">
-        <v>1.920266666666666</v>
+        <v>-31938606.9316</v>
       </c>
       <c r="H105" t="n">
-        <v>1.924733333333333</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4442,36 +4403,39 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1.928</v>
+        <v>1.93</v>
       </c>
       <c r="C106" t="n">
-        <v>1.927</v>
+        <v>1.931</v>
       </c>
       <c r="D106" t="n">
-        <v>1.928</v>
+        <v>1.931</v>
       </c>
       <c r="E106" t="n">
-        <v>1.908</v>
+        <v>1.93</v>
       </c>
       <c r="F106" t="n">
-        <v>1794380.88</v>
+        <v>4704</v>
       </c>
       <c r="G106" t="n">
-        <v>1.919933333333333</v>
+        <v>-31933902.9316</v>
       </c>
       <c r="H106" t="n">
-        <v>1.924866666666667</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4480,36 +4444,39 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1.908</v>
+        <v>1.931</v>
       </c>
       <c r="C107" t="n">
-        <v>1.908</v>
+        <v>1.932</v>
       </c>
       <c r="D107" t="n">
-        <v>1.927</v>
+        <v>1.932</v>
       </c>
       <c r="E107" t="n">
-        <v>1.908</v>
+        <v>1.931</v>
       </c>
       <c r="F107" t="n">
-        <v>3276677.88</v>
+        <v>4184</v>
       </c>
       <c r="G107" t="n">
-        <v>1.918333333333333</v>
+        <v>-31929718.9316</v>
       </c>
       <c r="H107" t="n">
-        <v>1.924683333333334</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4518,36 +4485,39 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1.927</v>
+        <v>1.931</v>
       </c>
       <c r="C108" t="n">
-        <v>1.908</v>
+        <v>1.931</v>
       </c>
       <c r="D108" t="n">
-        <v>1.927</v>
+        <v>1.931</v>
       </c>
       <c r="E108" t="n">
-        <v>1.908</v>
+        <v>1.931</v>
       </c>
       <c r="F108" t="n">
-        <v>2221502.88</v>
+        <v>2000</v>
       </c>
       <c r="G108" t="n">
-        <v>1.916733333333333</v>
+        <v>-31931718.9316</v>
       </c>
       <c r="H108" t="n">
-        <v>1.924483333333334</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4556,36 +4526,39 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1.927</v>
+        <v>1.931</v>
       </c>
       <c r="C109" t="n">
-        <v>1.927</v>
+        <v>1.931</v>
       </c>
       <c r="D109" t="n">
-        <v>1.927</v>
+        <v>1.931</v>
       </c>
       <c r="E109" t="n">
-        <v>1.91</v>
+        <v>1.931</v>
       </c>
       <c r="F109" t="n">
-        <v>2237398.88</v>
+        <v>869</v>
       </c>
       <c r="G109" t="n">
-        <v>1.9164</v>
+        <v>-31931718.9316</v>
       </c>
       <c r="H109" t="n">
-        <v>1.924600000000001</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4594,36 +4567,39 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1.91</v>
+        <v>1.931</v>
       </c>
       <c r="C110" t="n">
-        <v>1.91</v>
+        <v>1.932</v>
       </c>
       <c r="D110" t="n">
-        <v>1.928</v>
+        <v>1.932</v>
       </c>
       <c r="E110" t="n">
-        <v>1.91</v>
+        <v>1.931</v>
       </c>
       <c r="F110" t="n">
-        <v>3411828.88</v>
+        <v>11315</v>
       </c>
       <c r="G110" t="n">
-        <v>1.915933333333333</v>
+        <v>-31920403.9316</v>
       </c>
       <c r="H110" t="n">
-        <v>1.924400000000001</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4632,36 +4608,39 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1.928</v>
+        <v>1.932</v>
       </c>
       <c r="C111" t="n">
-        <v>1.91</v>
+        <v>1.932</v>
       </c>
       <c r="D111" t="n">
-        <v>1.928</v>
+        <v>1.932</v>
       </c>
       <c r="E111" t="n">
-        <v>1.91</v>
+        <v>1.932</v>
       </c>
       <c r="F111" t="n">
-        <v>1404700.88</v>
+        <v>1000</v>
       </c>
       <c r="G111" t="n">
-        <v>1.915466666666666</v>
+        <v>-31920403.9316</v>
       </c>
       <c r="H111" t="n">
-        <v>1.9242</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4670,36 +4649,39 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1.909</v>
+        <v>1.932</v>
       </c>
       <c r="C112" t="n">
-        <v>1.909</v>
+        <v>1.932</v>
       </c>
       <c r="D112" t="n">
-        <v>1.909</v>
+        <v>1.932</v>
       </c>
       <c r="E112" t="n">
-        <v>1.909</v>
+        <v>1.932</v>
       </c>
       <c r="F112" t="n">
-        <v>3852.6091</v>
+        <v>180120.8521</v>
       </c>
       <c r="G112" t="n">
-        <v>1.915066666666666</v>
+        <v>-31920403.9316</v>
       </c>
       <c r="H112" t="n">
-        <v>1.923916666666667</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4708,36 +4690,39 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1.927</v>
+        <v>1.932</v>
       </c>
       <c r="C113" t="n">
-        <v>1.927</v>
+        <v>1.932</v>
       </c>
       <c r="D113" t="n">
-        <v>1.927</v>
+        <v>1.932</v>
       </c>
       <c r="E113" t="n">
-        <v>1.927</v>
+        <v>1.932</v>
       </c>
       <c r="F113" t="n">
-        <v>225238</v>
+        <v>3178</v>
       </c>
       <c r="G113" t="n">
-        <v>1.916</v>
+        <v>-31920403.9316</v>
       </c>
       <c r="H113" t="n">
-        <v>1.923833333333334</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4746,36 +4731,39 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1.911</v>
+        <v>1.932</v>
       </c>
       <c r="C114" t="n">
-        <v>1.927</v>
+        <v>1.932</v>
       </c>
       <c r="D114" t="n">
-        <v>1.927</v>
+        <v>1.932</v>
       </c>
       <c r="E114" t="n">
-        <v>1.911</v>
+        <v>1.932</v>
       </c>
       <c r="F114" t="n">
-        <v>2851138.76</v>
+        <v>179243.0414</v>
       </c>
       <c r="G114" t="n">
-        <v>1.9158</v>
+        <v>-31920403.9316</v>
       </c>
       <c r="H114" t="n">
-        <v>1.923833333333334</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4784,36 +4772,39 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1.927</v>
+        <v>1.932</v>
       </c>
       <c r="C115" t="n">
-        <v>1.912</v>
+        <v>1.932</v>
       </c>
       <c r="D115" t="n">
-        <v>1.927</v>
+        <v>1.932</v>
       </c>
       <c r="E115" t="n">
-        <v>1.912</v>
+        <v>1.932</v>
       </c>
       <c r="F115" t="n">
-        <v>627641</v>
+        <v>784</v>
       </c>
       <c r="G115" t="n">
-        <v>1.915733333333333</v>
+        <v>-31920403.9316</v>
       </c>
       <c r="H115" t="n">
-        <v>1.923483333333334</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4822,36 +4813,39 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1.928</v>
+        <v>1.932</v>
       </c>
       <c r="C116" t="n">
-        <v>1.928</v>
+        <v>1.932</v>
       </c>
       <c r="D116" t="n">
-        <v>1.928</v>
+        <v>1.932</v>
       </c>
       <c r="E116" t="n">
-        <v>1.928</v>
+        <v>1.932</v>
       </c>
       <c r="F116" t="n">
-        <v>3852.6091</v>
+        <v>3000</v>
       </c>
       <c r="G116" t="n">
-        <v>1.9168</v>
+        <v>-31920403.9316</v>
       </c>
       <c r="H116" t="n">
-        <v>1.923616666666667</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4860,36 +4854,39 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1.928</v>
+        <v>1.932</v>
       </c>
       <c r="C117" t="n">
-        <v>1.928</v>
+        <v>1.932</v>
       </c>
       <c r="D117" t="n">
-        <v>1.928</v>
+        <v>1.932</v>
       </c>
       <c r="E117" t="n">
-        <v>1.928</v>
+        <v>1.932</v>
       </c>
       <c r="F117" t="n">
-        <v>10000</v>
+        <v>6825</v>
       </c>
       <c r="G117" t="n">
-        <v>1.917866666666666</v>
+        <v>-31920403.9316</v>
       </c>
       <c r="H117" t="n">
-        <v>1.923566666666667</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4898,36 +4895,39 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1.928</v>
+        <v>1.932</v>
       </c>
       <c r="C118" t="n">
-        <v>1.928</v>
+        <v>1.932</v>
       </c>
       <c r="D118" t="n">
-        <v>1.929</v>
+        <v>1.932</v>
       </c>
       <c r="E118" t="n">
-        <v>1.928</v>
+        <v>1.932</v>
       </c>
       <c r="F118" t="n">
-        <v>24143.2039</v>
+        <v>500</v>
       </c>
       <c r="G118" t="n">
-        <v>1.9178</v>
+        <v>-31920403.9316</v>
       </c>
       <c r="H118" t="n">
-        <v>1.923850000000001</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4936,36 +4936,39 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1.928</v>
+        <v>1.932</v>
       </c>
       <c r="C119" t="n">
-        <v>1.91</v>
+        <v>1.932</v>
       </c>
       <c r="D119" t="n">
-        <v>1.928</v>
+        <v>1.932</v>
       </c>
       <c r="E119" t="n">
-        <v>1.91</v>
+        <v>1.932</v>
       </c>
       <c r="F119" t="n">
-        <v>1106384.1267</v>
+        <v>2421</v>
       </c>
       <c r="G119" t="n">
-        <v>1.917866666666667</v>
+        <v>-31920403.9316</v>
       </c>
       <c r="H119" t="n">
-        <v>1.923483333333334</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4974,37 +4977,40 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1.91</v>
+        <v>1.932</v>
       </c>
       <c r="C120" t="n">
-        <v>1.927</v>
+        <v>1.932</v>
       </c>
       <c r="D120" t="n">
-        <v>1.927</v>
+        <v>1.932</v>
       </c>
       <c r="E120" t="n">
-        <v>1.91</v>
+        <v>1.932</v>
       </c>
       <c r="F120" t="n">
-        <v>2791957.76</v>
+        <v>2500</v>
       </c>
       <c r="G120" t="n">
-        <v>1.919066666666667</v>
+        <v>-31920403.9316</v>
       </c>
       <c r="H120" t="n">
-        <v>1.9234</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1.00651832460733</v>
       </c>
     </row>
     <row r="121">
@@ -5012,36 +5018,33 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1.911</v>
+        <v>1.932</v>
       </c>
       <c r="C121" t="n">
-        <v>1.911</v>
+        <v>1.932</v>
       </c>
       <c r="D121" t="n">
-        <v>1.911</v>
+        <v>1.932</v>
       </c>
       <c r="E121" t="n">
-        <v>1.911</v>
+        <v>1.932</v>
       </c>
       <c r="F121" t="n">
-        <v>534134</v>
+        <v>1877</v>
       </c>
       <c r="G121" t="n">
-        <v>1.918</v>
+        <v>-31920403.9316</v>
       </c>
       <c r="H121" t="n">
-        <v>1.9234</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5050,36 +5053,33 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1.912</v>
+        <v>1.932</v>
       </c>
       <c r="C122" t="n">
-        <v>1.912</v>
+        <v>1.932</v>
       </c>
       <c r="D122" t="n">
-        <v>1.912</v>
+        <v>1.932</v>
       </c>
       <c r="E122" t="n">
-        <v>1.912</v>
+        <v>1.932</v>
       </c>
       <c r="F122" t="n">
-        <v>20116.5496</v>
+        <v>1661</v>
       </c>
       <c r="G122" t="n">
-        <v>1.918266666666667</v>
+        <v>-31920403.9316</v>
       </c>
       <c r="H122" t="n">
-        <v>1.923083333333334</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5088,36 +5088,33 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1.912</v>
+        <v>1.932</v>
       </c>
       <c r="C123" t="n">
-        <v>1.912</v>
+        <v>1.932</v>
       </c>
       <c r="D123" t="n">
-        <v>1.912</v>
+        <v>1.932</v>
       </c>
       <c r="E123" t="n">
-        <v>1.912</v>
+        <v>1.932</v>
       </c>
       <c r="F123" t="n">
-        <v>10134.4077</v>
+        <v>1084</v>
       </c>
       <c r="G123" t="n">
-        <v>1.918533333333333</v>
+        <v>-31920403.9316</v>
       </c>
       <c r="H123" t="n">
-        <v>1.923083333333334</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5126,36 +5123,33 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1.91</v>
+        <v>1.918</v>
       </c>
       <c r="C124" t="n">
-        <v>1.909</v>
+        <v>1.917</v>
       </c>
       <c r="D124" t="n">
-        <v>1.91</v>
+        <v>1.918</v>
       </c>
       <c r="E124" t="n">
-        <v>1.909</v>
+        <v>1.917</v>
       </c>
       <c r="F124" t="n">
-        <v>517378.7548</v>
+        <v>59188.4413</v>
       </c>
       <c r="G124" t="n">
-        <v>1.917333333333333</v>
+        <v>-31979592.37290001</v>
       </c>
       <c r="H124" t="n">
-        <v>1.922750000000001</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="n">
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5164,36 +5158,33 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1.909</v>
+        <v>1.917</v>
       </c>
       <c r="C125" t="n">
-        <v>1.908</v>
+        <v>1.917</v>
       </c>
       <c r="D125" t="n">
-        <v>1.909</v>
+        <v>1.917</v>
       </c>
       <c r="E125" t="n">
-        <v>1.908</v>
+        <v>1.917</v>
       </c>
       <c r="F125" t="n">
-        <v>219718.7189</v>
+        <v>5647.7246</v>
       </c>
       <c r="G125" t="n">
-        <v>1.9172</v>
+        <v>-31979592.37290001</v>
       </c>
       <c r="H125" t="n">
-        <v>1.922400000000001</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="n">
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5202,36 +5193,33 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1.909</v>
+        <v>1.917</v>
       </c>
       <c r="C126" t="n">
-        <v>1.909</v>
+        <v>1.915</v>
       </c>
       <c r="D126" t="n">
-        <v>1.909</v>
+        <v>1.917</v>
       </c>
       <c r="E126" t="n">
-        <v>1.909</v>
+        <v>1.915</v>
       </c>
       <c r="F126" t="n">
-        <v>6463.7776</v>
+        <v>169907.0143</v>
       </c>
       <c r="G126" t="n">
-        <v>1.917133333333333</v>
+        <v>-32149499.38720001</v>
       </c>
       <c r="H126" t="n">
-        <v>1.922316666666667</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="n">
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5240,36 +5228,39 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1.909</v>
+        <v>1.915</v>
       </c>
       <c r="C127" t="n">
-        <v>1.909</v>
+        <v>1.913</v>
       </c>
       <c r="D127" t="n">
-        <v>1.909</v>
+        <v>1.93</v>
       </c>
       <c r="E127" t="n">
-        <v>1.909</v>
+        <v>1.913</v>
       </c>
       <c r="F127" t="n">
-        <v>14300.9872</v>
+        <v>2029349.9144</v>
       </c>
       <c r="G127" t="n">
-        <v>1.917133333333333</v>
+        <v>-34178849.3016</v>
       </c>
       <c r="H127" t="n">
-        <v>1.922233333333334</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>0</v>
+        <v>1.915</v>
       </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="n">
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,36 +5269,39 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1.909</v>
+        <v>1.93</v>
       </c>
       <c r="C128" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="D128" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="E128" t="n">
-        <v>1.909</v>
+        <v>1.913</v>
       </c>
       <c r="F128" t="n">
-        <v>121128.8728</v>
+        <v>2780061.76</v>
       </c>
       <c r="G128" t="n">
-        <v>1.916</v>
+        <v>-31398787.5416</v>
       </c>
       <c r="H128" t="n">
-        <v>1.922166666666667</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>0</v>
+        <v>1.913</v>
       </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="n">
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5316,36 +5310,37 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1.912</v>
+        <v>1.93</v>
       </c>
       <c r="C129" t="n">
-        <v>1.924</v>
+        <v>1.913</v>
       </c>
       <c r="D129" t="n">
-        <v>1.924</v>
+        <v>1.93</v>
       </c>
       <c r="E129" t="n">
-        <v>1.912</v>
+        <v>1.913</v>
       </c>
       <c r="F129" t="n">
-        <v>61357.5526</v>
+        <v>796945</v>
       </c>
       <c r="G129" t="n">
-        <v>1.9158</v>
+        <v>-32195732.5416</v>
       </c>
       <c r="H129" t="n">
-        <v>1.922316666666667</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="n">
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5354,36 +5349,37 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1.924</v>
+        <v>1.912</v>
       </c>
       <c r="C130" t="n">
-        <v>1.924</v>
+        <v>1.912</v>
       </c>
       <c r="D130" t="n">
-        <v>1.924</v>
+        <v>1.912</v>
       </c>
       <c r="E130" t="n">
-        <v>1.924</v>
+        <v>1.912</v>
       </c>
       <c r="F130" t="n">
-        <v>12119.008</v>
+        <v>50000</v>
       </c>
       <c r="G130" t="n">
-        <v>1.9166</v>
+        <v>-32245732.5416</v>
       </c>
       <c r="H130" t="n">
-        <v>1.922250000000001</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="n">
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5392,36 +5388,37 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1.91</v>
+        <v>1.912</v>
       </c>
       <c r="C131" t="n">
-        <v>1.909</v>
+        <v>1.912</v>
       </c>
       <c r="D131" t="n">
-        <v>1.91</v>
+        <v>1.912</v>
       </c>
       <c r="E131" t="n">
-        <v>1.909</v>
+        <v>1.912</v>
       </c>
       <c r="F131" t="n">
-        <v>1153.9676</v>
+        <v>40558.0711</v>
       </c>
       <c r="G131" t="n">
-        <v>1.915333333333333</v>
+        <v>-32245732.5416</v>
       </c>
       <c r="H131" t="n">
-        <v>1.921933333333334</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="n">
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5430,36 +5427,39 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1.924</v>
+        <v>1.929</v>
       </c>
       <c r="C132" t="n">
-        <v>1.924</v>
+        <v>1.929</v>
       </c>
       <c r="D132" t="n">
-        <v>1.924</v>
+        <v>1.929</v>
       </c>
       <c r="E132" t="n">
-        <v>1.924</v>
+        <v>1.908</v>
       </c>
       <c r="F132" t="n">
-        <v>260</v>
+        <v>955411.88</v>
       </c>
       <c r="G132" t="n">
-        <v>1.915066666666666</v>
+        <v>-31290320.6616</v>
       </c>
       <c r="H132" t="n">
-        <v>1.921866666666668</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>0</v>
+        <v>1.912</v>
       </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" t="n">
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5468,36 +5468,37 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1.925</v>
+        <v>1.909</v>
       </c>
       <c r="C133" t="n">
-        <v>1.925</v>
+        <v>1.909</v>
       </c>
       <c r="D133" t="n">
-        <v>1.925</v>
+        <v>1.929</v>
       </c>
       <c r="E133" t="n">
-        <v>1.925</v>
+        <v>1.909</v>
       </c>
       <c r="F133" t="n">
-        <v>261</v>
+        <v>2940783.88</v>
       </c>
       <c r="G133" t="n">
-        <v>1.914866666666666</v>
+        <v>-34231104.5416</v>
       </c>
       <c r="H133" t="n">
-        <v>1.921816666666668</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
-      <c r="N133" t="n">
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5506,36 +5507,37 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1.92</v>
+        <v>1.909</v>
       </c>
       <c r="C134" t="n">
-        <v>1.92</v>
+        <v>1.909</v>
       </c>
       <c r="D134" t="n">
-        <v>1.92</v>
+        <v>1.929</v>
       </c>
       <c r="E134" t="n">
-        <v>1.92</v>
+        <v>1.909</v>
       </c>
       <c r="F134" t="n">
-        <v>33124.7575</v>
+        <v>2982037.88</v>
       </c>
       <c r="G134" t="n">
-        <v>1.915533333333333</v>
+        <v>-34231104.5416</v>
       </c>
       <c r="H134" t="n">
-        <v>1.921666666666668</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr"/>
-      <c r="N134" t="n">
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5544,36 +5546,37 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1.925</v>
+        <v>1.928</v>
       </c>
       <c r="C135" t="n">
-        <v>1.925</v>
+        <v>1.927</v>
       </c>
       <c r="D135" t="n">
-        <v>1.925</v>
+        <v>1.928</v>
       </c>
       <c r="E135" t="n">
-        <v>1.925</v>
+        <v>1.908</v>
       </c>
       <c r="F135" t="n">
-        <v>260</v>
+        <v>1794380.88</v>
       </c>
       <c r="G135" t="n">
-        <v>1.9154</v>
+        <v>-32436723.6616</v>
       </c>
       <c r="H135" t="n">
-        <v>1.921600000000001</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>0</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr"/>
-      <c r="N135" t="n">
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5582,36 +5585,37 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1.925</v>
+        <v>1.908</v>
       </c>
       <c r="C136" t="n">
-        <v>1.92</v>
+        <v>1.908</v>
       </c>
       <c r="D136" t="n">
-        <v>1.925</v>
+        <v>1.927</v>
       </c>
       <c r="E136" t="n">
-        <v>1.92</v>
+        <v>1.908</v>
       </c>
       <c r="F136" t="n">
-        <v>731418.969</v>
+        <v>3276677.88</v>
       </c>
       <c r="G136" t="n">
-        <v>1.916</v>
+        <v>-35713401.5416</v>
       </c>
       <c r="H136" t="n">
-        <v>1.921433333333334</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>0</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr"/>
-      <c r="N136" t="n">
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5620,36 +5624,37 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1.915</v>
+        <v>1.927</v>
       </c>
       <c r="C137" t="n">
-        <v>1.915</v>
+        <v>1.908</v>
       </c>
       <c r="D137" t="n">
-        <v>1.915</v>
+        <v>1.927</v>
       </c>
       <c r="E137" t="n">
-        <v>1.915</v>
+        <v>1.908</v>
       </c>
       <c r="F137" t="n">
-        <v>100000</v>
+        <v>2221502.88</v>
       </c>
       <c r="G137" t="n">
-        <v>1.9162</v>
+        <v>-35713401.5416</v>
       </c>
       <c r="H137" t="n">
-        <v>1.921166666666668</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>0</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr"/>
-      <c r="N137" t="n">
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5658,36 +5663,37 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1.914</v>
+        <v>1.927</v>
       </c>
       <c r="C138" t="n">
-        <v>1.923</v>
+        <v>1.927</v>
       </c>
       <c r="D138" t="n">
-        <v>1.923</v>
+        <v>1.927</v>
       </c>
       <c r="E138" t="n">
-        <v>1.914</v>
+        <v>1.91</v>
       </c>
       <c r="F138" t="n">
-        <v>347878.5401</v>
+        <v>2237398.88</v>
       </c>
       <c r="G138" t="n">
-        <v>1.916933333333333</v>
+        <v>-33476002.6616</v>
       </c>
       <c r="H138" t="n">
-        <v>1.921016666666668</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>0</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr"/>
-      <c r="N138" t="n">
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5696,36 +5702,37 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1.914</v>
+        <v>1.91</v>
       </c>
       <c r="C139" t="n">
-        <v>1.914</v>
+        <v>1.91</v>
       </c>
       <c r="D139" t="n">
-        <v>1.914</v>
+        <v>1.928</v>
       </c>
       <c r="E139" t="n">
-        <v>1.914</v>
+        <v>1.91</v>
       </c>
       <c r="F139" t="n">
-        <v>2317.6577</v>
+        <v>3411828.88</v>
       </c>
       <c r="G139" t="n">
-        <v>1.917266666666667</v>
+        <v>-36887831.5416</v>
       </c>
       <c r="H139" t="n">
-        <v>1.920733333333335</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>0</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr"/>
-      <c r="N139" t="n">
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5734,36 +5741,37 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1.921</v>
+        <v>1.928</v>
       </c>
       <c r="C140" t="n">
-        <v>1.921</v>
+        <v>1.91</v>
       </c>
       <c r="D140" t="n">
-        <v>1.921</v>
+        <v>1.928</v>
       </c>
       <c r="E140" t="n">
-        <v>1.921</v>
+        <v>1.91</v>
       </c>
       <c r="F140" t="n">
-        <v>49481.1295</v>
+        <v>1404700.88</v>
       </c>
       <c r="G140" t="n">
-        <v>1.918133333333333</v>
+        <v>-36887831.5416</v>
       </c>
       <c r="H140" t="n">
-        <v>1.920566666666668</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>0</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr"/>
-      <c r="N140" t="n">
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5772,36 +5780,37 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1.921</v>
+        <v>1.909</v>
       </c>
       <c r="C141" t="n">
-        <v>1.923</v>
+        <v>1.909</v>
       </c>
       <c r="D141" t="n">
-        <v>1.923</v>
+        <v>1.909</v>
       </c>
       <c r="E141" t="n">
-        <v>1.921</v>
+        <v>1.909</v>
       </c>
       <c r="F141" t="n">
-        <v>80000</v>
+        <v>3852.6091</v>
       </c>
       <c r="G141" t="n">
-        <v>1.919066666666667</v>
+        <v>-36891684.1507</v>
       </c>
       <c r="H141" t="n">
-        <v>1.920416666666668</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>0</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr"/>
-      <c r="N141" t="n">
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5810,36 +5819,37 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1.923</v>
+        <v>1.927</v>
       </c>
       <c r="C142" t="n">
-        <v>1.923</v>
+        <v>1.927</v>
       </c>
       <c r="D142" t="n">
-        <v>1.923</v>
+        <v>1.927</v>
       </c>
       <c r="E142" t="n">
-        <v>1.923</v>
+        <v>1.927</v>
       </c>
       <c r="F142" t="n">
-        <v>7000</v>
+        <v>225238</v>
       </c>
       <c r="G142" t="n">
-        <v>1.92</v>
+        <v>-36666446.1507</v>
       </c>
       <c r="H142" t="n">
-        <v>1.920266666666668</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>0</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr"/>
-      <c r="N142" t="n">
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5848,36 +5858,37 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1.923</v>
+        <v>1.911</v>
       </c>
       <c r="C143" t="n">
-        <v>1.926</v>
+        <v>1.927</v>
       </c>
       <c r="D143" t="n">
-        <v>1.926</v>
+        <v>1.927</v>
       </c>
       <c r="E143" t="n">
-        <v>1.923</v>
+        <v>1.911</v>
       </c>
       <c r="F143" t="n">
-        <v>22214.5979</v>
+        <v>2851138.76</v>
       </c>
       <c r="G143" t="n">
-        <v>1.921066666666667</v>
+        <v>-36666446.1507</v>
       </c>
       <c r="H143" t="n">
-        <v>1.920166666666668</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>0</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="inlineStr"/>
-      <c r="N143" t="n">
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5886,36 +5897,37 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1.926</v>
+        <v>1.927</v>
       </c>
       <c r="C144" t="n">
-        <v>1.926</v>
+        <v>1.912</v>
       </c>
       <c r="D144" t="n">
-        <v>1.926</v>
+        <v>1.927</v>
       </c>
       <c r="E144" t="n">
-        <v>1.926</v>
+        <v>1.912</v>
       </c>
       <c r="F144" t="n">
-        <v>21107.4295</v>
+        <v>627641</v>
       </c>
       <c r="G144" t="n">
-        <v>1.9212</v>
+        <v>-37294087.1507</v>
       </c>
       <c r="H144" t="n">
-        <v>1.920066666666668</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>0</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr"/>
-      <c r="N144" t="n">
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5924,36 +5936,37 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>1.914</v>
+        <v>1.928</v>
       </c>
       <c r="C145" t="n">
-        <v>1.914</v>
+        <v>1.928</v>
       </c>
       <c r="D145" t="n">
-        <v>1.914</v>
+        <v>1.928</v>
       </c>
       <c r="E145" t="n">
-        <v>1.914</v>
+        <v>1.928</v>
       </c>
       <c r="F145" t="n">
-        <v>10720.3212</v>
+        <v>3852.6091</v>
       </c>
       <c r="G145" t="n">
-        <v>1.920533333333334</v>
+        <v>-37290234.5416</v>
       </c>
       <c r="H145" t="n">
-        <v>1.919766666666668</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>0</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="inlineStr"/>
-      <c r="N145" t="n">
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5962,36 +5975,37 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1.926</v>
+        <v>1.928</v>
       </c>
       <c r="C146" t="n">
-        <v>1.926</v>
+        <v>1.928</v>
       </c>
       <c r="D146" t="n">
-        <v>1.926</v>
+        <v>1.928</v>
       </c>
       <c r="E146" t="n">
-        <v>1.926</v>
+        <v>1.928</v>
       </c>
       <c r="F146" t="n">
-        <v>260</v>
+        <v>10000</v>
       </c>
       <c r="G146" t="n">
-        <v>1.921666666666667</v>
+        <v>-37290234.5416</v>
       </c>
       <c r="H146" t="n">
-        <v>1.919666666666668</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>0</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="inlineStr"/>
-      <c r="N146" t="n">
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6000,36 +6014,37 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1.926</v>
+        <v>1.928</v>
       </c>
       <c r="C147" t="n">
-        <v>1.926</v>
+        <v>1.928</v>
       </c>
       <c r="D147" t="n">
-        <v>1.926</v>
+        <v>1.929</v>
       </c>
       <c r="E147" t="n">
-        <v>1.926</v>
+        <v>1.928</v>
       </c>
       <c r="F147" t="n">
-        <v>171717.724</v>
+        <v>24143.2039</v>
       </c>
       <c r="G147" t="n">
-        <v>1.9218</v>
+        <v>-37290234.5416</v>
       </c>
       <c r="H147" t="n">
-        <v>1.919566666666668</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>0</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="inlineStr"/>
-      <c r="N147" t="n">
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6038,36 +6053,37 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1.926</v>
+        <v>1.928</v>
       </c>
       <c r="C148" t="n">
-        <v>1.926</v>
+        <v>1.91</v>
       </c>
       <c r="D148" t="n">
-        <v>1.926</v>
+        <v>1.928</v>
       </c>
       <c r="E148" t="n">
-        <v>1.926</v>
+        <v>1.91</v>
       </c>
       <c r="F148" t="n">
-        <v>22220</v>
+        <v>1106384.1267</v>
       </c>
       <c r="G148" t="n">
-        <v>1.921866666666667</v>
+        <v>-38396618.6683</v>
       </c>
       <c r="H148" t="n">
-        <v>1.919466666666668</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>0</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="inlineStr"/>
-      <c r="N148" t="n">
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6076,36 +6092,37 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>1.928</v>
+        <v>1.91</v>
       </c>
       <c r="C149" t="n">
-        <v>1.928</v>
+        <v>1.927</v>
       </c>
       <c r="D149" t="n">
-        <v>1.928</v>
+        <v>1.927</v>
       </c>
       <c r="E149" t="n">
-        <v>1.928</v>
+        <v>1.91</v>
       </c>
       <c r="F149" t="n">
-        <v>10017.1648</v>
+        <v>2791957.76</v>
       </c>
       <c r="G149" t="n">
-        <v>1.9224</v>
+        <v>-35604660.9083</v>
       </c>
       <c r="H149" t="n">
-        <v>1.919400000000001</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>0</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="inlineStr"/>
-      <c r="N149" t="n">
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6114,36 +6131,37 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>1.928</v>
+        <v>1.911</v>
       </c>
       <c r="C150" t="n">
-        <v>1.928</v>
+        <v>1.911</v>
       </c>
       <c r="D150" t="n">
-        <v>1.928</v>
+        <v>1.911</v>
       </c>
       <c r="E150" t="n">
-        <v>1.928</v>
+        <v>1.911</v>
       </c>
       <c r="F150" t="n">
-        <v>3451.1787</v>
+        <v>534134</v>
       </c>
       <c r="G150" t="n">
-        <v>1.9226</v>
+        <v>-36138794.9083</v>
       </c>
       <c r="H150" t="n">
-        <v>1.919333333333334</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>0</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="inlineStr"/>
-      <c r="N150" t="n">
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6152,36 +6170,37 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1.929</v>
+        <v>1.912</v>
       </c>
       <c r="C151" t="n">
-        <v>1.931</v>
+        <v>1.912</v>
       </c>
       <c r="D151" t="n">
-        <v>1.931</v>
+        <v>1.912</v>
       </c>
       <c r="E151" t="n">
-        <v>1.929</v>
+        <v>1.912</v>
       </c>
       <c r="F151" t="n">
-        <v>65682.584</v>
+        <v>20116.5496</v>
       </c>
       <c r="G151" t="n">
-        <v>1.923333333333333</v>
+        <v>-36118678.35870001</v>
       </c>
       <c r="H151" t="n">
-        <v>1.919316666666668</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>0</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="inlineStr"/>
-      <c r="N151" t="n">
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6190,36 +6209,37 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>1.928</v>
+        <v>1.912</v>
       </c>
       <c r="C152" t="n">
-        <v>1.928</v>
+        <v>1.912</v>
       </c>
       <c r="D152" t="n">
-        <v>1.928</v>
+        <v>1.912</v>
       </c>
       <c r="E152" t="n">
-        <v>1.928</v>
+        <v>1.912</v>
       </c>
       <c r="F152" t="n">
-        <v>5627.3295</v>
+        <v>10134.4077</v>
       </c>
       <c r="G152" t="n">
-        <v>1.9242</v>
+        <v>-36118678.35870001</v>
       </c>
       <c r="H152" t="n">
-        <v>1.919250000000001</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>0</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="inlineStr"/>
-      <c r="N152" t="n">
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6228,36 +6248,37 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>1.928</v>
+        <v>1.91</v>
       </c>
       <c r="C153" t="n">
-        <v>1.928</v>
+        <v>1.909</v>
       </c>
       <c r="D153" t="n">
-        <v>1.928</v>
+        <v>1.91</v>
       </c>
       <c r="E153" t="n">
-        <v>1.928</v>
+        <v>1.909</v>
       </c>
       <c r="F153" t="n">
-        <v>9000</v>
+        <v>517378.7548</v>
       </c>
       <c r="G153" t="n">
-        <v>1.924533333333333</v>
+        <v>-36636057.11350001</v>
       </c>
       <c r="H153" t="n">
-        <v>1.919183333333334</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>0</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="inlineStr"/>
-      <c r="N153" t="n">
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6266,36 +6287,37 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>1.928</v>
+        <v>1.909</v>
       </c>
       <c r="C154" t="n">
-        <v>1.928</v>
+        <v>1.908</v>
       </c>
       <c r="D154" t="n">
-        <v>1.928</v>
+        <v>1.909</v>
       </c>
       <c r="E154" t="n">
-        <v>1.928</v>
+        <v>1.908</v>
       </c>
       <c r="F154" t="n">
-        <v>312621.0099</v>
+        <v>219718.7189</v>
       </c>
       <c r="G154" t="n">
-        <v>1.925466666666667</v>
+        <v>-36855775.83240001</v>
       </c>
       <c r="H154" t="n">
-        <v>1.919116666666667</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>0</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="inlineStr"/>
-      <c r="N154" t="n">
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6304,36 +6326,1168 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="F155" t="n">
+        <v>6463.7776</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-36849312.05480001</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="F156" t="n">
+        <v>14300.9872</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-36849312.05480001</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="F157" t="n">
+        <v>121128.8728</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-36728183.18200001</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1.912</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1.924</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1.924</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1.912</v>
+      </c>
+      <c r="F158" t="n">
+        <v>61357.5526</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-36666825.62940001</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1.924</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1.924</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1.924</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1.924</v>
+      </c>
+      <c r="F159" t="n">
+        <v>12119.008</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-36666825.62940001</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1153.9676</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-36667979.59700002</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1.924</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1.924</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1.924</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1.924</v>
+      </c>
+      <c r="F161" t="n">
+        <v>260</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-36667719.59700002</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="F162" t="n">
+        <v>261</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-36667458.59700002</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="F163" t="n">
+        <v>33124.7575</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-36700583.35450002</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="F164" t="n">
+        <v>260</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-36700323.35450002</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="F165" t="n">
+        <v>731418.969</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-37431742.32350001</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="F166" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-37531742.32350001</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1.914</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1.923</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1.923</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1.914</v>
+      </c>
+      <c r="F167" t="n">
+        <v>347878.5401</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-37183863.78340001</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1.914</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1.914</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1.914</v>
+      </c>
+      <c r="E168" t="n">
+        <v>1.914</v>
+      </c>
+      <c r="F168" t="n">
+        <v>2317.6577</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-37186181.44110002</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1.921</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1.921</v>
+      </c>
+      <c r="D169" t="n">
+        <v>1.921</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1.921</v>
+      </c>
+      <c r="F169" t="n">
+        <v>49481.1295</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-37136700.31160001</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>1.921</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1.923</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1.923</v>
+      </c>
+      <c r="E170" t="n">
+        <v>1.921</v>
+      </c>
+      <c r="F170" t="n">
+        <v>80000</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-37056700.31160001</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1.923</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1.923</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1.923</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1.923</v>
+      </c>
+      <c r="F171" t="n">
+        <v>7000</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-37056700.31160001</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>1.923</v>
+      </c>
+      <c r="C172" t="n">
         <v>1.926</v>
       </c>
-      <c r="C155" t="n">
+      <c r="D172" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1.923</v>
+      </c>
+      <c r="F172" t="n">
+        <v>22214.5979</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-37034485.71370001</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="F173" t="n">
+        <v>21107.4295</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-37034485.71370001</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1.914</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1.914</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1.914</v>
+      </c>
+      <c r="E174" t="n">
+        <v>1.914</v>
+      </c>
+      <c r="F174" t="n">
+        <v>10720.3212</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-37045206.03490001</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="F175" t="n">
+        <v>260</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-37044946.03490001</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="C176" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="D176" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="E176" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="F176" t="n">
+        <v>171717.724</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-37044946.03490001</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="E177" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="F177" t="n">
+        <v>22220</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-37044946.03490001</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="F178" t="n">
+        <v>10017.1648</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-37034928.87010001</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="E179" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="F179" t="n">
+        <v>3451.1787</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-37034928.87010001</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>1.929</v>
+      </c>
+      <c r="C180" t="n">
         <v>1.931</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D180" t="n">
         <v>1.931</v>
       </c>
-      <c r="E155" t="n">
+      <c r="E180" t="n">
+        <v>1.929</v>
+      </c>
+      <c r="F180" t="n">
+        <v>65682.584</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-36969246.28610001</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="F181" t="n">
+        <v>5627.3295</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-36974873.6156</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="D182" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="E182" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="F182" t="n">
+        <v>9000</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-36974873.6156</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="D183" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="F183" t="n">
+        <v>312621.0099</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-36974873.6156</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1.931</v>
+      </c>
+      <c r="D184" t="n">
+        <v>1.931</v>
+      </c>
+      <c r="E184" t="n">
         <v>1.919</v>
       </c>
-      <c r="F155" t="n">
+      <c r="F184" t="n">
         <v>309897.1804</v>
       </c>
-      <c r="G155" t="n">
-        <v>1.926133333333333</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1.919350000000001</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="n">
-        <v>0</v>
-      </c>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="inlineStr"/>
-      <c r="N155" t="n">
+      <c r="G184" t="n">
+        <v>-36664976.43520001</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-13 BackTest AOA.xlsx
+++ b/BackTest/2020-01-13 BackTest AOA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N142"/>
+  <dimension ref="A1:N213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.907</v>
+        <v>1.915</v>
       </c>
       <c r="C2" t="n">
-        <v>1.906</v>
+        <v>1.934</v>
       </c>
       <c r="D2" t="n">
-        <v>1.924</v>
+        <v>1.934</v>
       </c>
       <c r="E2" t="n">
-        <v>1.906</v>
+        <v>1.915</v>
       </c>
       <c r="F2" t="n">
-        <v>3131493.88</v>
+        <v>1130012.88</v>
       </c>
       <c r="G2" t="n">
-        <v>-31794810.92810001</v>
+        <v>-16822236.2597</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.91</v>
+        <v>1.934</v>
       </c>
       <c r="C3" t="n">
-        <v>1.91</v>
+        <v>1.921</v>
       </c>
       <c r="D3" t="n">
-        <v>1.91</v>
+        <v>1.934</v>
       </c>
       <c r="E3" t="n">
-        <v>1.91</v>
+        <v>1.915</v>
       </c>
       <c r="F3" t="n">
-        <v>8888</v>
+        <v>3339370.88</v>
       </c>
       <c r="G3" t="n">
-        <v>-31785922.92810001</v>
+        <v>-20161607.1397</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.91</v>
+        <v>1.934</v>
       </c>
       <c r="C4" t="n">
-        <v>1.91</v>
+        <v>1.915</v>
       </c>
       <c r="D4" t="n">
-        <v>1.91</v>
+        <v>1.934</v>
       </c>
       <c r="E4" t="n">
-        <v>1.91</v>
+        <v>1.915</v>
       </c>
       <c r="F4" t="n">
-        <v>13332</v>
+        <v>766294.88</v>
       </c>
       <c r="G4" t="n">
-        <v>-31785922.92810001</v>
+        <v>-20927902.0197</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.91</v>
+        <v>1.934</v>
       </c>
       <c r="C5" t="n">
-        <v>1.91</v>
+        <v>1.916</v>
       </c>
       <c r="D5" t="n">
-        <v>1.91</v>
+        <v>1.934</v>
       </c>
       <c r="E5" t="n">
-        <v>1.91</v>
+        <v>1.916</v>
       </c>
       <c r="F5" t="n">
-        <v>914.4103</v>
+        <v>765029</v>
       </c>
       <c r="G5" t="n">
-        <v>-31785922.92810001</v>
+        <v>-20162873.0197</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.907</v>
+        <v>1.934</v>
       </c>
       <c r="C6" t="n">
-        <v>1.907</v>
+        <v>1.934</v>
       </c>
       <c r="D6" t="n">
-        <v>1.907</v>
+        <v>1.934</v>
       </c>
       <c r="E6" t="n">
-        <v>1.907</v>
+        <v>1.916</v>
       </c>
       <c r="F6" t="n">
-        <v>9444</v>
+        <v>3314481.88</v>
       </c>
       <c r="G6" t="n">
-        <v>-31795366.92810001</v>
+        <v>-16848391.1397</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.905</v>
+        <v>1.916</v>
       </c>
       <c r="C7" t="n">
-        <v>1.905</v>
+        <v>1.916</v>
       </c>
       <c r="D7" t="n">
-        <v>1.905</v>
+        <v>1.934</v>
       </c>
       <c r="E7" t="n">
-        <v>1.905</v>
+        <v>1.916</v>
       </c>
       <c r="F7" t="n">
-        <v>187556</v>
+        <v>3300439.88</v>
       </c>
       <c r="G7" t="n">
-        <v>-31982922.92810001</v>
+        <v>-20148831.0197</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.91</v>
+        <v>1.934</v>
       </c>
       <c r="C8" t="n">
-        <v>1.91</v>
+        <v>1.916</v>
       </c>
       <c r="D8" t="n">
-        <v>1.91</v>
+        <v>1.934</v>
       </c>
       <c r="E8" t="n">
-        <v>1.91</v>
+        <v>1.916</v>
       </c>
       <c r="F8" t="n">
-        <v>99649.5353</v>
+        <v>683317.88</v>
       </c>
       <c r="G8" t="n">
-        <v>-31883273.39280001</v>
+        <v>-20148831.0197</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.925</v>
+        <v>1.934</v>
       </c>
       <c r="C9" t="n">
-        <v>1.925</v>
+        <v>1.917</v>
       </c>
       <c r="D9" t="n">
-        <v>1.925</v>
+        <v>1.934</v>
       </c>
       <c r="E9" t="n">
-        <v>1.925</v>
+        <v>1.916</v>
       </c>
       <c r="F9" t="n">
-        <v>25909.2528</v>
+        <v>3015808.88</v>
       </c>
       <c r="G9" t="n">
-        <v>-31857364.14000001</v>
+        <v>-17133022.1397</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.923</v>
+        <v>1.934</v>
       </c>
       <c r="C10" t="n">
-        <v>1.919</v>
+        <v>1.934</v>
       </c>
       <c r="D10" t="n">
-        <v>1.923</v>
+        <v>1.934</v>
       </c>
       <c r="E10" t="n">
-        <v>1.907</v>
+        <v>1.916</v>
       </c>
       <c r="F10" t="n">
-        <v>671257.88</v>
+        <v>3171497.88</v>
       </c>
       <c r="G10" t="n">
-        <v>-32528622.02000001</v>
+        <v>-13961524.2597</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,28 +762,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.906</v>
+        <v>1.916</v>
       </c>
       <c r="C11" t="n">
-        <v>1.906</v>
+        <v>1.935</v>
       </c>
       <c r="D11" t="n">
-        <v>1.906</v>
+        <v>1.935</v>
       </c>
       <c r="E11" t="n">
-        <v>1.906</v>
+        <v>1.916</v>
       </c>
       <c r="F11" t="n">
-        <v>867.6938</v>
+        <v>1661237.4635</v>
       </c>
       <c r="G11" t="n">
-        <v>-32529489.71380001</v>
+        <v>-12300286.7962</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -798,28 +798,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.914</v>
+        <v>1.936</v>
       </c>
       <c r="C12" t="n">
-        <v>1.914</v>
+        <v>1.936</v>
       </c>
       <c r="D12" t="n">
-        <v>1.914</v>
+        <v>1.936</v>
       </c>
       <c r="E12" t="n">
-        <v>1.914</v>
+        <v>1.936</v>
       </c>
       <c r="F12" t="n">
-        <v>14345.173</v>
+        <v>4444</v>
       </c>
       <c r="G12" t="n">
-        <v>-32515144.54080001</v>
+        <v>-12295842.7962</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -834,28 +834,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.919</v>
+        <v>1.936</v>
       </c>
       <c r="C13" t="n">
-        <v>1.92</v>
+        <v>1.916</v>
       </c>
       <c r="D13" t="n">
-        <v>1.92</v>
+        <v>1.936</v>
       </c>
       <c r="E13" t="n">
-        <v>1.919</v>
+        <v>1.916</v>
       </c>
       <c r="F13" t="n">
-        <v>36956.1729</v>
+        <v>738156</v>
       </c>
       <c r="G13" t="n">
-        <v>-32478188.36790001</v>
+        <v>-13033998.7962</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -870,28 +870,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.908</v>
+        <v>1.936</v>
       </c>
       <c r="C14" t="n">
-        <v>1.908</v>
+        <v>1.935</v>
       </c>
       <c r="D14" t="n">
-        <v>1.908</v>
+        <v>1.936</v>
       </c>
       <c r="E14" t="n">
-        <v>1.908</v>
+        <v>1.916</v>
       </c>
       <c r="F14" t="n">
-        <v>123573.4667</v>
+        <v>2880570.88</v>
       </c>
       <c r="G14" t="n">
-        <v>-32601761.83460001</v>
+        <v>-10153427.9162</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.919</v>
+        <v>1.916</v>
       </c>
       <c r="C15" t="n">
-        <v>1.919</v>
+        <v>1.917</v>
       </c>
       <c r="D15" t="n">
-        <v>1.919</v>
+        <v>1.935</v>
       </c>
       <c r="E15" t="n">
-        <v>1.919</v>
+        <v>1.916</v>
       </c>
       <c r="F15" t="n">
-        <v>65990.099</v>
+        <v>3403943.88</v>
       </c>
       <c r="G15" t="n">
-        <v>-32535771.73560001</v>
+        <v>-13557371.7962</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -942,28 +942,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.919</v>
+        <v>1.935</v>
       </c>
       <c r="C16" t="n">
-        <v>1.919</v>
+        <v>1.935</v>
       </c>
       <c r="D16" t="n">
-        <v>1.919</v>
+        <v>1.935</v>
       </c>
       <c r="E16" t="n">
-        <v>1.919</v>
+        <v>1.918</v>
       </c>
       <c r="F16" t="n">
-        <v>33056.057</v>
+        <v>1303870.88</v>
       </c>
       <c r="G16" t="n">
-        <v>-32535771.73560001</v>
+        <v>-12253500.9162</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -978,28 +978,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.919</v>
+        <v>1.935</v>
       </c>
       <c r="C17" t="n">
-        <v>1.924</v>
+        <v>1.935</v>
       </c>
       <c r="D17" t="n">
-        <v>1.924</v>
+        <v>1.935</v>
       </c>
       <c r="E17" t="n">
-        <v>1.919</v>
+        <v>1.918</v>
       </c>
       <c r="F17" t="n">
-        <v>14159.83</v>
+        <v>3150141.88</v>
       </c>
       <c r="G17" t="n">
-        <v>-32521611.90560001</v>
+        <v>-12253500.9162</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.925</v>
+        <v>1.918</v>
       </c>
       <c r="C18" t="n">
-        <v>1.925</v>
+        <v>1.918</v>
       </c>
       <c r="D18" t="n">
-        <v>1.925</v>
+        <v>1.935</v>
       </c>
       <c r="E18" t="n">
-        <v>1.925</v>
+        <v>1.918</v>
       </c>
       <c r="F18" t="n">
-        <v>10781.1625</v>
+        <v>2688589.88</v>
       </c>
       <c r="G18" t="n">
-        <v>-32510830.74310001</v>
+        <v>-14942090.7962</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,28 +1050,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.925</v>
+        <v>1.917</v>
       </c>
       <c r="C19" t="n">
-        <v>1.908</v>
+        <v>1.917</v>
       </c>
       <c r="D19" t="n">
-        <v>1.926</v>
+        <v>1.917</v>
       </c>
       <c r="E19" t="n">
-        <v>1.908</v>
+        <v>1.917</v>
       </c>
       <c r="F19" t="n">
-        <v>1387260.6499</v>
+        <v>26017.2143</v>
       </c>
       <c r="G19" t="n">
-        <v>-33898091.39300001</v>
+        <v>-14968108.0105</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.926</v>
+        <v>1.915</v>
       </c>
       <c r="C20" t="n">
-        <v>1.925</v>
+        <v>1.913</v>
       </c>
       <c r="D20" t="n">
-        <v>1.926</v>
+        <v>1.915</v>
       </c>
       <c r="E20" t="n">
-        <v>1.908</v>
+        <v>1.913</v>
       </c>
       <c r="F20" t="n">
-        <v>2842625.76</v>
+        <v>50760.5025</v>
       </c>
       <c r="G20" t="n">
-        <v>-31055465.63300001</v>
+        <v>-15018868.513</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.925</v>
+        <v>1.936</v>
       </c>
       <c r="C21" t="n">
-        <v>1.908</v>
+        <v>1.91</v>
       </c>
       <c r="D21" t="n">
-        <v>1.925</v>
+        <v>1.936</v>
       </c>
       <c r="E21" t="n">
-        <v>1.908</v>
+        <v>1.91</v>
       </c>
       <c r="F21" t="n">
-        <v>2917156.88</v>
+        <v>1741664.8114</v>
       </c>
       <c r="G21" t="n">
-        <v>-33972622.51300001</v>
+        <v>-16760533.3244</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.926</v>
+        <v>1.928</v>
       </c>
       <c r="C22" t="n">
-        <v>1.908</v>
+        <v>1.909</v>
       </c>
       <c r="D22" t="n">
-        <v>1.926</v>
+        <v>1.928</v>
       </c>
       <c r="E22" t="n">
-        <v>1.908</v>
+        <v>1.906</v>
       </c>
       <c r="F22" t="n">
-        <v>1463004</v>
+        <v>1379092.88</v>
       </c>
       <c r="G22" t="n">
-        <v>-33972622.51300001</v>
+        <v>-18139626.2044</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.926</v>
+        <v>1.91</v>
       </c>
       <c r="C23" t="n">
-        <v>1.926</v>
+        <v>1.91</v>
       </c>
       <c r="D23" t="n">
-        <v>1.926</v>
+        <v>1.91</v>
       </c>
       <c r="E23" t="n">
-        <v>1.908</v>
+        <v>1.91</v>
       </c>
       <c r="F23" t="n">
-        <v>2926300.88</v>
+        <v>16419.8709</v>
       </c>
       <c r="G23" t="n">
-        <v>-31046321.63300001</v>
+        <v>-18123206.3335</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.908</v>
+        <v>1.929</v>
       </c>
       <c r="C24" t="n">
-        <v>1.908</v>
+        <v>1.911</v>
       </c>
       <c r="D24" t="n">
-        <v>1.926</v>
+        <v>1.929</v>
       </c>
       <c r="E24" t="n">
-        <v>1.908</v>
+        <v>1.911</v>
       </c>
       <c r="F24" t="n">
-        <v>2436686.88</v>
+        <v>2977035.88</v>
       </c>
       <c r="G24" t="n">
-        <v>-33483008.51300001</v>
+        <v>-15146170.4535</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.907</v>
+        <v>1.927</v>
       </c>
       <c r="C25" t="n">
-        <v>1.907</v>
+        <v>1.91</v>
       </c>
       <c r="D25" t="n">
-        <v>1.907</v>
+        <v>1.928</v>
       </c>
       <c r="E25" t="n">
-        <v>1.907</v>
+        <v>1.91</v>
       </c>
       <c r="F25" t="n">
-        <v>45923.0347</v>
+        <v>2106443.2866</v>
       </c>
       <c r="G25" t="n">
-        <v>-33528931.54770001</v>
+        <v>-17252613.7401</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.925</v>
+        <v>1.91</v>
       </c>
       <c r="C26" t="n">
-        <v>1.908</v>
+        <v>1.91</v>
       </c>
       <c r="D26" t="n">
-        <v>1.925</v>
+        <v>1.91</v>
       </c>
       <c r="E26" t="n">
-        <v>1.908</v>
+        <v>1.91</v>
       </c>
       <c r="F26" t="n">
-        <v>1279639</v>
+        <v>10752.4173</v>
       </c>
       <c r="G26" t="n">
-        <v>-32249292.54770001</v>
+        <v>-17252613.7401</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.925</v>
+        <v>1.91</v>
       </c>
       <c r="C27" t="n">
-        <v>1.925</v>
+        <v>1.91</v>
       </c>
       <c r="D27" t="n">
-        <v>1.925</v>
+        <v>1.91</v>
       </c>
       <c r="E27" t="n">
-        <v>1.908</v>
+        <v>1.91</v>
       </c>
       <c r="F27" t="n">
-        <v>2927233.88</v>
+        <v>28000</v>
       </c>
       <c r="G27" t="n">
-        <v>-29322058.66770001</v>
+        <v>-17252613.7401</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.908</v>
+        <v>1.92</v>
       </c>
       <c r="C28" t="n">
-        <v>1.908</v>
+        <v>1.92</v>
       </c>
       <c r="D28" t="n">
-        <v>1.924</v>
+        <v>1.92</v>
       </c>
       <c r="E28" t="n">
-        <v>1.908</v>
+        <v>1.92</v>
       </c>
       <c r="F28" t="n">
-        <v>3011350.88</v>
+        <v>26044.3864</v>
       </c>
       <c r="G28" t="n">
-        <v>-32333409.54770001</v>
+        <v>-17226569.3537</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.908</v>
+        <v>1.933</v>
       </c>
       <c r="C29" t="n">
-        <v>1.908</v>
+        <v>1.933</v>
       </c>
       <c r="D29" t="n">
-        <v>1.908</v>
+        <v>1.933</v>
       </c>
       <c r="E29" t="n">
-        <v>1.908</v>
+        <v>1.91</v>
       </c>
       <c r="F29" t="n">
-        <v>589</v>
+        <v>705563.88</v>
       </c>
       <c r="G29" t="n">
-        <v>-32333409.54770001</v>
+        <v>-16521005.4737</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.908</v>
+        <v>1.933</v>
       </c>
       <c r="C30" t="n">
-        <v>1.908</v>
+        <v>1.91</v>
       </c>
       <c r="D30" t="n">
-        <v>1.908</v>
+        <v>1.933</v>
       </c>
       <c r="E30" t="n">
-        <v>1.908</v>
+        <v>1.91</v>
       </c>
       <c r="F30" t="n">
-        <v>3855</v>
+        <v>3376957.88</v>
       </c>
       <c r="G30" t="n">
-        <v>-32333409.54770001</v>
+        <v>-19897963.3537</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.908</v>
+        <v>1.933</v>
       </c>
       <c r="C31" t="n">
-        <v>1.908</v>
+        <v>1.91</v>
       </c>
       <c r="D31" t="n">
-        <v>1.908</v>
+        <v>1.933</v>
       </c>
       <c r="E31" t="n">
-        <v>1.908</v>
+        <v>1.91</v>
       </c>
       <c r="F31" t="n">
-        <v>101688.6064</v>
+        <v>3248236.88</v>
       </c>
       <c r="G31" t="n">
-        <v>-32333409.54770001</v>
+        <v>-19897963.3537</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.907</v>
+        <v>1.91</v>
       </c>
       <c r="C32" t="n">
-        <v>1.907</v>
+        <v>1.91</v>
       </c>
       <c r="D32" t="n">
-        <v>1.907</v>
+        <v>1.91</v>
       </c>
       <c r="E32" t="n">
-        <v>1.907</v>
+        <v>1.91</v>
       </c>
       <c r="F32" t="n">
-        <v>1000</v>
+        <v>28000</v>
       </c>
       <c r="G32" t="n">
-        <v>-32334409.54770001</v>
+        <v>-19897963.3537</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.919</v>
+        <v>1.92</v>
       </c>
       <c r="C33" t="n">
-        <v>1.919</v>
+        <v>1.92</v>
       </c>
       <c r="D33" t="n">
-        <v>1.919</v>
+        <v>1.92</v>
       </c>
       <c r="E33" t="n">
-        <v>1.919</v>
+        <v>1.92</v>
       </c>
       <c r="F33" t="n">
-        <v>600</v>
+        <v>28152.7349</v>
       </c>
       <c r="G33" t="n">
-        <v>-32333809.54770001</v>
+        <v>-19869810.6188</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.919</v>
+        <v>1.931</v>
       </c>
       <c r="C34" t="n">
-        <v>1.919</v>
+        <v>1.934</v>
       </c>
       <c r="D34" t="n">
-        <v>1.919</v>
+        <v>1.934</v>
       </c>
       <c r="E34" t="n">
-        <v>1.919</v>
+        <v>1.911</v>
       </c>
       <c r="F34" t="n">
-        <v>419.7219</v>
+        <v>775840.88</v>
       </c>
       <c r="G34" t="n">
-        <v>-32333809.54770001</v>
+        <v>-19093969.7388</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.918</v>
+        <v>1.934</v>
       </c>
       <c r="C35" t="n">
-        <v>1.92</v>
+        <v>1.911</v>
       </c>
       <c r="D35" t="n">
-        <v>1.92</v>
+        <v>1.934</v>
       </c>
       <c r="E35" t="n">
-        <v>1.918</v>
+        <v>1.911</v>
       </c>
       <c r="F35" t="n">
-        <v>30537.188</v>
+        <v>3548123.88</v>
       </c>
       <c r="G35" t="n">
-        <v>-32303272.35970001</v>
+        <v>-22642093.6188</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.92</v>
+        <v>1.934</v>
       </c>
       <c r="C36" t="n">
-        <v>1.92</v>
+        <v>1.911</v>
       </c>
       <c r="D36" t="n">
-        <v>1.92</v>
+        <v>1.934</v>
       </c>
       <c r="E36" t="n">
-        <v>1.92</v>
+        <v>1.911</v>
       </c>
       <c r="F36" t="n">
-        <v>1000</v>
+        <v>2897645.88</v>
       </c>
       <c r="G36" t="n">
-        <v>-32303272.35970001</v>
+        <v>-22642093.6188</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="C37" t="n">
-        <v>1.922</v>
+        <v>1.93</v>
       </c>
       <c r="D37" t="n">
-        <v>1.922</v>
+        <v>1.932</v>
       </c>
       <c r="E37" t="n">
-        <v>1.92</v>
+        <v>1.911</v>
       </c>
       <c r="F37" t="n">
-        <v>9300</v>
+        <v>3382402.88</v>
       </c>
       <c r="G37" t="n">
-        <v>-32293972.35970001</v>
+        <v>-19259690.7388</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.922</v>
+        <v>1.911</v>
       </c>
       <c r="C38" t="n">
-        <v>1.922</v>
+        <v>1.911</v>
       </c>
       <c r="D38" t="n">
-        <v>1.922</v>
+        <v>1.93</v>
       </c>
       <c r="E38" t="n">
-        <v>1.922</v>
+        <v>1.911</v>
       </c>
       <c r="F38" t="n">
-        <v>300</v>
+        <v>3404394.88</v>
       </c>
       <c r="G38" t="n">
-        <v>-32293972.35970001</v>
+        <v>-22664085.6188</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.922</v>
+        <v>1.93</v>
       </c>
       <c r="C39" t="n">
-        <v>1.926</v>
+        <v>1.911</v>
       </c>
       <c r="D39" t="n">
-        <v>1.926</v>
+        <v>1.93</v>
       </c>
       <c r="E39" t="n">
-        <v>1.922</v>
+        <v>1.911</v>
       </c>
       <c r="F39" t="n">
-        <v>1114682.566</v>
+        <v>1478046.88</v>
       </c>
       <c r="G39" t="n">
-        <v>-31179289.79370001</v>
+        <v>-22664085.6188</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.927</v>
+        <v>1.91</v>
       </c>
       <c r="C40" t="n">
-        <v>1.932</v>
+        <v>1.91</v>
       </c>
       <c r="D40" t="n">
-        <v>1.932</v>
+        <v>1.91</v>
       </c>
       <c r="E40" t="n">
-        <v>1.927</v>
+        <v>1.91</v>
       </c>
       <c r="F40" t="n">
-        <v>61192.0067</v>
+        <v>37584.1579</v>
       </c>
       <c r="G40" t="n">
-        <v>-31118097.78700001</v>
+        <v>-22701669.7767</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.933</v>
+        <v>1.91</v>
       </c>
       <c r="C41" t="n">
-        <v>1.927</v>
+        <v>1.91</v>
       </c>
       <c r="D41" t="n">
-        <v>1.934</v>
+        <v>1.91</v>
       </c>
       <c r="E41" t="n">
-        <v>1.927</v>
+        <v>1.91</v>
       </c>
       <c r="F41" t="n">
-        <v>47425.3182</v>
+        <v>265612.9211</v>
       </c>
       <c r="G41" t="n">
-        <v>-31165523.10520001</v>
+        <v>-22701669.7767</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.925</v>
+        <v>1.909</v>
       </c>
       <c r="C42" t="n">
-        <v>1.933</v>
+        <v>1.909</v>
       </c>
       <c r="D42" t="n">
-        <v>1.933</v>
+        <v>1.909</v>
       </c>
       <c r="E42" t="n">
-        <v>1.925</v>
+        <v>1.909</v>
       </c>
       <c r="F42" t="n">
-        <v>46496.4754</v>
+        <v>26126.2441</v>
       </c>
       <c r="G42" t="n">
-        <v>-31119026.62980001</v>
+        <v>-22727796.0208</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.92</v>
+        <v>1.909</v>
       </c>
       <c r="C43" t="n">
-        <v>1.92</v>
+        <v>1.909</v>
       </c>
       <c r="D43" t="n">
-        <v>1.92</v>
+        <v>1.909</v>
       </c>
       <c r="E43" t="n">
-        <v>1.92</v>
+        <v>1.909</v>
       </c>
       <c r="F43" t="n">
-        <v>665550.7804</v>
+        <v>173053.819</v>
       </c>
       <c r="G43" t="n">
-        <v>-31784577.41020001</v>
+        <v>-22727796.0208</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.931</v>
+        <v>1.909</v>
       </c>
       <c r="C44" t="n">
-        <v>1.931</v>
+        <v>1.909</v>
       </c>
       <c r="D44" t="n">
-        <v>1.931</v>
+        <v>1.909</v>
       </c>
       <c r="E44" t="n">
-        <v>1.911</v>
+        <v>1.909</v>
       </c>
       <c r="F44" t="n">
-        <v>3189784.88</v>
+        <v>918023.9393</v>
       </c>
       <c r="G44" t="n">
-        <v>-28594792.53020001</v>
+        <v>-22727796.0208</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.911</v>
+        <v>1.909</v>
       </c>
       <c r="C45" t="n">
-        <v>1.911</v>
+        <v>1.909</v>
       </c>
       <c r="D45" t="n">
-        <v>1.931</v>
+        <v>1.909</v>
       </c>
       <c r="E45" t="n">
-        <v>1.911</v>
+        <v>1.909</v>
       </c>
       <c r="F45" t="n">
-        <v>3371933.88</v>
+        <v>872122.7423</v>
       </c>
       <c r="G45" t="n">
-        <v>-31966726.41020001</v>
+        <v>-22727796.0208</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.93</v>
+        <v>1.905</v>
       </c>
       <c r="C46" t="n">
-        <v>1.932</v>
+        <v>1.905</v>
       </c>
       <c r="D46" t="n">
-        <v>1.932</v>
+        <v>1.905</v>
       </c>
       <c r="E46" t="n">
-        <v>1.911</v>
+        <v>1.905</v>
       </c>
       <c r="F46" t="n">
-        <v>1889290.271</v>
+        <v>10781.1625</v>
       </c>
       <c r="G46" t="n">
-        <v>-30077436.13920001</v>
+        <v>-22738577.1833</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.932</v>
+        <v>1.905</v>
       </c>
       <c r="C47" t="n">
-        <v>1.932</v>
+        <v>1.905</v>
       </c>
       <c r="D47" t="n">
-        <v>1.932</v>
+        <v>1.905</v>
       </c>
       <c r="E47" t="n">
-        <v>1.932</v>
+        <v>1.905</v>
       </c>
       <c r="F47" t="n">
-        <v>25815.2173</v>
+        <v>40000</v>
       </c>
       <c r="G47" t="n">
-        <v>-30077436.13920001</v>
+        <v>-22738577.1833</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.931</v>
+        <v>1.906</v>
       </c>
       <c r="C48" t="n">
-        <v>1.911</v>
+        <v>1.906</v>
       </c>
       <c r="D48" t="n">
-        <v>1.931</v>
+        <v>1.906</v>
       </c>
       <c r="E48" t="n">
-        <v>1.911</v>
+        <v>1.906</v>
       </c>
       <c r="F48" t="n">
-        <v>1947854</v>
+        <v>140000</v>
       </c>
       <c r="G48" t="n">
-        <v>-32025290.13920001</v>
+        <v>-22598577.1833</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.911</v>
+        <v>1.906</v>
       </c>
       <c r="C49" t="n">
-        <v>1.931</v>
+        <v>1.905</v>
       </c>
       <c r="D49" t="n">
-        <v>1.931</v>
+        <v>1.906</v>
       </c>
       <c r="E49" t="n">
-        <v>1.911</v>
+        <v>1.905</v>
       </c>
       <c r="F49" t="n">
-        <v>2753999.76</v>
+        <v>393797.9664</v>
       </c>
       <c r="G49" t="n">
-        <v>-29271290.3792</v>
+        <v>-22992375.1497</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1.911</v>
+        <v>1.91</v>
       </c>
       <c r="C50" t="n">
-        <v>1.912</v>
+        <v>1.91</v>
       </c>
       <c r="D50" t="n">
-        <v>1.931</v>
+        <v>1.91</v>
       </c>
       <c r="E50" t="n">
-        <v>1.911</v>
+        <v>1.91</v>
       </c>
       <c r="F50" t="n">
-        <v>2696309.88</v>
+        <v>3391.3582</v>
       </c>
       <c r="G50" t="n">
-        <v>-31967600.2592</v>
+        <v>-22988983.79150001</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.929</v>
+        <v>1.91</v>
       </c>
       <c r="C51" t="n">
-        <v>1.929</v>
+        <v>1.919</v>
       </c>
       <c r="D51" t="n">
-        <v>1.929</v>
+        <v>1.919</v>
       </c>
       <c r="E51" t="n">
-        <v>1.929</v>
+        <v>1.91</v>
       </c>
       <c r="F51" t="n">
-        <v>770.7894</v>
+        <v>149000</v>
       </c>
       <c r="G51" t="n">
-        <v>-31966829.4698</v>
+        <v>-22839983.79150001</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1.929</v>
+        <v>1.927</v>
       </c>
       <c r="C52" t="n">
-        <v>1.929</v>
+        <v>1.911</v>
       </c>
       <c r="D52" t="n">
-        <v>1.929</v>
+        <v>1.927</v>
       </c>
       <c r="E52" t="n">
-        <v>1.929</v>
+        <v>1.911</v>
       </c>
       <c r="F52" t="n">
-        <v>1421.980300673924</v>
+        <v>2026871</v>
       </c>
       <c r="G52" t="n">
-        <v>-31966829.4698</v>
+        <v>-24866854.79150001</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1.914</v>
+        <v>1.927</v>
       </c>
       <c r="C53" t="n">
-        <v>1.914</v>
+        <v>1.91</v>
       </c>
       <c r="D53" t="n">
-        <v>1.914</v>
+        <v>1.927</v>
       </c>
       <c r="E53" t="n">
-        <v>1.914</v>
+        <v>1.91</v>
       </c>
       <c r="F53" t="n">
-        <v>1421.9803</v>
+        <v>840754.8287</v>
       </c>
       <c r="G53" t="n">
-        <v>-31968251.4501</v>
+        <v>-25707609.6202</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1.931</v>
+        <v>1.91</v>
       </c>
       <c r="C54" t="n">
-        <v>1.914</v>
+        <v>1.91</v>
       </c>
       <c r="D54" t="n">
-        <v>1.931</v>
+        <v>1.91</v>
       </c>
       <c r="E54" t="n">
-        <v>1.914</v>
+        <v>1.91</v>
       </c>
       <c r="F54" t="n">
-        <v>1710469.88</v>
+        <v>5000</v>
       </c>
       <c r="G54" t="n">
-        <v>-31968251.4501</v>
+        <v>-25707609.6202</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2346,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.914</v>
+        <v>1.91</v>
       </c>
       <c r="C55" t="n">
-        <v>1.914</v>
+        <v>1.91</v>
       </c>
       <c r="D55" t="n">
-        <v>1.914</v>
+        <v>1.91</v>
       </c>
       <c r="E55" t="n">
-        <v>1.914</v>
+        <v>1.91</v>
       </c>
       <c r="F55" t="n">
-        <v>251478</v>
+        <v>4657</v>
       </c>
       <c r="G55" t="n">
-        <v>-31968251.4501</v>
+        <v>-25707609.6202</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.915</v>
+        <v>1.91</v>
       </c>
       <c r="C56" t="n">
-        <v>1.915</v>
+        <v>1.91</v>
       </c>
       <c r="D56" t="n">
-        <v>1.915</v>
+        <v>1.91</v>
       </c>
       <c r="E56" t="n">
-        <v>1.915</v>
+        <v>1.91</v>
       </c>
       <c r="F56" t="n">
-        <v>24700.5185</v>
+        <v>16524.1023</v>
       </c>
       <c r="G56" t="n">
-        <v>-31943550.9316</v>
+        <v>-25707609.6202</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1.928</v>
+        <v>1.923</v>
       </c>
       <c r="C57" t="n">
-        <v>1.928</v>
+        <v>1.906</v>
       </c>
       <c r="D57" t="n">
-        <v>1.928</v>
+        <v>1.923</v>
       </c>
       <c r="E57" t="n">
-        <v>1.928</v>
+        <v>1.906</v>
       </c>
       <c r="F57" t="n">
-        <v>500</v>
+        <v>1459568</v>
       </c>
       <c r="G57" t="n">
-        <v>-31943050.9316</v>
+        <v>-27167177.6202</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.928</v>
+        <v>1.923</v>
       </c>
       <c r="C58" t="n">
-        <v>1.928</v>
+        <v>1.906</v>
       </c>
       <c r="D58" t="n">
-        <v>1.928</v>
+        <v>1.923</v>
       </c>
       <c r="E58" t="n">
-        <v>1.928</v>
+        <v>1.906</v>
       </c>
       <c r="F58" t="n">
-        <v>260</v>
+        <v>2743685.88</v>
       </c>
       <c r="G58" t="n">
-        <v>-31943050.9316</v>
+        <v>-27167177.6202</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.928</v>
+        <v>1.923</v>
       </c>
       <c r="C59" t="n">
-        <v>1.928</v>
+        <v>1.923</v>
       </c>
       <c r="D59" t="n">
-        <v>1.928</v>
+        <v>1.923</v>
       </c>
       <c r="E59" t="n">
-        <v>1.928</v>
+        <v>1.906</v>
       </c>
       <c r="F59" t="n">
-        <v>561</v>
+        <v>835110.88</v>
       </c>
       <c r="G59" t="n">
-        <v>-31943050.9316</v>
+        <v>-26332066.74020001</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.928</v>
+        <v>1.923</v>
       </c>
       <c r="C60" t="n">
-        <v>1.928</v>
+        <v>1.923</v>
       </c>
       <c r="D60" t="n">
-        <v>1.928</v>
+        <v>1.923</v>
       </c>
       <c r="E60" t="n">
-        <v>1.928</v>
+        <v>1.906</v>
       </c>
       <c r="F60" t="n">
-        <v>3123</v>
+        <v>3739463.88</v>
       </c>
       <c r="G60" t="n">
-        <v>-31943050.9316</v>
+        <v>-26332066.74020001</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.929</v>
+        <v>1.923</v>
       </c>
       <c r="C61" t="n">
-        <v>1.929</v>
+        <v>1.906</v>
       </c>
       <c r="D61" t="n">
-        <v>1.929</v>
+        <v>1.927</v>
       </c>
       <c r="E61" t="n">
-        <v>1.929</v>
+        <v>1.906</v>
       </c>
       <c r="F61" t="n">
-        <v>523</v>
+        <v>2981653.88</v>
       </c>
       <c r="G61" t="n">
-        <v>-31942527.9316</v>
+        <v>-29313720.6202</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.929</v>
+        <v>1.927</v>
       </c>
       <c r="C62" t="n">
-        <v>1.929</v>
+        <v>1.906</v>
       </c>
       <c r="D62" t="n">
-        <v>1.929</v>
+        <v>1.927</v>
       </c>
       <c r="E62" t="n">
-        <v>1.929</v>
+        <v>1.906</v>
       </c>
       <c r="F62" t="n">
-        <v>260</v>
+        <v>643823.88</v>
       </c>
       <c r="G62" t="n">
-        <v>-31942527.9316</v>
+        <v>-29313720.6202</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.929</v>
+        <v>1.927</v>
       </c>
       <c r="C63" t="n">
-        <v>1.93</v>
+        <v>1.927</v>
       </c>
       <c r="D63" t="n">
-        <v>1.93</v>
+        <v>1.927</v>
       </c>
       <c r="E63" t="n">
-        <v>1.929</v>
+        <v>1.913</v>
       </c>
       <c r="F63" t="n">
-        <v>3921</v>
+        <v>770370.88</v>
       </c>
       <c r="G63" t="n">
-        <v>-31938606.9316</v>
+        <v>-28543349.74020001</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.93</v>
+        <v>1.926</v>
       </c>
       <c r="C64" t="n">
-        <v>1.931</v>
+        <v>1.926</v>
       </c>
       <c r="D64" t="n">
-        <v>1.931</v>
+        <v>1.926</v>
       </c>
       <c r="E64" t="n">
-        <v>1.93</v>
+        <v>1.926</v>
       </c>
       <c r="F64" t="n">
-        <v>4704</v>
+        <v>40254.425</v>
       </c>
       <c r="G64" t="n">
-        <v>-31933902.9316</v>
+        <v>-28583604.16520001</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.931</v>
+        <v>1.912</v>
       </c>
       <c r="C65" t="n">
-        <v>1.932</v>
+        <v>1.912</v>
       </c>
       <c r="D65" t="n">
-        <v>1.932</v>
+        <v>1.912</v>
       </c>
       <c r="E65" t="n">
-        <v>1.931</v>
+        <v>1.912</v>
       </c>
       <c r="F65" t="n">
-        <v>4184</v>
+        <v>422636.5779</v>
       </c>
       <c r="G65" t="n">
-        <v>-31929718.9316</v>
+        <v>-29006240.74310001</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1.931</v>
+        <v>1.912</v>
       </c>
       <c r="C66" t="n">
-        <v>1.931</v>
+        <v>1.912</v>
       </c>
       <c r="D66" t="n">
-        <v>1.931</v>
+        <v>1.912</v>
       </c>
       <c r="E66" t="n">
-        <v>1.931</v>
+        <v>1.912</v>
       </c>
       <c r="F66" t="n">
-        <v>2000</v>
+        <v>129800.4421</v>
       </c>
       <c r="G66" t="n">
-        <v>-31931718.9316</v>
+        <v>-29006240.74310001</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.931</v>
+        <v>1.926</v>
       </c>
       <c r="C67" t="n">
-        <v>1.931</v>
+        <v>1.925</v>
       </c>
       <c r="D67" t="n">
-        <v>1.931</v>
+        <v>1.926</v>
       </c>
       <c r="E67" t="n">
-        <v>1.931</v>
+        <v>1.906</v>
       </c>
       <c r="F67" t="n">
-        <v>869</v>
+        <v>2983815.88</v>
       </c>
       <c r="G67" t="n">
-        <v>-31931718.9316</v>
+        <v>-26022424.86310001</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2814,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.931</v>
+        <v>1.925</v>
       </c>
       <c r="C68" t="n">
-        <v>1.932</v>
+        <v>1.925</v>
       </c>
       <c r="D68" t="n">
-        <v>1.932</v>
+        <v>1.925</v>
       </c>
       <c r="E68" t="n">
-        <v>1.931</v>
+        <v>1.907</v>
       </c>
       <c r="F68" t="n">
-        <v>11315</v>
+        <v>3242678.88</v>
       </c>
       <c r="G68" t="n">
-        <v>-31920403.9316</v>
+        <v>-26022424.86310001</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.932</v>
+        <v>1.907</v>
       </c>
       <c r="C69" t="n">
-        <v>1.932</v>
+        <v>1.907</v>
       </c>
       <c r="D69" t="n">
-        <v>1.932</v>
+        <v>1.907</v>
       </c>
       <c r="E69" t="n">
-        <v>1.932</v>
+        <v>1.907</v>
       </c>
       <c r="F69" t="n">
-        <v>1000</v>
+        <v>438890</v>
       </c>
       <c r="G69" t="n">
-        <v>-31920403.9316</v>
+        <v>-26461314.86310001</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2886,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.932</v>
+        <v>1.906</v>
       </c>
       <c r="C70" t="n">
-        <v>1.932</v>
+        <v>1.906</v>
       </c>
       <c r="D70" t="n">
-        <v>1.932</v>
+        <v>1.906</v>
       </c>
       <c r="E70" t="n">
-        <v>1.932</v>
+        <v>1.906</v>
       </c>
       <c r="F70" t="n">
-        <v>180120.8521</v>
+        <v>40254.425</v>
       </c>
       <c r="G70" t="n">
-        <v>-31920403.9316</v>
+        <v>-26501569.28810001</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.932</v>
+        <v>1.925</v>
       </c>
       <c r="C71" t="n">
-        <v>1.932</v>
+        <v>1.925</v>
       </c>
       <c r="D71" t="n">
-        <v>1.932</v>
+        <v>1.925</v>
       </c>
       <c r="E71" t="n">
-        <v>1.932</v>
+        <v>1.907</v>
       </c>
       <c r="F71" t="n">
-        <v>3178</v>
+        <v>885346</v>
       </c>
       <c r="G71" t="n">
-        <v>-31920403.9316</v>
+        <v>-25616223.28810001</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2958,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.932</v>
+        <v>1.907</v>
       </c>
       <c r="C72" t="n">
-        <v>1.932</v>
+        <v>1.924</v>
       </c>
       <c r="D72" t="n">
-        <v>1.932</v>
+        <v>1.925</v>
       </c>
       <c r="E72" t="n">
-        <v>1.932</v>
+        <v>1.906</v>
       </c>
       <c r="F72" t="n">
-        <v>179243.0414</v>
+        <v>3047093.76</v>
       </c>
       <c r="G72" t="n">
-        <v>-31920403.9316</v>
+        <v>-28663317.04810001</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.932</v>
+        <v>1.907</v>
       </c>
       <c r="C73" t="n">
-        <v>1.932</v>
+        <v>1.906</v>
       </c>
       <c r="D73" t="n">
-        <v>1.932</v>
+        <v>1.924</v>
       </c>
       <c r="E73" t="n">
-        <v>1.932</v>
+        <v>1.906</v>
       </c>
       <c r="F73" t="n">
-        <v>784</v>
+        <v>3131493.88</v>
       </c>
       <c r="G73" t="n">
-        <v>-31920403.9316</v>
+        <v>-31794810.92810001</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3030,28 +3030,28 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.932</v>
+        <v>1.91</v>
       </c>
       <c r="C74" t="n">
-        <v>1.932</v>
+        <v>1.91</v>
       </c>
       <c r="D74" t="n">
-        <v>1.932</v>
+        <v>1.91</v>
       </c>
       <c r="E74" t="n">
-        <v>1.932</v>
+        <v>1.91</v>
       </c>
       <c r="F74" t="n">
-        <v>3000</v>
+        <v>8888</v>
       </c>
       <c r="G74" t="n">
-        <v>-31920403.9316</v>
+        <v>-31785922.92810001</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -3066,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.932</v>
+        <v>1.91</v>
       </c>
       <c r="C75" t="n">
-        <v>1.932</v>
+        <v>1.91</v>
       </c>
       <c r="D75" t="n">
-        <v>1.932</v>
+        <v>1.91</v>
       </c>
       <c r="E75" t="n">
-        <v>1.932</v>
+        <v>1.91</v>
       </c>
       <c r="F75" t="n">
-        <v>6825</v>
+        <v>13332</v>
       </c>
       <c r="G75" t="n">
-        <v>-31920403.9316</v>
+        <v>-31785922.92810001</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3102,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.932</v>
+        <v>1.91</v>
       </c>
       <c r="C76" t="n">
-        <v>1.932</v>
+        <v>1.91</v>
       </c>
       <c r="D76" t="n">
-        <v>1.932</v>
+        <v>1.91</v>
       </c>
       <c r="E76" t="n">
-        <v>1.932</v>
+        <v>1.91</v>
       </c>
       <c r="F76" t="n">
-        <v>500</v>
+        <v>914.4103</v>
       </c>
       <c r="G76" t="n">
-        <v>-31920403.9316</v>
+        <v>-31785922.92810001</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3138,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.932</v>
+        <v>1.907</v>
       </c>
       <c r="C77" t="n">
-        <v>1.932</v>
+        <v>1.907</v>
       </c>
       <c r="D77" t="n">
-        <v>1.932</v>
+        <v>1.907</v>
       </c>
       <c r="E77" t="n">
-        <v>1.932</v>
+        <v>1.907</v>
       </c>
       <c r="F77" t="n">
-        <v>2421</v>
+        <v>9444</v>
       </c>
       <c r="G77" t="n">
-        <v>-31920403.9316</v>
+        <v>-31795366.92810001</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3174,28 +3174,28 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.932</v>
+        <v>1.905</v>
       </c>
       <c r="C78" t="n">
-        <v>1.932</v>
+        <v>1.905</v>
       </c>
       <c r="D78" t="n">
-        <v>1.932</v>
+        <v>1.905</v>
       </c>
       <c r="E78" t="n">
-        <v>1.932</v>
+        <v>1.905</v>
       </c>
       <c r="F78" t="n">
-        <v>2500</v>
+        <v>187556</v>
       </c>
       <c r="G78" t="n">
-        <v>-31920403.9316</v>
+        <v>-31982922.92810001</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3210,28 +3210,28 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.932</v>
+        <v>1.91</v>
       </c>
       <c r="C79" t="n">
-        <v>1.932</v>
+        <v>1.91</v>
       </c>
       <c r="D79" t="n">
-        <v>1.932</v>
+        <v>1.91</v>
       </c>
       <c r="E79" t="n">
-        <v>1.932</v>
+        <v>1.91</v>
       </c>
       <c r="F79" t="n">
-        <v>1877</v>
+        <v>99649.5353</v>
       </c>
       <c r="G79" t="n">
-        <v>-31920403.9316</v>
+        <v>-31883273.39280001</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3246,28 +3246,28 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.932</v>
+        <v>1.925</v>
       </c>
       <c r="C80" t="n">
-        <v>1.932</v>
+        <v>1.925</v>
       </c>
       <c r="D80" t="n">
-        <v>1.932</v>
+        <v>1.925</v>
       </c>
       <c r="E80" t="n">
-        <v>1.932</v>
+        <v>1.925</v>
       </c>
       <c r="F80" t="n">
-        <v>1661</v>
+        <v>25909.2528</v>
       </c>
       <c r="G80" t="n">
-        <v>-31920403.9316</v>
+        <v>-31857364.14000001</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3282,28 +3282,28 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.932</v>
+        <v>1.923</v>
       </c>
       <c r="C81" t="n">
-        <v>1.932</v>
+        <v>1.919</v>
       </c>
       <c r="D81" t="n">
-        <v>1.932</v>
+        <v>1.923</v>
       </c>
       <c r="E81" t="n">
-        <v>1.932</v>
+        <v>1.907</v>
       </c>
       <c r="F81" t="n">
-        <v>1084</v>
+        <v>671257.88</v>
       </c>
       <c r="G81" t="n">
-        <v>-31920403.9316</v>
+        <v>-32528622.02000001</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3318,28 +3318,28 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.918</v>
+        <v>1.906</v>
       </c>
       <c r="C82" t="n">
-        <v>1.917</v>
+        <v>1.906</v>
       </c>
       <c r="D82" t="n">
-        <v>1.918</v>
+        <v>1.906</v>
       </c>
       <c r="E82" t="n">
-        <v>1.917</v>
+        <v>1.906</v>
       </c>
       <c r="F82" t="n">
-        <v>59188.4413</v>
+        <v>867.6938</v>
       </c>
       <c r="G82" t="n">
-        <v>-31979592.37290001</v>
+        <v>-32529489.71380001</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3354,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.917</v>
+        <v>1.914</v>
       </c>
       <c r="C83" t="n">
-        <v>1.917</v>
+        <v>1.914</v>
       </c>
       <c r="D83" t="n">
-        <v>1.917</v>
+        <v>1.914</v>
       </c>
       <c r="E83" t="n">
-        <v>1.917</v>
+        <v>1.914</v>
       </c>
       <c r="F83" t="n">
-        <v>5647.7246</v>
+        <v>14345.173</v>
       </c>
       <c r="G83" t="n">
-        <v>-31979592.37290001</v>
+        <v>-32515144.54080001</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3390,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.917</v>
+        <v>1.919</v>
       </c>
       <c r="C84" t="n">
-        <v>1.915</v>
+        <v>1.92</v>
       </c>
       <c r="D84" t="n">
-        <v>1.917</v>
+        <v>1.92</v>
       </c>
       <c r="E84" t="n">
-        <v>1.915</v>
+        <v>1.919</v>
       </c>
       <c r="F84" t="n">
-        <v>169907.0143</v>
+        <v>36956.1729</v>
       </c>
       <c r="G84" t="n">
-        <v>-32149499.38720001</v>
+        <v>-32478188.36790001</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.915</v>
+        <v>1.908</v>
       </c>
       <c r="C85" t="n">
-        <v>1.913</v>
+        <v>1.908</v>
       </c>
       <c r="D85" t="n">
-        <v>1.93</v>
+        <v>1.908</v>
       </c>
       <c r="E85" t="n">
-        <v>1.913</v>
+        <v>1.908</v>
       </c>
       <c r="F85" t="n">
-        <v>2029349.9144</v>
+        <v>123573.4667</v>
       </c>
       <c r="G85" t="n">
-        <v>-34178849.3016</v>
+        <v>-32601761.83460001</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3462,22 +3462,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.93</v>
+        <v>1.919</v>
       </c>
       <c r="C86" t="n">
-        <v>1.93</v>
+        <v>1.919</v>
       </c>
       <c r="D86" t="n">
-        <v>1.93</v>
+        <v>1.919</v>
       </c>
       <c r="E86" t="n">
-        <v>1.913</v>
+        <v>1.919</v>
       </c>
       <c r="F86" t="n">
-        <v>2780061.76</v>
+        <v>65990.099</v>
       </c>
       <c r="G86" t="n">
-        <v>-31398787.5416</v>
+        <v>-32535771.73560001</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3498,28 +3498,28 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.93</v>
+        <v>1.919</v>
       </c>
       <c r="C87" t="n">
-        <v>1.913</v>
+        <v>1.919</v>
       </c>
       <c r="D87" t="n">
-        <v>1.93</v>
+        <v>1.919</v>
       </c>
       <c r="E87" t="n">
-        <v>1.913</v>
+        <v>1.919</v>
       </c>
       <c r="F87" t="n">
-        <v>796945</v>
+        <v>33056.057</v>
       </c>
       <c r="G87" t="n">
-        <v>-32195732.5416</v>
+        <v>-32535771.73560001</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3534,28 +3534,28 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.912</v>
+        <v>1.919</v>
       </c>
       <c r="C88" t="n">
-        <v>1.912</v>
+        <v>1.924</v>
       </c>
       <c r="D88" t="n">
-        <v>1.912</v>
+        <v>1.924</v>
       </c>
       <c r="E88" t="n">
-        <v>1.912</v>
+        <v>1.919</v>
       </c>
       <c r="F88" t="n">
-        <v>50000</v>
+        <v>14159.83</v>
       </c>
       <c r="G88" t="n">
-        <v>-32245732.5416</v>
+        <v>-32521611.90560001</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3570,22 +3570,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.912</v>
+        <v>1.925</v>
       </c>
       <c r="C89" t="n">
-        <v>1.912</v>
+        <v>1.925</v>
       </c>
       <c r="D89" t="n">
-        <v>1.912</v>
+        <v>1.925</v>
       </c>
       <c r="E89" t="n">
-        <v>1.912</v>
+        <v>1.925</v>
       </c>
       <c r="F89" t="n">
-        <v>40558.0711</v>
+        <v>10781.1625</v>
       </c>
       <c r="G89" t="n">
-        <v>-32245732.5416</v>
+        <v>-32510830.74310001</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3606,22 +3606,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.929</v>
+        <v>1.925</v>
       </c>
       <c r="C90" t="n">
-        <v>1.929</v>
+        <v>1.908</v>
       </c>
       <c r="D90" t="n">
-        <v>1.929</v>
+        <v>1.926</v>
       </c>
       <c r="E90" t="n">
         <v>1.908</v>
       </c>
       <c r="F90" t="n">
-        <v>955411.88</v>
+        <v>1387260.6499</v>
       </c>
       <c r="G90" t="n">
-        <v>-31290320.6616</v>
+        <v>-33898091.39300001</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3642,22 +3642,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.909</v>
+        <v>1.926</v>
       </c>
       <c r="C91" t="n">
-        <v>1.909</v>
+        <v>1.925</v>
       </c>
       <c r="D91" t="n">
-        <v>1.929</v>
+        <v>1.926</v>
       </c>
       <c r="E91" t="n">
-        <v>1.909</v>
+        <v>1.908</v>
       </c>
       <c r="F91" t="n">
-        <v>2940783.88</v>
+        <v>2842625.76</v>
       </c>
       <c r="G91" t="n">
-        <v>-34231104.5416</v>
+        <v>-31055465.63300001</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3678,22 +3678,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1.909</v>
+        <v>1.925</v>
       </c>
       <c r="C92" t="n">
-        <v>1.909</v>
+        <v>1.908</v>
       </c>
       <c r="D92" t="n">
-        <v>1.929</v>
+        <v>1.925</v>
       </c>
       <c r="E92" t="n">
-        <v>1.909</v>
+        <v>1.908</v>
       </c>
       <c r="F92" t="n">
-        <v>2982037.88</v>
+        <v>2917156.88</v>
       </c>
       <c r="G92" t="n">
-        <v>-34231104.5416</v>
+        <v>-33972622.51300001</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1.928</v>
+        <v>1.926</v>
       </c>
       <c r="C93" t="n">
-        <v>1.927</v>
+        <v>1.908</v>
       </c>
       <c r="D93" t="n">
-        <v>1.928</v>
+        <v>1.926</v>
       </c>
       <c r="E93" t="n">
         <v>1.908</v>
       </c>
       <c r="F93" t="n">
-        <v>1794380.88</v>
+        <v>1463004</v>
       </c>
       <c r="G93" t="n">
-        <v>-32436723.6616</v>
+        <v>-33972622.51300001</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3750,22 +3750,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1.908</v>
+        <v>1.926</v>
       </c>
       <c r="C94" t="n">
-        <v>1.908</v>
+        <v>1.926</v>
       </c>
       <c r="D94" t="n">
-        <v>1.927</v>
+        <v>1.926</v>
       </c>
       <c r="E94" t="n">
         <v>1.908</v>
       </c>
       <c r="F94" t="n">
-        <v>3276677.88</v>
+        <v>2926300.88</v>
       </c>
       <c r="G94" t="n">
-        <v>-35713401.5416</v>
+        <v>-31046321.63300001</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3786,22 +3786,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.927</v>
+        <v>1.908</v>
       </c>
       <c r="C95" t="n">
         <v>1.908</v>
       </c>
       <c r="D95" t="n">
-        <v>1.927</v>
+        <v>1.926</v>
       </c>
       <c r="E95" t="n">
         <v>1.908</v>
       </c>
       <c r="F95" t="n">
-        <v>2221502.88</v>
+        <v>2436686.88</v>
       </c>
       <c r="G95" t="n">
-        <v>-35713401.5416</v>
+        <v>-33483008.51300001</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3822,22 +3822,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.927</v>
+        <v>1.907</v>
       </c>
       <c r="C96" t="n">
-        <v>1.927</v>
+        <v>1.907</v>
       </c>
       <c r="D96" t="n">
-        <v>1.927</v>
+        <v>1.907</v>
       </c>
       <c r="E96" t="n">
-        <v>1.91</v>
+        <v>1.907</v>
       </c>
       <c r="F96" t="n">
-        <v>2237398.88</v>
+        <v>45923.0347</v>
       </c>
       <c r="G96" t="n">
-        <v>-33476002.6616</v>
+        <v>-33528931.54770001</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3858,22 +3858,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.91</v>
+        <v>1.925</v>
       </c>
       <c r="C97" t="n">
-        <v>1.91</v>
+        <v>1.908</v>
       </c>
       <c r="D97" t="n">
-        <v>1.928</v>
+        <v>1.925</v>
       </c>
       <c r="E97" t="n">
-        <v>1.91</v>
+        <v>1.908</v>
       </c>
       <c r="F97" t="n">
-        <v>3411828.88</v>
+        <v>1279639</v>
       </c>
       <c r="G97" t="n">
-        <v>-36887831.5416</v>
+        <v>-32249292.54770001</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3894,28 +3894,28 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.928</v>
+        <v>1.925</v>
       </c>
       <c r="C98" t="n">
-        <v>1.91</v>
+        <v>1.925</v>
       </c>
       <c r="D98" t="n">
-        <v>1.928</v>
+        <v>1.925</v>
       </c>
       <c r="E98" t="n">
-        <v>1.91</v>
+        <v>1.908</v>
       </c>
       <c r="F98" t="n">
-        <v>1404700.88</v>
+        <v>2927233.88</v>
       </c>
       <c r="G98" t="n">
-        <v>-36887831.5416</v>
+        <v>-29322058.66770001</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -3930,22 +3930,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1.909</v>
+        <v>1.908</v>
       </c>
       <c r="C99" t="n">
-        <v>1.909</v>
+        <v>1.908</v>
       </c>
       <c r="D99" t="n">
-        <v>1.909</v>
+        <v>1.924</v>
       </c>
       <c r="E99" t="n">
-        <v>1.909</v>
+        <v>1.908</v>
       </c>
       <c r="F99" t="n">
-        <v>3852.6091</v>
+        <v>3011350.88</v>
       </c>
       <c r="G99" t="n">
-        <v>-36891684.1507</v>
+        <v>-32333409.54770001</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3966,22 +3966,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.927</v>
+        <v>1.908</v>
       </c>
       <c r="C100" t="n">
-        <v>1.927</v>
+        <v>1.908</v>
       </c>
       <c r="D100" t="n">
-        <v>1.927</v>
+        <v>1.908</v>
       </c>
       <c r="E100" t="n">
-        <v>1.927</v>
+        <v>1.908</v>
       </c>
       <c r="F100" t="n">
-        <v>225238</v>
+        <v>589</v>
       </c>
       <c r="G100" t="n">
-        <v>-36666446.1507</v>
+        <v>-32333409.54770001</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4002,28 +4002,28 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1.911</v>
+        <v>1.908</v>
       </c>
       <c r="C101" t="n">
-        <v>1.927</v>
+        <v>1.908</v>
       </c>
       <c r="D101" t="n">
-        <v>1.927</v>
+        <v>1.908</v>
       </c>
       <c r="E101" t="n">
-        <v>1.911</v>
+        <v>1.908</v>
       </c>
       <c r="F101" t="n">
-        <v>2851138.76</v>
+        <v>3855</v>
       </c>
       <c r="G101" t="n">
-        <v>-36666446.1507</v>
+        <v>-32333409.54770001</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4038,28 +4038,28 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1.927</v>
+        <v>1.908</v>
       </c>
       <c r="C102" t="n">
-        <v>1.912</v>
+        <v>1.908</v>
       </c>
       <c r="D102" t="n">
-        <v>1.927</v>
+        <v>1.908</v>
       </c>
       <c r="E102" t="n">
-        <v>1.912</v>
+        <v>1.908</v>
       </c>
       <c r="F102" t="n">
-        <v>627641</v>
+        <v>101688.6064</v>
       </c>
       <c r="G102" t="n">
-        <v>-37294087.1507</v>
+        <v>-32333409.54770001</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4074,22 +4074,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.928</v>
+        <v>1.907</v>
       </c>
       <c r="C103" t="n">
-        <v>1.928</v>
+        <v>1.907</v>
       </c>
       <c r="D103" t="n">
-        <v>1.928</v>
+        <v>1.907</v>
       </c>
       <c r="E103" t="n">
-        <v>1.928</v>
+        <v>1.907</v>
       </c>
       <c r="F103" t="n">
-        <v>3852.6091</v>
+        <v>1000</v>
       </c>
       <c r="G103" t="n">
-        <v>-37290234.5416</v>
+        <v>-32334409.54770001</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4110,22 +4110,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1.928</v>
+        <v>1.919</v>
       </c>
       <c r="C104" t="n">
-        <v>1.928</v>
+        <v>1.919</v>
       </c>
       <c r="D104" t="n">
-        <v>1.928</v>
+        <v>1.919</v>
       </c>
       <c r="E104" t="n">
-        <v>1.928</v>
+        <v>1.919</v>
       </c>
       <c r="F104" t="n">
-        <v>10000</v>
+        <v>600</v>
       </c>
       <c r="G104" t="n">
-        <v>-37290234.5416</v>
+        <v>-32333809.54770001</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4146,22 +4146,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1.928</v>
+        <v>1.919</v>
       </c>
       <c r="C105" t="n">
-        <v>1.928</v>
+        <v>1.919</v>
       </c>
       <c r="D105" t="n">
-        <v>1.929</v>
+        <v>1.919</v>
       </c>
       <c r="E105" t="n">
-        <v>1.928</v>
+        <v>1.919</v>
       </c>
       <c r="F105" t="n">
-        <v>24143.2039</v>
+        <v>419.7219</v>
       </c>
       <c r="G105" t="n">
-        <v>-37290234.5416</v>
+        <v>-32333809.54770001</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1.928</v>
+        <v>1.918</v>
       </c>
       <c r="C106" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="D106" t="n">
-        <v>1.928</v>
+        <v>1.92</v>
       </c>
       <c r="E106" t="n">
-        <v>1.91</v>
+        <v>1.918</v>
       </c>
       <c r="F106" t="n">
-        <v>1106384.1267</v>
+        <v>30537.188</v>
       </c>
       <c r="G106" t="n">
-        <v>-38396618.6683</v>
+        <v>-32303272.35970001</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4218,28 +4218,28 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="C107" t="n">
-        <v>1.927</v>
+        <v>1.92</v>
       </c>
       <c r="D107" t="n">
-        <v>1.927</v>
+        <v>1.92</v>
       </c>
       <c r="E107" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="F107" t="n">
-        <v>2791957.76</v>
+        <v>1000</v>
       </c>
       <c r="G107" t="n">
-        <v>-35604660.9083</v>
+        <v>-32303272.35970001</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4254,28 +4254,28 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1.911</v>
+        <v>1.92</v>
       </c>
       <c r="C108" t="n">
-        <v>1.911</v>
+        <v>1.922</v>
       </c>
       <c r="D108" t="n">
-        <v>1.911</v>
+        <v>1.922</v>
       </c>
       <c r="E108" t="n">
-        <v>1.911</v>
+        <v>1.92</v>
       </c>
       <c r="F108" t="n">
-        <v>534134</v>
+        <v>9300</v>
       </c>
       <c r="G108" t="n">
-        <v>-36138794.9083</v>
+        <v>-32293972.35970001</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4290,22 +4290,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1.912</v>
+        <v>1.922</v>
       </c>
       <c r="C109" t="n">
-        <v>1.912</v>
+        <v>1.922</v>
       </c>
       <c r="D109" t="n">
-        <v>1.912</v>
+        <v>1.922</v>
       </c>
       <c r="E109" t="n">
-        <v>1.912</v>
+        <v>1.922</v>
       </c>
       <c r="F109" t="n">
-        <v>20116.5496</v>
+        <v>300</v>
       </c>
       <c r="G109" t="n">
-        <v>-36118678.35870001</v>
+        <v>-32293972.35970001</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4326,22 +4326,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1.912</v>
+        <v>1.922</v>
       </c>
       <c r="C110" t="n">
-        <v>1.912</v>
+        <v>1.926</v>
       </c>
       <c r="D110" t="n">
-        <v>1.912</v>
+        <v>1.926</v>
       </c>
       <c r="E110" t="n">
-        <v>1.912</v>
+        <v>1.922</v>
       </c>
       <c r="F110" t="n">
-        <v>10134.4077</v>
+        <v>1114682.566</v>
       </c>
       <c r="G110" t="n">
-        <v>-36118678.35870001</v>
+        <v>-31179289.79370001</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4362,22 +4362,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1.91</v>
+        <v>1.927</v>
       </c>
       <c r="C111" t="n">
-        <v>1.909</v>
+        <v>1.932</v>
       </c>
       <c r="D111" t="n">
-        <v>1.91</v>
+        <v>1.932</v>
       </c>
       <c r="E111" t="n">
-        <v>1.909</v>
+        <v>1.927</v>
       </c>
       <c r="F111" t="n">
-        <v>517378.7548</v>
+        <v>61192.0067</v>
       </c>
       <c r="G111" t="n">
-        <v>-36636057.11350001</v>
+        <v>-31118097.78700001</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4398,22 +4398,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1.909</v>
+        <v>1.933</v>
       </c>
       <c r="C112" t="n">
-        <v>1.908</v>
+        <v>1.927</v>
       </c>
       <c r="D112" t="n">
-        <v>1.909</v>
+        <v>1.934</v>
       </c>
       <c r="E112" t="n">
-        <v>1.908</v>
+        <v>1.927</v>
       </c>
       <c r="F112" t="n">
-        <v>219718.7189</v>
+        <v>47425.3182</v>
       </c>
       <c r="G112" t="n">
-        <v>-36855775.83240001</v>
+        <v>-31165523.10520001</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4434,22 +4434,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1.909</v>
+        <v>1.925</v>
       </c>
       <c r="C113" t="n">
-        <v>1.909</v>
+        <v>1.933</v>
       </c>
       <c r="D113" t="n">
-        <v>1.909</v>
+        <v>1.933</v>
       </c>
       <c r="E113" t="n">
-        <v>1.909</v>
+        <v>1.925</v>
       </c>
       <c r="F113" t="n">
-        <v>6463.7776</v>
+        <v>46496.4754</v>
       </c>
       <c r="G113" t="n">
-        <v>-36849312.05480001</v>
+        <v>-31119026.62980001</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4470,22 +4470,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1.909</v>
+        <v>1.92</v>
       </c>
       <c r="C114" t="n">
-        <v>1.909</v>
+        <v>1.92</v>
       </c>
       <c r="D114" t="n">
-        <v>1.909</v>
+        <v>1.92</v>
       </c>
       <c r="E114" t="n">
-        <v>1.909</v>
+        <v>1.92</v>
       </c>
       <c r="F114" t="n">
-        <v>14300.9872</v>
+        <v>665550.7804</v>
       </c>
       <c r="G114" t="n">
-        <v>-36849312.05480001</v>
+        <v>-31784577.41020001</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4506,1134 +4506,3806 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1.909</v>
+        <v>1.931</v>
       </c>
       <c r="C115" t="n">
-        <v>1.91</v>
+        <v>1.931</v>
       </c>
       <c r="D115" t="n">
-        <v>1.91</v>
+        <v>1.931</v>
       </c>
       <c r="E115" t="n">
-        <v>1.909</v>
+        <v>1.911</v>
       </c>
       <c r="F115" t="n">
-        <v>121128.8728</v>
+        <v>3189784.88</v>
       </c>
       <c r="G115" t="n">
-        <v>-36728183.18200001</v>
+        <v>-28594792.53020001</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>1.909</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1.911</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1.911</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1.931</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1.911</v>
+      </c>
+      <c r="F116" t="n">
+        <v>3371933.88</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-31966726.41020001</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1.911</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1889290.271</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-30077436.13920001</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="F118" t="n">
+        <v>25815.2173</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-30077436.13920001</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1.931</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1.911</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1.931</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1.911</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1947854</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-32025290.13920001</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1.911</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1.931</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1.931</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1.911</v>
+      </c>
+      <c r="F120" t="n">
+        <v>2753999.76</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-29271290.3792</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1.911</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1.912</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1.931</v>
+      </c>
+      <c r="E121" t="n">
+        <v>1.911</v>
+      </c>
+      <c r="F121" t="n">
+        <v>2696309.88</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-31967600.2592</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1.929</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1.929</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1.929</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1.929</v>
+      </c>
+      <c r="F122" t="n">
+        <v>770.7894</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-31966829.4698</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1.929</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1.929</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1.929</v>
+      </c>
+      <c r="E123" t="n">
+        <v>1.929</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1421.980300673924</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-31966829.4698</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1.914</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1.914</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1.914</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1.914</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1421.9803</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-31968251.4501</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1.931</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1.914</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1.931</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1.914</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1710469.88</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-31968251.4501</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1.914</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1.914</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1.914</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1.914</v>
+      </c>
+      <c r="F126" t="n">
+        <v>251478</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-31968251.4501</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="F127" t="n">
+        <v>24700.5185</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-31943550.9316</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="F128" t="n">
+        <v>500</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-31943050.9316</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="F129" t="n">
+        <v>260</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-31943050.9316</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="F130" t="n">
+        <v>561</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-31943050.9316</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="F131" t="n">
+        <v>3123</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-31943050.9316</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1.929</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1.929</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1.929</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1.929</v>
+      </c>
+      <c r="F132" t="n">
+        <v>523</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-31942527.9316</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1.929</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1.929</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1.929</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1.929</v>
+      </c>
+      <c r="F133" t="n">
+        <v>260</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-31942527.9316</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1.929</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1.929</v>
+      </c>
+      <c r="F134" t="n">
+        <v>3921</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-31938606.9316</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1.931</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1.931</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="F135" t="n">
+        <v>4704</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-31933902.9316</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1.931</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1.931</v>
+      </c>
+      <c r="F136" t="n">
+        <v>4184</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-31929718.9316</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1.931</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1.931</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1.931</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1.931</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-31931718.9316</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1.931</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1.931</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1.931</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1.931</v>
+      </c>
+      <c r="F138" t="n">
+        <v>869</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-31931718.9316</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1.931</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1.931</v>
+      </c>
+      <c r="F139" t="n">
+        <v>11315</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-31920403.9316</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-31920403.9316</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="F141" t="n">
+        <v>180120.8521</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-31920403.9316</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="F142" t="n">
+        <v>3178</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-31920403.9316</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="F143" t="n">
+        <v>179243.0414</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-31920403.9316</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="F144" t="n">
+        <v>784</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-31920403.9316</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="F145" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-31920403.9316</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="F146" t="n">
+        <v>6825</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-31920403.9316</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="F147" t="n">
+        <v>500</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-31920403.9316</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="F148" t="n">
+        <v>2421</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-31920403.9316</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="F149" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-31920403.9316</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1877</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-31920403.9316</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1661</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-31920403.9316</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1084</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-31920403.9316</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="F153" t="n">
+        <v>59188.4413</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-31979592.37290001</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="F154" t="n">
+        <v>5647.7246</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-31979592.37290001</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="F155" t="n">
+        <v>169907.0143</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-32149499.38720001</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="C116" t="n">
-        <v>1.924</v>
-      </c>
-      <c r="D116" t="n">
-        <v>1.924</v>
-      </c>
-      <c r="E116" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="F116" t="n">
-        <v>61357.5526</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-36666825.62940001</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1.913</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1.913</v>
+      </c>
+      <c r="F156" t="n">
+        <v>2029349.9144</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-34178849.3016</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>1.924</v>
-      </c>
-      <c r="C117" t="n">
-        <v>1.924</v>
-      </c>
-      <c r="D117" t="n">
-        <v>1.924</v>
-      </c>
-      <c r="E117" t="n">
-        <v>1.924</v>
-      </c>
-      <c r="F117" t="n">
-        <v>12119.008</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-36666825.62940001</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1.913</v>
+      </c>
+      <c r="F157" t="n">
+        <v>2780061.76</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-31398787.5416</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>1.913</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="C118" t="n">
-        <v>1.909</v>
-      </c>
-      <c r="D118" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="E118" t="n">
-        <v>1.909</v>
-      </c>
-      <c r="F118" t="n">
-        <v>1153.9676</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-36667979.59700002</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1.913</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1.913</v>
+      </c>
+      <c r="F158" t="n">
+        <v>796945</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-32195732.5416</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>1.924</v>
-      </c>
-      <c r="C119" t="n">
-        <v>1.924</v>
-      </c>
-      <c r="D119" t="n">
-        <v>1.924</v>
-      </c>
-      <c r="E119" t="n">
-        <v>1.924</v>
-      </c>
-      <c r="F119" t="n">
-        <v>260</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-36667719.59700002</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1.912</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1.912</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1.912</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1.912</v>
+      </c>
+      <c r="F159" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-32245732.5416</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>1.925</v>
-      </c>
-      <c r="C120" t="n">
-        <v>1.925</v>
-      </c>
-      <c r="D120" t="n">
-        <v>1.925</v>
-      </c>
-      <c r="E120" t="n">
-        <v>1.925</v>
-      </c>
-      <c r="F120" t="n">
-        <v>261</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-36667458.59700002</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1.912</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1.912</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1.912</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1.912</v>
+      </c>
+      <c r="F160" t="n">
+        <v>40558.0711</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-32245732.5416</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="C121" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="D121" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="E121" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="F121" t="n">
-        <v>33124.7575</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-36700583.35450002</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1.929</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1.929</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1.929</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1.908</v>
+      </c>
+      <c r="F161" t="n">
+        <v>955411.88</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-31290320.6616</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>1.925</v>
-      </c>
-      <c r="C122" t="n">
-        <v>1.925</v>
-      </c>
-      <c r="D122" t="n">
-        <v>1.925</v>
-      </c>
-      <c r="E122" t="n">
-        <v>1.925</v>
-      </c>
-      <c r="F122" t="n">
-        <v>260</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-36700323.35450002</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1.929</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="F162" t="n">
+        <v>2940783.88</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-34231104.5416</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>1.925</v>
-      </c>
-      <c r="C123" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="D123" t="n">
-        <v>1.925</v>
-      </c>
-      <c r="E123" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="F123" t="n">
-        <v>731418.969</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-37431742.32350001</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="n">
-        <v>1.925</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1.929</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="F163" t="n">
+        <v>2982037.88</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-34231104.5416</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>1.915</v>
-      </c>
-      <c r="C124" t="n">
-        <v>1.915</v>
-      </c>
-      <c r="D124" t="n">
-        <v>1.915</v>
-      </c>
-      <c r="E124" t="n">
-        <v>1.915</v>
-      </c>
-      <c r="F124" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-37531742.32350001</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1.927</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1.908</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1794380.88</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-32436723.6616</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="C125" t="n">
-        <v>1.923</v>
-      </c>
-      <c r="D125" t="n">
-        <v>1.923</v>
-      </c>
-      <c r="E125" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="F125" t="n">
-        <v>347878.5401</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-37183863.78340001</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="n">
-        <v>1.915</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1.908</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1.908</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1.927</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1.908</v>
+      </c>
+      <c r="F165" t="n">
+        <v>3276677.88</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-35713401.5416</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="C126" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="D126" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="E126" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="F126" t="n">
-        <v>2317.6577</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-37186181.44110002</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="n">
-        <v>1.923</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1.927</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1.908</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1.927</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1.908</v>
+      </c>
+      <c r="F166" t="n">
+        <v>2221502.88</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-35713401.5416</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>1.921</v>
-      </c>
-      <c r="C127" t="n">
-        <v>1.921</v>
-      </c>
-      <c r="D127" t="n">
-        <v>1.921</v>
-      </c>
-      <c r="E127" t="n">
-        <v>1.921</v>
-      </c>
-      <c r="F127" t="n">
-        <v>49481.1295</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-37136700.31160001</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1.927</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1.927</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1.927</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F167" t="n">
+        <v>2237398.88</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-33476002.6616</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>1.921</v>
-      </c>
-      <c r="C128" t="n">
-        <v>1.923</v>
-      </c>
-      <c r="D128" t="n">
-        <v>1.923</v>
-      </c>
-      <c r="E128" t="n">
-        <v>1.921</v>
-      </c>
-      <c r="F128" t="n">
-        <v>80000</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-37056700.31160001</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="n">
-        <v>1.921</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="E168" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F168" t="n">
+        <v>3411828.88</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-36887831.5416</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>1.923</v>
-      </c>
-      <c r="C129" t="n">
-        <v>1.923</v>
-      </c>
-      <c r="D129" t="n">
-        <v>1.923</v>
-      </c>
-      <c r="E129" t="n">
-        <v>1.923</v>
-      </c>
-      <c r="F129" t="n">
-        <v>7000</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-37056700.31160001</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="n">
-        <v>1.923</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D169" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1404700.88</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-36887831.5416</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>1.923</v>
-      </c>
-      <c r="C130" t="n">
-        <v>1.926</v>
-      </c>
-      <c r="D130" t="n">
-        <v>1.926</v>
-      </c>
-      <c r="E130" t="n">
-        <v>1.923</v>
-      </c>
-      <c r="F130" t="n">
-        <v>22214.5979</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-37034485.71370001</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="E170" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="F170" t="n">
+        <v>3852.6091</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-36891684.1507</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>1.926</v>
-      </c>
-      <c r="C131" t="n">
-        <v>1.926</v>
-      </c>
-      <c r="D131" t="n">
-        <v>1.926</v>
-      </c>
-      <c r="E131" t="n">
-        <v>1.926</v>
-      </c>
-      <c r="F131" t="n">
-        <v>21107.4295</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-37034485.71370001</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1.927</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1.927</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1.927</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1.927</v>
+      </c>
+      <c r="F171" t="n">
+        <v>225238</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-36666446.1507</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="C132" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="D132" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="E132" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="F132" t="n">
-        <v>10720.3212</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-37045206.03490001</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>1.911</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1.927</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1.927</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1.911</v>
+      </c>
+      <c r="F172" t="n">
+        <v>2851138.76</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-36666446.1507</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>1.926</v>
-      </c>
-      <c r="C133" t="n">
-        <v>1.926</v>
-      </c>
-      <c r="D133" t="n">
-        <v>1.926</v>
-      </c>
-      <c r="E133" t="n">
-        <v>1.926</v>
-      </c>
-      <c r="F133" t="n">
-        <v>260</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-37044946.03490001</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>1.927</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1.912</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1.927</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1.912</v>
+      </c>
+      <c r="F173" t="n">
+        <v>627641</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-37294087.1507</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>1.926</v>
-      </c>
-      <c r="C134" t="n">
-        <v>1.926</v>
-      </c>
-      <c r="D134" t="n">
-        <v>1.926</v>
-      </c>
-      <c r="E134" t="n">
-        <v>1.926</v>
-      </c>
-      <c r="F134" t="n">
-        <v>171717.724</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-37044946.03490001</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="E174" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="F174" t="n">
+        <v>3852.6091</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-37290234.5416</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>1.926</v>
-      </c>
-      <c r="C135" t="n">
-        <v>1.926</v>
-      </c>
-      <c r="D135" t="n">
-        <v>1.926</v>
-      </c>
-      <c r="E135" t="n">
-        <v>1.926</v>
-      </c>
-      <c r="F135" t="n">
-        <v>22220</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-37044946.03490001</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="F175" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-37290234.5416</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
         <v>1.928</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C176" t="n">
         <v>1.928</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D176" t="n">
+        <v>1.929</v>
+      </c>
+      <c r="E176" t="n">
         <v>1.928</v>
       </c>
-      <c r="E136" t="n">
-        <v>1.928</v>
-      </c>
-      <c r="F136" t="n">
-        <v>10017.1648</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-37034928.87010001</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
+      <c r="F176" t="n">
+        <v>24143.2039</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-37290234.5416</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
         <v>1.928</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C177" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D177" t="n">
         <v>1.928</v>
       </c>
-      <c r="D137" t="n">
-        <v>1.928</v>
-      </c>
-      <c r="E137" t="n">
-        <v>1.928</v>
-      </c>
-      <c r="F137" t="n">
-        <v>3451.1787</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-37034928.87010001</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
+      <c r="E177" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1106384.1267</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-38396618.6683</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>1.929</v>
-      </c>
-      <c r="C138" t="n">
-        <v>1.931</v>
-      </c>
-      <c r="D138" t="n">
-        <v>1.931</v>
-      </c>
-      <c r="E138" t="n">
-        <v>1.929</v>
-      </c>
-      <c r="F138" t="n">
-        <v>65682.584</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-36969246.28610001</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1.927</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1.927</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F178" t="n">
+        <v>2791957.76</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-35604660.9083</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>1.928</v>
-      </c>
-      <c r="C139" t="n">
-        <v>1.928</v>
-      </c>
-      <c r="D139" t="n">
-        <v>1.928</v>
-      </c>
-      <c r="E139" t="n">
-        <v>1.928</v>
-      </c>
-      <c r="F139" t="n">
-        <v>5627.3295</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-36974873.6156</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1.911</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1.911</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1.911</v>
+      </c>
+      <c r="E179" t="n">
+        <v>1.911</v>
+      </c>
+      <c r="F179" t="n">
+        <v>534134</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-36138794.9083</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>1.928</v>
-      </c>
-      <c r="C140" t="n">
-        <v>1.928</v>
-      </c>
-      <c r="D140" t="n">
-        <v>1.928</v>
-      </c>
-      <c r="E140" t="n">
-        <v>1.928</v>
-      </c>
-      <c r="F140" t="n">
-        <v>9000</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-36974873.6156</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>1.912</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1.912</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1.912</v>
+      </c>
+      <c r="E180" t="n">
+        <v>1.912</v>
+      </c>
+      <c r="F180" t="n">
+        <v>20116.5496</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-36118678.35870001</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>1.928</v>
-      </c>
-      <c r="C141" t="n">
-        <v>1.928</v>
-      </c>
-      <c r="D141" t="n">
-        <v>1.928</v>
-      </c>
-      <c r="E141" t="n">
-        <v>1.928</v>
-      </c>
-      <c r="F141" t="n">
-        <v>312621.0099</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-36974873.6156</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>1.912</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1.912</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1.912</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1.912</v>
+      </c>
+      <c r="F181" t="n">
+        <v>10134.4077</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-36118678.35870001</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="D182" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E182" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="F182" t="n">
+        <v>517378.7548</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-36636057.11350001</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1.908</v>
+      </c>
+      <c r="D183" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1.908</v>
+      </c>
+      <c r="F183" t="n">
+        <v>219718.7189</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-36855775.83240001</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="D184" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="E184" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="F184" t="n">
+        <v>6463.7776</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-36849312.05480001</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="E185" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="F185" t="n">
+        <v>14300.9872</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-36849312.05480001</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="F186" t="n">
+        <v>121128.8728</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-36728183.18200001</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>1.912</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1.924</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1.924</v>
+      </c>
+      <c r="E187" t="n">
+        <v>1.912</v>
+      </c>
+      <c r="F187" t="n">
+        <v>61357.5526</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-36666825.62940001</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>1.924</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1.924</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1.924</v>
+      </c>
+      <c r="E188" t="n">
+        <v>1.924</v>
+      </c>
+      <c r="F188" t="n">
+        <v>12119.008</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-36666825.62940001</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E189" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1153.9676</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-36667979.59700002</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>1.924</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1.924</v>
+      </c>
+      <c r="D190" t="n">
+        <v>1.924</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1.924</v>
+      </c>
+      <c r="F190" t="n">
+        <v>260</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-36667719.59700002</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="D191" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="E191" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="F191" t="n">
+        <v>261</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-36667458.59700002</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="E192" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="F192" t="n">
+        <v>33124.7575</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-36700583.35450002</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="D193" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="E193" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="F193" t="n">
+        <v>260</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-36700323.35450002</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="D194" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="E194" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="F194" t="n">
+        <v>731418.969</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-37431742.32350001</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="D195" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="E195" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="F195" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-37531742.32350001</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>1.914</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1.923</v>
+      </c>
+      <c r="D196" t="n">
+        <v>1.923</v>
+      </c>
+      <c r="E196" t="n">
+        <v>1.914</v>
+      </c>
+      <c r="F196" t="n">
+        <v>347878.5401</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-37183863.78340001</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>1.914</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1.914</v>
+      </c>
+      <c r="D197" t="n">
+        <v>1.914</v>
+      </c>
+      <c r="E197" t="n">
+        <v>1.914</v>
+      </c>
+      <c r="F197" t="n">
+        <v>2317.6577</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-37186181.44110002</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>1.921</v>
+      </c>
+      <c r="C198" t="n">
+        <v>1.921</v>
+      </c>
+      <c r="D198" t="n">
+        <v>1.921</v>
+      </c>
+      <c r="E198" t="n">
+        <v>1.921</v>
+      </c>
+      <c r="F198" t="n">
+        <v>49481.1295</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-37136700.31160001</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>1.921</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1.923</v>
+      </c>
+      <c r="D199" t="n">
+        <v>1.923</v>
+      </c>
+      <c r="E199" t="n">
+        <v>1.921</v>
+      </c>
+      <c r="F199" t="n">
+        <v>80000</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-37056700.31160001</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>1.923</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1.923</v>
+      </c>
+      <c r="D200" t="n">
+        <v>1.923</v>
+      </c>
+      <c r="E200" t="n">
+        <v>1.923</v>
+      </c>
+      <c r="F200" t="n">
+        <v>7000</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-37056700.31160001</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>1.923</v>
+      </c>
+      <c r="C201" t="n">
         <v>1.926</v>
       </c>
-      <c r="C142" t="n">
+      <c r="D201" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="E201" t="n">
+        <v>1.923</v>
+      </c>
+      <c r="F201" t="n">
+        <v>22214.5979</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-37034485.71370001</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="C202" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="D202" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="E202" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="F202" t="n">
+        <v>21107.4295</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-37034485.71370001</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>1.914</v>
+      </c>
+      <c r="C203" t="n">
+        <v>1.914</v>
+      </c>
+      <c r="D203" t="n">
+        <v>1.914</v>
+      </c>
+      <c r="E203" t="n">
+        <v>1.914</v>
+      </c>
+      <c r="F203" t="n">
+        <v>10720.3212</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-37045206.03490001</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="C204" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="D204" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="E204" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="F204" t="n">
+        <v>260</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-37044946.03490001</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="D205" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="E205" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="F205" t="n">
+        <v>171717.724</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-37044946.03490001</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="D206" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="E206" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="F206" t="n">
+        <v>22220</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-37044946.03490001</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="D207" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="E207" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="F207" t="n">
+        <v>10017.1648</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-37034928.87010001</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="D208" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="E208" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="F208" t="n">
+        <v>3451.1787</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-37034928.87010001</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>1.929</v>
+      </c>
+      <c r="C209" t="n">
         <v>1.931</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D209" t="n">
         <v>1.931</v>
       </c>
-      <c r="E142" t="n">
+      <c r="E209" t="n">
+        <v>1.929</v>
+      </c>
+      <c r="F209" t="n">
+        <v>65682.584</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-36969246.28610001</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="D210" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="E210" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="F210" t="n">
+        <v>5627.3295</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-36974873.6156</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="D211" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="E211" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="F211" t="n">
+        <v>9000</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-36974873.6156</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="C212" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="D212" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="E212" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="F212" t="n">
+        <v>312621.0099</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-36974873.6156</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1.931</v>
+      </c>
+      <c r="D213" t="n">
+        <v>1.931</v>
+      </c>
+      <c r="E213" t="n">
         <v>1.919</v>
       </c>
-      <c r="F142" t="n">
+      <c r="F213" t="n">
         <v>309897.1804</v>
       </c>
-      <c r="G142" t="n">
+      <c r="G213" t="n">
         <v>-36664976.43520001</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>1</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M142" t="inlineStr"/>
-      <c r="N142" t="inlineStr"/>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-13 BackTest AOA.xlsx
+++ b/BackTest/2020-01-13 BackTest AOA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N213"/>
+  <dimension ref="A1:M213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-16822236.2597</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>-20161607.1397</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>-20162873.0197</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +913,15 @@
         <v>-12253500.9162</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5460,18 +5038,15 @@
         <v>-31920403.9316</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5532,18 +5104,15 @@
         <v>-31920403.9316</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5172,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5205,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5676,18 +5236,15 @@
         <v>-31920403.9316</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5271,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5304,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5337,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5370,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5403,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5892,18 +5434,15 @@
         <v>-31979592.37290001</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5928,18 +5467,19 @@
         <v>-31979592.37290001</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
+        <v>1.917</v>
+      </c>
+      <c r="J154" t="n">
+        <v>1.917</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5964,24 +5504,23 @@
         <v>-32149499.38720001</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>1.917</v>
       </c>
       <c r="J155" t="n">
         <v>1.917</v>
       </c>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
+      <c r="K155" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6006,24 +5545,23 @@
         <v>-34178849.3016</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>1.915</v>
       </c>
       <c r="J156" t="n">
-        <v>1.915</v>
-      </c>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
+        <v>1.917</v>
+      </c>
+      <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6048,24 +5586,23 @@
         <v>-31398787.5416</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>1.913</v>
       </c>
       <c r="J157" t="n">
-        <v>1.913</v>
-      </c>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
+        <v>1.917</v>
+      </c>
+      <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6090,22 +5627,21 @@
         <v>-32195732.5416</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6130,22 +5666,21 @@
         <v>-32245732.5416</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6170,22 +5705,23 @@
         <v>-32245732.5416</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
+        <v>1.912</v>
+      </c>
+      <c r="J160" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6210,22 +5746,23 @@
         <v>-31290320.6616</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
+        <v>1.912</v>
+      </c>
+      <c r="J161" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6250,22 +5787,23 @@
         <v>-34231104.5416</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
+        <v>1.929</v>
+      </c>
+      <c r="J162" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6290,22 +5828,23 @@
         <v>-34231104.5416</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
+        <v>1.909</v>
+      </c>
+      <c r="J163" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6330,22 +5869,23 @@
         <v>-32436723.6616</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
+        <v>1.909</v>
+      </c>
+      <c r="J164" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6372,20 +5912,19 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6412,20 +5951,19 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6452,20 +5990,19 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6492,20 +6029,19 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6532,20 +6068,19 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6572,20 +6107,19 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6612,20 +6146,19 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6652,20 +6185,19 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6692,20 +6224,19 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6732,20 +6263,19 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6772,20 +6302,19 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6812,20 +6341,19 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6852,20 +6380,19 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6892,20 +6419,19 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6932,20 +6458,19 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6972,20 +6497,19 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7012,20 +6536,19 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7052,20 +6575,19 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7092,20 +6614,19 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7130,22 +6651,23 @@
         <v>-36849312.05480001</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
+        <v>1.908</v>
+      </c>
+      <c r="J184" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7172,20 +6694,19 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7210,22 +6731,23 @@
         <v>-36728183.18200001</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
+        <v>1.909</v>
+      </c>
+      <c r="J186" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7250,22 +6772,23 @@
         <v>-36666825.62940001</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
+        <v>1.91</v>
+      </c>
+      <c r="J187" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7290,22 +6813,23 @@
         <v>-36666825.62940001</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
+        <v>1.924</v>
+      </c>
+      <c r="J188" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7332,20 +6856,19 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7372,20 +6895,19 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7412,20 +6934,19 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7452,20 +6973,19 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7492,20 +7012,19 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7532,20 +7051,19 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7572,20 +7090,19 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7612,20 +7129,19 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7652,20 +7168,19 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7692,20 +7207,19 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7732,20 +7246,19 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7772,20 +7285,19 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7812,20 +7324,19 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7852,20 +7363,19 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7892,20 +7402,19 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7932,20 +7441,19 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7972,20 +7480,19 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8012,20 +7519,19 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8052,20 +7558,19 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8092,20 +7597,19 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8132,20 +7636,19 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8172,20 +7675,19 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8212,20 +7714,19 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8252,20 +7753,19 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8292,22 +7792,21 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest AOA.xlsx
+++ b/BackTest/2020-01-13 BackTest AOA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-16822236.2597</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-20161607.1397</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-20927902.0197</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-20162873.0197</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-16848391.1397</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-17133022.1397</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-12295842.7962</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-13033998.7962</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-10153427.9162</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-13557371.7962</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-12253500.9162</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-12253500.9162</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-14942090.7962</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-15018868.513</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-16760533.3244</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-18123206.3335</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-15146170.4535</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-16521005.4737</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-31920403.9316</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-31920403.9316</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-31920403.9316</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-31979592.37290001</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-31979592.37290001</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>1.917</v>
@@ -5504,7 +5504,7 @@
         <v>-32149499.38720001</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>1.917</v>
@@ -5545,7 +5545,7 @@
         <v>-34178849.3016</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>1.915</v>
@@ -5586,11 +5586,9 @@
         <v>-31398787.5416</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
-      </c>
-      <c r="I157" t="n">
-        <v>1.913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
         <v>1.917</v>
       </c>
@@ -5627,7 +5625,7 @@
         <v>-32195732.5416</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
@@ -5666,7 +5664,7 @@
         <v>-32245732.5416</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
@@ -5705,11 +5703,9 @@
         <v>-32245732.5416</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
-      </c>
-      <c r="I160" t="n">
-        <v>1.912</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
         <v>1.917</v>
       </c>
@@ -5746,11 +5742,9 @@
         <v>-31290320.6616</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
-      </c>
-      <c r="I161" t="n">
-        <v>1.912</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
         <v>1.917</v>
       </c>
@@ -5787,11 +5781,9 @@
         <v>-34231104.5416</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
-      </c>
-      <c r="I162" t="n">
-        <v>1.929</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
         <v>1.917</v>
       </c>
@@ -5828,11 +5820,9 @@
         <v>-34231104.5416</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
-      </c>
-      <c r="I163" t="n">
-        <v>1.909</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
         <v>1.917</v>
       </c>
@@ -5869,11 +5859,9 @@
         <v>-32436723.6616</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
-      </c>
-      <c r="I164" t="n">
-        <v>1.909</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
         <v>1.917</v>
       </c>
@@ -6651,11 +6639,9 @@
         <v>-36849312.05480001</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
-      </c>
-      <c r="I184" t="n">
-        <v>1.908</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
         <v>1.917</v>
       </c>
@@ -6731,7 +6717,7 @@
         <v>-36728183.18200001</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
         <v>1.909</v>
@@ -6772,7 +6758,7 @@
         <v>-36666825.62940001</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I187" t="n">
         <v>1.91</v>
@@ -6813,11 +6799,9 @@
         <v>-36666825.62940001</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
-      </c>
-      <c r="I188" t="n">
-        <v>1.924</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
         <v>1.917</v>
       </c>
@@ -7807,6 +7791,6 @@
       <c r="M213" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest AOA.xlsx
+++ b/BackTest/2020-01-13 BackTest AOA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-16822236.2597</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-20161607.1397</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-20927902.0197</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-20162873.0197</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-16848391.1397</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-17133022.1397</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-12295842.7962</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-13033998.7962</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-10153427.9162</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-13557371.7962</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-12253500.9162</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-12253500.9162</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-14942090.7962</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-15018868.513</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-16760533.3244</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-18123206.3335</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-15146170.4535</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-16521005.4737</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-33483008.51300001</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -5467,14 +5467,10 @@
         <v>-31979592.37290001</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="J154" t="n">
-        <v>1.917</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
@@ -5504,19 +5500,11 @@
         <v>-32149499.38720001</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="J155" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5545,19 +5533,11 @@
         <v>-34178849.3016</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>1.915</v>
-      </c>
-      <c r="J156" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5589,14 +5569,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5628,14 +5602,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5667,14 +5635,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5706,14 +5668,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5745,14 +5701,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5784,14 +5734,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5823,14 +5767,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5862,14 +5800,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5901,14 +5833,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5940,14 +5866,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5979,14 +5899,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6018,14 +5932,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6057,14 +5965,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6096,14 +5998,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6135,14 +6031,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6174,14 +6064,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6213,14 +6097,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6252,14 +6130,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6291,14 +6163,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6330,14 +6196,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6369,14 +6229,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6408,14 +6262,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6447,14 +6295,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6486,14 +6328,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6525,14 +6361,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6564,14 +6394,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6603,14 +6427,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6639,17 +6457,15 @@
         <v>-36849312.05480001</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>1.908</v>
+      </c>
       <c r="J184" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1.908</v>
+      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6682,11 +6498,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>1.917</v>
+        <v>1.908</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L185" t="n">
@@ -6717,17 +6533,15 @@
         <v>-36728183.18200001</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>1.909</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>1.917</v>
+        <v>1.908</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L186" t="n">
@@ -6758,19 +6572,11 @@
         <v>-36666825.62940001</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="J187" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6802,14 +6608,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6841,14 +6641,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6880,14 +6674,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6919,14 +6707,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6958,14 +6740,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6997,14 +6773,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7036,14 +6806,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7075,14 +6839,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7114,14 +6872,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7153,14 +6905,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7192,14 +6938,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7231,14 +6971,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7270,14 +7004,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7309,14 +7037,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7348,14 +7070,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7387,14 +7103,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7426,14 +7136,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7465,14 +7169,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7504,14 +7202,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7543,14 +7235,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7582,14 +7268,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7621,14 +7301,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7660,14 +7334,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7699,14 +7367,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7738,14 +7400,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7777,20 +7433,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
       <c r="M213" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest AOA.xlsx
+++ b/BackTest/2020-01-13 BackTest AOA.xlsx
@@ -979,7 +979,7 @@
         <v>-14942090.7962</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-33483008.51300001</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-31920403.9316</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-31920403.9316</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-31979592.37290001</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,10 +5467,14 @@
         <v>-31979592.37290001</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="J154" t="n">
+        <v>1.917</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
@@ -5500,11 +5504,19 @@
         <v>-32149499.38720001</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="J155" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5533,11 +5545,19 @@
         <v>-34178849.3016</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="J156" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5569,8 +5589,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5602,8 +5628,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5632,11 +5664,17 @@
         <v>-32245732.5416</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5665,11 +5703,19 @@
         <v>-32245732.5416</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1.912</v>
+      </c>
+      <c r="J160" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5701,8 +5747,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5734,8 +5786,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5764,11 +5822,17 @@
         <v>-34231104.5416</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5797,11 +5861,17 @@
         <v>-32436723.6616</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5830,11 +5900,17 @@
         <v>-35713401.5416</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5866,8 +5942,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5896,13 +5978,19 @@
         <v>-33476002.6616</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L167" t="n">
-        <v>1</v>
+        <v>1.000216484089724</v>
       </c>
       <c r="M167" t="inlineStr"/>
     </row>
@@ -5929,7 +6017,7 @@
         <v>-36887831.5416</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +6050,7 @@
         <v>-36887831.5416</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6457,14 +6545,10 @@
         <v>-36849312.05480001</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>1.908</v>
-      </c>
-      <c r="J184" t="n">
-        <v>1.908</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
@@ -6497,14 +6581,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>1.908</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6536,14 +6614,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>1.908</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-13 BackTest AOA.xlsx
+++ b/BackTest/2020-01-13 BackTest AOA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M213"/>
+  <dimension ref="A1:L213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>1130012.88</v>
       </c>
       <c r="G2" t="n">
-        <v>-16822236.2597</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>3339370.88</v>
       </c>
       <c r="G3" t="n">
-        <v>-20161607.1397</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>766294.88</v>
       </c>
       <c r="G4" t="n">
-        <v>-20927902.0197</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>765029</v>
       </c>
       <c r="G5" t="n">
-        <v>-20162873.0197</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>3314481.88</v>
       </c>
       <c r="G6" t="n">
-        <v>-16848391.1397</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>3300439.88</v>
       </c>
       <c r="G7" t="n">
-        <v>-20148831.0197</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>683317.88</v>
       </c>
       <c r="G8" t="n">
-        <v>-20148831.0197</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>3015808.88</v>
       </c>
       <c r="G9" t="n">
-        <v>-17133022.1397</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>3171497.88</v>
       </c>
       <c r="G10" t="n">
-        <v>-13961524.2597</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>1661237.4635</v>
       </c>
       <c r="G11" t="n">
-        <v>-12300286.7962</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>4444</v>
       </c>
       <c r="G12" t="n">
-        <v>-12295842.7962</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>738156</v>
       </c>
       <c r="G13" t="n">
-        <v>-13033998.7962</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>2880570.88</v>
       </c>
       <c r="G14" t="n">
-        <v>-10153427.9162</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>3403943.88</v>
       </c>
       <c r="G15" t="n">
-        <v>-13557371.7962</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>1303870.88</v>
       </c>
       <c r="G16" t="n">
-        <v>-12253500.9162</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>3150141.88</v>
       </c>
       <c r="G17" t="n">
-        <v>-12253500.9162</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>2688589.88</v>
       </c>
       <c r="G18" t="n">
-        <v>-14942090.7962</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>26017.2143</v>
       </c>
       <c r="G19" t="n">
-        <v>-14968108.0105</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>50760.5025</v>
       </c>
       <c r="G20" t="n">
-        <v>-15018868.513</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>1741664.8114</v>
       </c>
       <c r="G21" t="n">
-        <v>-16760533.3244</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>1379092.88</v>
       </c>
       <c r="G22" t="n">
-        <v>-18139626.2044</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>16419.8709</v>
       </c>
       <c r="G23" t="n">
-        <v>-18123206.3335</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>2977035.88</v>
       </c>
       <c r="G24" t="n">
-        <v>-15146170.4535</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>2106443.2866</v>
       </c>
       <c r="G25" t="n">
-        <v>-17252613.7401</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>10752.4173</v>
       </c>
       <c r="G26" t="n">
-        <v>-17252613.7401</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>28000</v>
       </c>
       <c r="G27" t="n">
-        <v>-17252613.7401</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>26044.3864</v>
       </c>
       <c r="G28" t="n">
-        <v>-17226569.3537</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>705563.88</v>
       </c>
       <c r="G29" t="n">
-        <v>-16521005.4737</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>3376957.88</v>
       </c>
       <c r="G30" t="n">
-        <v>-19897963.3537</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>3248236.88</v>
       </c>
       <c r="G31" t="n">
-        <v>-19897963.3537</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>28000</v>
       </c>
       <c r="G32" t="n">
-        <v>-19897963.3537</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>28152.7349</v>
       </c>
       <c r="G33" t="n">
-        <v>-19869810.6188</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>775840.88</v>
       </c>
       <c r="G34" t="n">
-        <v>-19093969.7388</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>3548123.88</v>
       </c>
       <c r="G35" t="n">
-        <v>-22642093.6188</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>2897645.88</v>
       </c>
       <c r="G36" t="n">
-        <v>-22642093.6188</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>3382402.88</v>
       </c>
       <c r="G37" t="n">
-        <v>-19259690.7388</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>3404394.88</v>
       </c>
       <c r="G38" t="n">
-        <v>-22664085.6188</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>1478046.88</v>
       </c>
       <c r="G39" t="n">
-        <v>-22664085.6188</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>37584.1579</v>
       </c>
       <c r="G40" t="n">
-        <v>-22701669.7767</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>265612.9211</v>
       </c>
       <c r="G41" t="n">
-        <v>-22701669.7767</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>26126.2441</v>
       </c>
       <c r="G42" t="n">
-        <v>-22727796.0208</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>173053.819</v>
       </c>
       <c r="G43" t="n">
-        <v>-22727796.0208</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>918023.9393</v>
       </c>
       <c r="G44" t="n">
-        <v>-22727796.0208</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>872122.7423</v>
       </c>
       <c r="G45" t="n">
-        <v>-22727796.0208</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>10781.1625</v>
       </c>
       <c r="G46" t="n">
-        <v>-22738577.1833</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>40000</v>
       </c>
       <c r="G47" t="n">
-        <v>-22738577.1833</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>140000</v>
       </c>
       <c r="G48" t="n">
-        <v>-22598577.1833</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>393797.9664</v>
       </c>
       <c r="G49" t="n">
-        <v>-22992375.1497</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>3391.3582</v>
       </c>
       <c r="G50" t="n">
-        <v>-22988983.79150001</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>149000</v>
       </c>
       <c r="G51" t="n">
-        <v>-22839983.79150001</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>2026871</v>
       </c>
       <c r="G52" t="n">
-        <v>-24866854.79150001</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>840754.8287</v>
       </c>
       <c r="G53" t="n">
-        <v>-25707609.6202</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>5000</v>
       </c>
       <c r="G54" t="n">
-        <v>-25707609.6202</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>4657</v>
       </c>
       <c r="G55" t="n">
-        <v>-25707609.6202</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>16524.1023</v>
       </c>
       <c r="G56" t="n">
-        <v>-25707609.6202</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>1459568</v>
       </c>
       <c r="G57" t="n">
-        <v>-27167177.6202</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>2743685.88</v>
       </c>
       <c r="G58" t="n">
-        <v>-27167177.6202</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>835110.88</v>
       </c>
       <c r="G59" t="n">
-        <v>-26332066.74020001</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>3739463.88</v>
       </c>
       <c r="G60" t="n">
-        <v>-26332066.74020001</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>2981653.88</v>
       </c>
       <c r="G61" t="n">
-        <v>-29313720.6202</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>643823.88</v>
       </c>
       <c r="G62" t="n">
-        <v>-29313720.6202</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>770370.88</v>
       </c>
       <c r="G63" t="n">
-        <v>-28543349.74020001</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>40254.425</v>
       </c>
       <c r="G64" t="n">
-        <v>-28583604.16520001</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>422636.5779</v>
       </c>
       <c r="G65" t="n">
-        <v>-29006240.74310001</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>129800.4421</v>
       </c>
       <c r="G66" t="n">
-        <v>-29006240.74310001</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>2983815.88</v>
       </c>
       <c r="G67" t="n">
-        <v>-26022424.86310001</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>3242678.88</v>
       </c>
       <c r="G68" t="n">
-        <v>-26022424.86310001</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>438890</v>
       </c>
       <c r="G69" t="n">
-        <v>-26461314.86310001</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>40254.425</v>
       </c>
       <c r="G70" t="n">
-        <v>-26501569.28810001</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>885346</v>
       </c>
       <c r="G71" t="n">
-        <v>-25616223.28810001</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>3047093.76</v>
       </c>
       <c r="G72" t="n">
-        <v>-28663317.04810001</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>3131493.88</v>
       </c>
       <c r="G73" t="n">
-        <v>-31794810.92810001</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>8888</v>
       </c>
       <c r="G74" t="n">
-        <v>-31785922.92810001</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>13332</v>
       </c>
       <c r="G75" t="n">
-        <v>-31785922.92810001</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>914.4103</v>
       </c>
       <c r="G76" t="n">
-        <v>-31785922.92810001</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>9444</v>
       </c>
       <c r="G77" t="n">
-        <v>-31795366.92810001</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,19 @@
         <v>187556</v>
       </c>
       <c r="G78" t="n">
-        <v>-31982922.92810001</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1.907</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1.907</v>
+      </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2757,23 @@
         <v>99649.5353</v>
       </c>
       <c r="G79" t="n">
-        <v>-31883273.39280001</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>1.905</v>
+      </c>
+      <c r="I79" t="n">
+        <v>1.907</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2795,21 @@
         <v>25909.2528</v>
       </c>
       <c r="G80" t="n">
-        <v>-31857364.14000001</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>1.907</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2831,15 @@
         <v>671257.88</v>
       </c>
       <c r="G81" t="n">
-        <v>-32528622.02000001</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2861,15 @@
         <v>867.6938</v>
       </c>
       <c r="G82" t="n">
-        <v>-32529489.71380001</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2891,15 @@
         <v>14345.173</v>
       </c>
       <c r="G83" t="n">
-        <v>-32515144.54080001</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2921,15 @@
         <v>36956.1729</v>
       </c>
       <c r="G84" t="n">
-        <v>-32478188.36790001</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2951,15 @@
         <v>123573.4667</v>
       </c>
       <c r="G85" t="n">
-        <v>-32601761.83460001</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2981,15 @@
         <v>65990.099</v>
       </c>
       <c r="G86" t="n">
-        <v>-32535771.73560001</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3011,15 @@
         <v>33056.057</v>
       </c>
       <c r="G87" t="n">
-        <v>-32535771.73560001</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3041,15 @@
         <v>14159.83</v>
       </c>
       <c r="G88" t="n">
-        <v>-32521611.90560001</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3071,15 @@
         <v>10781.1625</v>
       </c>
       <c r="G89" t="n">
-        <v>-32510830.74310001</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3101,15 @@
         <v>1387260.6499</v>
       </c>
       <c r="G90" t="n">
-        <v>-33898091.39300001</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3131,15 @@
         <v>2842625.76</v>
       </c>
       <c r="G91" t="n">
-        <v>-31055465.63300001</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3161,15 @@
         <v>2917156.88</v>
       </c>
       <c r="G92" t="n">
-        <v>-33972622.51300001</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3191,15 @@
         <v>1463004</v>
       </c>
       <c r="G93" t="n">
-        <v>-33972622.51300001</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3221,15 @@
         <v>2926300.88</v>
       </c>
       <c r="G94" t="n">
-        <v>-31046321.63300001</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3251,15 @@
         <v>2436686.88</v>
       </c>
       <c r="G95" t="n">
-        <v>-33483008.51300001</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3281,15 @@
         <v>45923.0347</v>
       </c>
       <c r="G96" t="n">
-        <v>-33528931.54770001</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3311,15 @@
         <v>1279639</v>
       </c>
       <c r="G97" t="n">
-        <v>-32249292.54770001</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3341,15 @@
         <v>2927233.88</v>
       </c>
       <c r="G98" t="n">
-        <v>-29322058.66770001</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3371,15 @@
         <v>3011350.88</v>
       </c>
       <c r="G99" t="n">
-        <v>-32333409.54770001</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3401,15 @@
         <v>589</v>
       </c>
       <c r="G100" t="n">
-        <v>-32333409.54770001</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3431,15 @@
         <v>3855</v>
       </c>
       <c r="G101" t="n">
-        <v>-32333409.54770001</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3461,15 @@
         <v>101688.6064</v>
       </c>
       <c r="G102" t="n">
-        <v>-32333409.54770001</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3491,15 @@
         <v>1000</v>
       </c>
       <c r="G103" t="n">
-        <v>-32334409.54770001</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3521,15 @@
         <v>600</v>
       </c>
       <c r="G104" t="n">
-        <v>-32333809.54770001</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3551,15 @@
         <v>419.7219</v>
       </c>
       <c r="G105" t="n">
-        <v>-32333809.54770001</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3581,15 @@
         <v>30537.188</v>
       </c>
       <c r="G106" t="n">
-        <v>-32303272.35970001</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3611,15 @@
         <v>1000</v>
       </c>
       <c r="G107" t="n">
-        <v>-32303272.35970001</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3641,15 @@
         <v>9300</v>
       </c>
       <c r="G108" t="n">
-        <v>-32293972.35970001</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3671,15 @@
         <v>300</v>
       </c>
       <c r="G109" t="n">
-        <v>-32293972.35970001</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3701,15 @@
         <v>1114682.566</v>
       </c>
       <c r="G110" t="n">
-        <v>-31179289.79370001</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3731,15 @@
         <v>61192.0067</v>
       </c>
       <c r="G111" t="n">
-        <v>-31118097.78700001</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3761,15 @@
         <v>47425.3182</v>
       </c>
       <c r="G112" t="n">
-        <v>-31165523.10520001</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3791,15 @@
         <v>46496.4754</v>
       </c>
       <c r="G113" t="n">
-        <v>-31119026.62980001</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3821,15 @@
         <v>665550.7804</v>
       </c>
       <c r="G114" t="n">
-        <v>-31784577.41020001</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3851,15 @@
         <v>3189784.88</v>
       </c>
       <c r="G115" t="n">
-        <v>-28594792.53020001</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3881,15 @@
         <v>3371933.88</v>
       </c>
       <c r="G116" t="n">
-        <v>-31966726.41020001</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3911,15 @@
         <v>1889290.271</v>
       </c>
       <c r="G117" t="n">
-        <v>-30077436.13920001</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3941,15 @@
         <v>25815.2173</v>
       </c>
       <c r="G118" t="n">
-        <v>-30077436.13920001</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3971,15 @@
         <v>1947854</v>
       </c>
       <c r="G119" t="n">
-        <v>-32025290.13920001</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4001,15 @@
         <v>2753999.76</v>
       </c>
       <c r="G120" t="n">
-        <v>-29271290.3792</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4031,15 @@
         <v>2696309.88</v>
       </c>
       <c r="G121" t="n">
-        <v>-31967600.2592</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4061,15 @@
         <v>770.7894</v>
       </c>
       <c r="G122" t="n">
-        <v>-31966829.4698</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4091,15 @@
         <v>1421.980300673924</v>
       </c>
       <c r="G123" t="n">
-        <v>-31966829.4698</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4121,15 @@
         <v>1421.9803</v>
       </c>
       <c r="G124" t="n">
-        <v>-31968251.4501</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4151,15 @@
         <v>1710469.88</v>
       </c>
       <c r="G125" t="n">
-        <v>-31968251.4501</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4181,15 @@
         <v>251478</v>
       </c>
       <c r="G126" t="n">
-        <v>-31968251.4501</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4211,15 @@
         <v>24700.5185</v>
       </c>
       <c r="G127" t="n">
-        <v>-31943550.9316</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4241,15 @@
         <v>500</v>
       </c>
       <c r="G128" t="n">
-        <v>-31943050.9316</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4271,15 @@
         <v>260</v>
       </c>
       <c r="G129" t="n">
-        <v>-31943050.9316</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4301,15 @@
         <v>561</v>
       </c>
       <c r="G130" t="n">
-        <v>-31943050.9316</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4331,15 @@
         <v>3123</v>
       </c>
       <c r="G131" t="n">
-        <v>-31943050.9316</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4361,15 @@
         <v>523</v>
       </c>
       <c r="G132" t="n">
-        <v>-31942527.9316</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4391,15 @@
         <v>260</v>
       </c>
       <c r="G133" t="n">
-        <v>-31942527.9316</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4421,15 @@
         <v>3921</v>
       </c>
       <c r="G134" t="n">
-        <v>-31938606.9316</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4451,15 @@
         <v>4704</v>
       </c>
       <c r="G135" t="n">
-        <v>-31933902.9316</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4481,15 @@
         <v>4184</v>
       </c>
       <c r="G136" t="n">
-        <v>-31929718.9316</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4511,15 @@
         <v>2000</v>
       </c>
       <c r="G137" t="n">
-        <v>-31931718.9316</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4541,15 @@
         <v>869</v>
       </c>
       <c r="G138" t="n">
-        <v>-31931718.9316</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4571,15 @@
         <v>11315</v>
       </c>
       <c r="G139" t="n">
-        <v>-31920403.9316</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4601,15 @@
         <v>1000</v>
       </c>
       <c r="G140" t="n">
-        <v>-31920403.9316</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4631,15 @@
         <v>180120.8521</v>
       </c>
       <c r="G141" t="n">
-        <v>-31920403.9316</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4661,15 @@
         <v>3178</v>
       </c>
       <c r="G142" t="n">
-        <v>-31920403.9316</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4691,15 @@
         <v>179243.0414</v>
       </c>
       <c r="G143" t="n">
-        <v>-31920403.9316</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4721,15 @@
         <v>784</v>
       </c>
       <c r="G144" t="n">
-        <v>-31920403.9316</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4751,15 @@
         <v>3000</v>
       </c>
       <c r="G145" t="n">
-        <v>-31920403.9316</v>
-      </c>
-      <c r="H145" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4781,15 @@
         <v>6825</v>
       </c>
       <c r="G146" t="n">
-        <v>-31920403.9316</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4811,15 @@
         <v>500</v>
       </c>
       <c r="G147" t="n">
-        <v>-31920403.9316</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4841,15 @@
         <v>2421</v>
       </c>
       <c r="G148" t="n">
-        <v>-31920403.9316</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4871,15 @@
         <v>2500</v>
       </c>
       <c r="G149" t="n">
-        <v>-31920403.9316</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4901,15 @@
         <v>1877</v>
       </c>
       <c r="G150" t="n">
-        <v>-31920403.9316</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4931,15 @@
         <v>1661</v>
       </c>
       <c r="G151" t="n">
-        <v>-31920403.9316</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4961,15 @@
         <v>1084</v>
       </c>
       <c r="G152" t="n">
-        <v>-31920403.9316</v>
-      </c>
-      <c r="H152" t="n">
         <v>2</v>
       </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4991,15 @@
         <v>59188.4413</v>
       </c>
       <c r="G153" t="n">
-        <v>-31979592.37290001</v>
-      </c>
-      <c r="H153" t="n">
         <v>2</v>
       </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,22 +5021,15 @@
         <v>5647.7246</v>
       </c>
       <c r="G154" t="n">
-        <v>-31979592.37290001</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="J154" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5501,26 +5051,15 @@
         <v>169907.0143</v>
       </c>
       <c r="G155" t="n">
-        <v>-32149499.38720001</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="J155" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5542,26 +5081,15 @@
         <v>2029349.9144</v>
       </c>
       <c r="G156" t="n">
-        <v>-34178849.3016</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>1.915</v>
-      </c>
-      <c r="J156" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5583,24 +5111,15 @@
         <v>2780061.76</v>
       </c>
       <c r="G157" t="n">
-        <v>-31398787.5416</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5622,24 +5141,15 @@
         <v>796945</v>
       </c>
       <c r="G158" t="n">
-        <v>-32195732.5416</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5661,24 +5171,15 @@
         <v>50000</v>
       </c>
       <c r="G159" t="n">
-        <v>-32245732.5416</v>
-      </c>
-      <c r="H159" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5700,26 +5201,15 @@
         <v>40558.0711</v>
       </c>
       <c r="G160" t="n">
-        <v>-32245732.5416</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="J160" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5741,24 +5231,15 @@
         <v>955411.88</v>
       </c>
       <c r="G161" t="n">
-        <v>-31290320.6616</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5780,24 +5261,15 @@
         <v>2940783.88</v>
       </c>
       <c r="G162" t="n">
-        <v>-34231104.5416</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5819,24 +5291,15 @@
         <v>2982037.88</v>
       </c>
       <c r="G163" t="n">
-        <v>-34231104.5416</v>
-      </c>
-      <c r="H163" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5858,24 +5321,15 @@
         <v>1794380.88</v>
       </c>
       <c r="G164" t="n">
-        <v>-32436723.6616</v>
-      </c>
-      <c r="H164" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5897,24 +5351,15 @@
         <v>3276677.88</v>
       </c>
       <c r="G165" t="n">
-        <v>-35713401.5416</v>
-      </c>
-      <c r="H165" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5936,24 +5381,15 @@
         <v>2221502.88</v>
       </c>
       <c r="G166" t="n">
-        <v>-35713401.5416</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5975,24 +5411,15 @@
         <v>2237398.88</v>
       </c>
       <c r="G167" t="n">
-        <v>-33476002.6616</v>
-      </c>
-      <c r="H167" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1.000216484089724</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6014,18 +5441,15 @@
         <v>3411828.88</v>
       </c>
       <c r="G168" t="n">
-        <v>-36887831.5416</v>
-      </c>
-      <c r="H168" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6047,18 +5471,15 @@
         <v>1404700.88</v>
       </c>
       <c r="G169" t="n">
-        <v>-36887831.5416</v>
-      </c>
-      <c r="H169" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6080,18 +5501,15 @@
         <v>3852.6091</v>
       </c>
       <c r="G170" t="n">
-        <v>-36891684.1507</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6113,18 +5531,15 @@
         <v>225238</v>
       </c>
       <c r="G171" t="n">
-        <v>-36666446.1507</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6146,18 +5561,15 @@
         <v>2851138.76</v>
       </c>
       <c r="G172" t="n">
-        <v>-36666446.1507</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6179,18 +5591,15 @@
         <v>627641</v>
       </c>
       <c r="G173" t="n">
-        <v>-37294087.1507</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6212,18 +5621,15 @@
         <v>3852.6091</v>
       </c>
       <c r="G174" t="n">
-        <v>-37290234.5416</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6245,18 +5651,15 @@
         <v>10000</v>
       </c>
       <c r="G175" t="n">
-        <v>-37290234.5416</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6278,18 +5681,15 @@
         <v>24143.2039</v>
       </c>
       <c r="G176" t="n">
-        <v>-37290234.5416</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6311,18 +5711,15 @@
         <v>1106384.1267</v>
       </c>
       <c r="G177" t="n">
-        <v>-38396618.6683</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6344,18 +5741,15 @@
         <v>2791957.76</v>
       </c>
       <c r="G178" t="n">
-        <v>-35604660.9083</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6377,18 +5771,15 @@
         <v>534134</v>
       </c>
       <c r="G179" t="n">
-        <v>-36138794.9083</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6410,18 +5801,15 @@
         <v>20116.5496</v>
       </c>
       <c r="G180" t="n">
-        <v>-36118678.35870001</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6443,18 +5831,15 @@
         <v>10134.4077</v>
       </c>
       <c r="G181" t="n">
-        <v>-36118678.35870001</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6476,18 +5861,15 @@
         <v>517378.7548</v>
       </c>
       <c r="G182" t="n">
-        <v>-36636057.11350001</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6509,18 +5891,15 @@
         <v>219718.7189</v>
       </c>
       <c r="G183" t="n">
-        <v>-36855775.83240001</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6542,18 +5921,15 @@
         <v>6463.7776</v>
       </c>
       <c r="G184" t="n">
-        <v>-36849312.05480001</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6575,18 +5951,15 @@
         <v>14300.9872</v>
       </c>
       <c r="G185" t="n">
-        <v>-36849312.05480001</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6608,18 +5981,15 @@
         <v>121128.8728</v>
       </c>
       <c r="G186" t="n">
-        <v>-36728183.18200001</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6641,18 +6011,15 @@
         <v>61357.5526</v>
       </c>
       <c r="G187" t="n">
-        <v>-36666825.62940001</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6674,18 +6041,15 @@
         <v>12119.008</v>
       </c>
       <c r="G188" t="n">
-        <v>-36666825.62940001</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6707,18 +6071,15 @@
         <v>1153.9676</v>
       </c>
       <c r="G189" t="n">
-        <v>-36667979.59700002</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6740,18 +6101,15 @@
         <v>260</v>
       </c>
       <c r="G190" t="n">
-        <v>-36667719.59700002</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6773,18 +6131,15 @@
         <v>261</v>
       </c>
       <c r="G191" t="n">
-        <v>-36667458.59700002</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6806,18 +6161,15 @@
         <v>33124.7575</v>
       </c>
       <c r="G192" t="n">
-        <v>-36700583.35450002</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6839,18 +6191,15 @@
         <v>260</v>
       </c>
       <c r="G193" t="n">
-        <v>-36700323.35450002</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6872,18 +6221,15 @@
         <v>731418.969</v>
       </c>
       <c r="G194" t="n">
-        <v>-37431742.32350001</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6905,18 +6251,15 @@
         <v>100000</v>
       </c>
       <c r="G195" t="n">
-        <v>-37531742.32350001</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6938,18 +6281,15 @@
         <v>347878.5401</v>
       </c>
       <c r="G196" t="n">
-        <v>-37183863.78340001</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6971,18 +6311,15 @@
         <v>2317.6577</v>
       </c>
       <c r="G197" t="n">
-        <v>-37186181.44110002</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7004,18 +6341,15 @@
         <v>49481.1295</v>
       </c>
       <c r="G198" t="n">
-        <v>-37136700.31160001</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7037,18 +6371,15 @@
         <v>80000</v>
       </c>
       <c r="G199" t="n">
-        <v>-37056700.31160001</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7070,18 +6401,15 @@
         <v>7000</v>
       </c>
       <c r="G200" t="n">
-        <v>-37056700.31160001</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7103,18 +6431,15 @@
         <v>22214.5979</v>
       </c>
       <c r="G201" t="n">
-        <v>-37034485.71370001</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7136,18 +6461,15 @@
         <v>21107.4295</v>
       </c>
       <c r="G202" t="n">
-        <v>-37034485.71370001</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7169,18 +6491,15 @@
         <v>10720.3212</v>
       </c>
       <c r="G203" t="n">
-        <v>-37045206.03490001</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7202,18 +6521,15 @@
         <v>260</v>
       </c>
       <c r="G204" t="n">
-        <v>-37044946.03490001</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7235,18 +6551,15 @@
         <v>171717.724</v>
       </c>
       <c r="G205" t="n">
-        <v>-37044946.03490001</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7268,18 +6581,15 @@
         <v>22220</v>
       </c>
       <c r="G206" t="n">
-        <v>-37044946.03490001</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7301,18 +6611,15 @@
         <v>10017.1648</v>
       </c>
       <c r="G207" t="n">
-        <v>-37034928.87010001</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7334,18 +6641,15 @@
         <v>3451.1787</v>
       </c>
       <c r="G208" t="n">
-        <v>-37034928.87010001</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7367,18 +6671,15 @@
         <v>65682.584</v>
       </c>
       <c r="G209" t="n">
-        <v>-36969246.28610001</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7400,18 +6701,15 @@
         <v>5627.3295</v>
       </c>
       <c r="G210" t="n">
-        <v>-36974873.6156</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7433,18 +6731,15 @@
         <v>9000</v>
       </c>
       <c r="G211" t="n">
-        <v>-36974873.6156</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7466,18 +6761,15 @@
         <v>312621.0099</v>
       </c>
       <c r="G212" t="n">
-        <v>-36974873.6156</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7499,18 +6791,15 @@
         <v>309897.1804</v>
       </c>
       <c r="G213" t="n">
-        <v>-36664976.43520001</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
